--- a/output/Total_time_range_data/西藏自治区/昌都市_学习考察.xlsx
+++ b/output/Total_time_range_data/西藏自治区/昌都市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1118 +436,1225 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>261</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>梁建勇会见昌都市宣传思想工作与融媒体建设学习考察团一行</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2019-06-03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100355/201906/5fea73c428d54c2bbd2a860bfa838872.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['20日，福建省委常委、宣传部长梁建勇在福建省福州市，会见了由昌都市委常委、宣传部长赵建国带队的昌都市宣传思想工作与融媒体建设学习考察团。', '梁建勇向考察团一行的到来表示了欢迎，简要介绍了福建省的基本情况、福建宣传文化工作开展情况、融媒体改革经验等。他指出，1994年党中央作出中央关心西藏、全国对口支援西藏的重大战略决策以来，福建省委、省政府认真贯彻落实中央关于西藏工作的有关部署要求，全力以赴做好对口支援工作，与西藏建立起了更加广泛深入的交流交融，并结下了深厚的情谊。他强调，高质量开展对口支援工作，既是党中央交给我们的光荣任务，也是我们义不容辞的政治责任。2016年，中央将福建对口支援城市调整到昌都。昌都在西藏乃至全国具有重要的战略地位，是国家重要的生态安全屏障和战略资源储备基地。福建一定以习近平新时代中国特色社会主义思想为指导，认真贯彻落实党中央治藏方略，坚决落实中央第六次西藏工作座谈会精神,积极做好对口支援工作，充分发挥人才资源优势，加强在媒体融合、创建全国文明城市等方面的工作经验交流，加大在项目、技术、培训等方面的援助力度，为昌都经济社会发展提供更加有力的支撑。', '赵建国在会见中，对福建省委长期以来对昌都的援助和支持，特别是为昌都派出宝贵人才表示了感谢。他说，昌都地处横段山脉，是西藏通往祖国内地的重要门户，素有藏东明珠的美誉。但受诸多因素限制，经济社会发展程度不高，脱贫攻坚任务异常艰巨。2016年以来的三年，是福建省对口支援昌都的三年，也是昌都宣传思想工作改变最大、提升最快、成效最好的三年。这些成绩的取得得益于援藏干部的辛勤付出。福建省选派的第八批289名援藏干部中，宣传系统选派人员有6名，他们对习近平新时代中国特色社会主义思想的理解透彻，思想敏锐性高，能够时刻紧跟党中央的决策部署，在西藏高寒缺氧的严苛环境中，充分发挥组织协调、沟通、学习能力强的优势，快速融入到西藏民族干部中，把福建改革开放的好经验带到了昌都，为昌都发展的事情尽职尽责，做出了重要的贡献。赵建国表示将充分借鉴吸收福建的好思路、好经验、好做法，不断提升自我发展能力，推动昌都宣传思想文化工作再上新台阶。', '福建省委宣传部常务副部长蔡小伟，福建省委宣传部副部长、福建日报社党组书记、社长张宗云，福建省省广播电视局党组书记、局长李强等领导参加了会见。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>261</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>西藏自治区党政代表团到天津回访学习考察共商对口支援西藏工作深化津藏两地交流合作李鸿忠吴英杰讲话张国清段春华盛</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2018-12-03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100355/201812/ddbdb8ed232e4d43a3a5647d84fa455f.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['西藏自治区党政代表团到天津回访学习考察 共商对口支援西藏工作 深化津藏两地交流合作 李鸿忠吴英杰讲话 张国清段春华盛', '带着全区330多万干部群众的无限感激之情，24日，以自治区党委书记吴英杰为团长的西藏自治区党政代表团来到天津回访学习考察，与天津市委书记李鸿忠，天津市委副书记、市长张国清，天津市人大常委会主任段春华，天津市政协主席盛茂林等领导同志进行座谈。', '今年7月，天津市委书记李鸿忠率天津市党政代表团赴藏东明珠——昌都市考察调研工作，助推援藏工作取得新发展。时隔4个月，西藏自治区党政代表团又来到享有渤海明珠之称的天津市，共商对口支援西藏工作，深化津藏两地交流合作，互访把津藏两地紧紧连在一起。', '李鸿忠在讲话中指出，党的十八大以来，西藏自治区党委、政府坚决贯彻落实习近平总书记关于治边稳藏的重要论述，忠诚践行“四个意识”、落实“两个维护”，教育引导各族群众坚定走中国特色社会主义道路的信心决心，全区上下团结一心，加快推动西藏各项事业发展。今年7月，天津市党政代表团到西藏考察学习，我们深切感受到习近平总书记关于治边稳藏重要论述在西藏的生动实践，深切感受到自治区党委、政府强烈的政治责任担当和扎实的工作成效，深切感受到西藏各级党政干部在高原缺氧条件下奋力拼搏、牺牲奉献的精神力量。我们要坚持以习近平新时代中国特色社会主义思想和党的十九大精神为指导，坚决贯彻落实习近平总书记治边稳藏重要论述和对口支援重要指示精神，以代表团来津考察为契机，扎实推进援藏工作，完成好党中央交给的重要政治任务。一是升级加力助推昌都脱贫攻坚，精准施策、精准滴灌，促进农牧民增收，增强当地造血能力。二是坚持“有限”“无限”相结合，继续加大资金投入，最大限度发挥综合效益。拓展产业投资、干部培训、劳务输出等全方位帮扶，引导社会力量参与援藏事业，真诚援助，凝聚人心，以无限感情推动交流交往。三是“授人以鱼”和“授人以渔”相结合，紧贴当地需求，创新专业人才交流机制，采取灵活方式，做好医疗卫生、教育科技等专业人才援派工作，充分发挥天津职业教育优势，全力支持自治区技师培训项目建设。', '吴英杰代表自治区党委、人大、政府、政协和全区各族人民向天津市多年来对西藏工作给予的大力支援表示衷心感谢。吴英杰指出，24年来，天津市站在党和国家战略全局的高度，讲政治、讲大局、讲奉献，坚决贯彻落实中央的决策部署，有力促进了昌都经济发展、有力提高了昌都人民生活水平、有力维护了边疆稳定和边境安全、有力地促进了两地群众交往交流交融和民族团结，切实加强了昌都干部队伍建设。西藏各族人民对天津市的无私援助感恩在怀、念念不忘。吴英杰指出，当前西藏总体形势很好，正处在历史上最好时期之一。各族群众从党的十八大以来身边的新发展新变化新生活中，深刻感受到了总书记作为党的核心、军队统帅、人民领袖的英明伟大，感党恩听党话跟党走的信心决心坚定坚决。希望天津市一如既往支持对口支援工作，帮助西藏做好脱贫攻坚、产业发展、生态保护、教育事业、科技创新、城市管理、干部人才、职业教育等重点工作。我们将牢固树立“四个意识”、坚定“四个自信”，做到“两个维护”，以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大、十九届二中、三中全会和中央第六次西藏工作座谈会精神，贯彻落实总书记关于治边稳藏的重要论述，以绝对忠诚的态度做好改革发展稳定各项工作，以优异成绩向党中央和全国人民交上一份满意答卷。', '中央关心和全国支援始终是推动西藏发展进步的强大动力。每年都有莘莘学子走出雪域高原来到内地求学，真切感受到全国人民的深厚情谊；也会有远离故土亲人的援藏干部人才踏上世界屋脊，为受援地经济社会发展贡献力量。这种密切的交流相融架起了沟通的桥梁，拉近了西藏和祖国内地的距离，增进了各族人民的友谊，是社会主义制度无比优越性的生动实践，充分彰显了祖国大家庭的温暖。', '回访期间，吴英杰还专程来到天津红光中学考察学校办学情况，召开座谈会听取援藏干部发言。吴英杰走进课堂、来到师生中间，亲切看望慰问广大师生。学生合唱团用藏汉双语深情地唱起《一个妈妈的女儿》，吴英杰听后十分欣慰，他鼓励学生要牢记习近平总书记和党的恩情，倍加珍惜良好的学习条件，不忘老师家长的嘱托，从小树立远大志向，学知识、学文化、学做人，培养奋斗精神，强健体魄，毕业后把中央关心和全国人民的深情厚谊带回西藏，为建设家乡发光发热。希望广大老师要紧密联系我区改革发展稳定实际，紧贴时代和大局，坚持把德育放在首位，深入开展反对分裂、维护祖国统一和民族团结教育，加强中华民族优秀文化、传统美德教育，引导各族学生养成好思想、好品德；要适应西藏加快发展的实际，面向现代化和未来，突出素质教育，有效加强理科教学，引导各族学生崇尚科学、追求进步。在和援藏干部代表座谈时，吴英杰说，实践证明，天津援藏干部没有辜负天津市委、市政府和全市人民的期望和重托，不愧是党的好干部、人民的好公仆。希望已经援藏和正在援藏的干部继续发扬“老西藏精神”“两路精神”，勤奋学习，扎实工作，在各自岗位上争做表率、争当模范。', '在津期间，代表团还考察了天津市规划展览馆，大家无不为祖国发生的巨大变化感到振奋和自豪，进一步坚定了推进新时代长足发展和长治久安，建设社会主义现代化西藏的信心决心。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>261</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>卡若区召开赴拉萨市城关区学习考察情况汇报会</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100358/202208/215b16918f6443f7b21c0ab0e5cbc205.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['2022年7月6日上午，卡若区组织卡若区赴拉萨市城关区学习考察组成员召开拉萨市城关区学习考察情况汇报会。会议由区委副书记、区长、二级巡视员罗松吉村主持，与会人员就考察学习做了深入的交流。', '大家从基层组织架构、市域社会化治理执法力量下沉、网格化治理、智慧城市治理、违法用地和违章建筑处置、市域综合治理人员素质提升、小区综合治理七个方面深入进行讨论，罗松吉村同志通过众多事例和通俗易懂的语言，简明扼要地讲解了市域综合治理发展的重要性，要求虚心学习好拉萨市城关区市域综合治理成果，认真总结好昌都市主城区市域综合治理的不足。', '经过此次汇报交流会，与会同志深刻的意识到以龚会才书记为班长的昌都市委对昌都市市域综合治理现状的精准分析以及下一步工作方向的准确指导。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>261</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>天津市党政代表团赴西藏昌都市学习考察全面落实援藏使命职责升级加力推动昌都发展李鸿忠吴英杰张国清齐扎拉出席对口支援工作座谈会</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2018-07-13</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100360/201807/44f1d90181334393bd3332120ca4bfc9.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['天津市党政代表团赴西藏昌都市学习考察全面落实援藏使命职责 升级加力推动昌都发展李鸿忠吴英杰张国清齐扎拉出席对口支援工作座谈会', '为深入学习贯彻习近平总书记关于西藏工作的重要指示要求，贯彻落实中央第六次西藏工作座谈会和东西部扶贫协作座谈会精神，9日至11日，市委书记李鸿忠，市委副书记、市长张国清率天津市党政代表团赴西藏自治区昌都市学习考察，进一步推动我市对口援藏工作，推进津藏深入交流合作。', '西藏自治区党委书记吴英杰，自治区党委副书记、自治区主席齐扎拉陪同考察并出席对口支援工作座谈会。', '10日上午，李鸿忠、张国清在吴英杰、齐扎拉的陪同下，冒雨考察了昌都市卡若镇达修天津新村、市高等职业技术学院、博宇农业生态园、天津大桥等天津援建项目。卡若镇达修天津新村，属于易地搬迁项目，共计搬迁农牧民群众127户、543人。市高等职业技术学院规划在校生6000人，天津市援建资金8630万元，用来建设图文信息中心、综合办公楼、实训教学楼等共2.1万平方米。博宇农业生态园项目预计可解决左巴村100余人就业，带动当地生态旅游发展。', '在达修天津新村，李鸿忠一行来到脱贫户西绕永青家中看望慰问，与一家人促膝而坐，谈心聊家常。西绕永青激动地讲述着天津援建带来的幸福生活。六岁的小女儿扎西泽西用汉语给大家演唱了幼儿园新学到的儿歌。李鸿忠鼓励小扎西泽西好好学习、早日成才，并深情地向一家人说，习近平总书记十分牵挂各族人民生活，今天藏区能有这样的好生活，首先要感谢习近平总书记、感谢党中央、感谢党的援藏政策。天津要与大家齐心协力，让大伙儿的日子越来越好。李鸿忠提议和他们一家结为民族团结的亲戚，欢迎有时间到天津走走亲戚，看看内地的发展。西绕永青一家人非常高兴，小扎西泽西更是亲切地喊起了爷爷。一幕幕温馨的场景，令大家深受感动。', '在下午召开的对口支援工作座谈会上，张国清、齐扎拉分别汇报了天津、西藏发展稳定和对口支援工作情况。会议听取了昌都市、天津援藏前指工作汇报。', '李鸿忠在讲话中说，此次昌都之行，是一次深入学习贯彻习近平总书记关于治边稳藏重要战略思想的实践教育课，我们切身感受到西藏经济社会发展发生的巨大变化，特别是西藏各级党政干部展现出的“老西藏精神”令人感到由衷钦佩。西藏工作对于党和国家发展大局至关重要，只有边疆的繁荣稳定，内地发展才能有更加坚实的战略保障。', '李鸿忠强调，天津要在习近平新时代中国特色社会主义思想指引下，增强“四个意识”，坚决履行好党中央赋予的神圣职责，紧密结合新阶段西藏发展新需求，科学把握“供血”与“造血”等关系，创新援藏思路举措，助推当地实现新发展。要坚持升级加力，加大援藏资金、项目投入力度；坚持“多层全覆盖、有限无限相结合”，构建市、区、街道(乡镇)全方位援藏对接机制，用好有限财政资金，以无限感情推动企业等社会力量参与；坚持精准扶贫、精准脱贫，聚焦农牧民增收和生活改善；坚持扶志与扶智相结合，发挥天津职教优势，做好教育、文化、医疗援藏；坚持以提升当地生产力水平为目标，结合西藏生态优势和天津港口、智能制造等优势，推动产业发展；坚持交流交往交融，注重心与心的沟通，增进津藏各族人民兄弟情谊。', '吴英杰代表自治区党委、政府和全区各族人民对天津市长期以来对西藏工作的关心支持表示衷心感谢。他说，党的十八大以来，在以习近平同志为核心的党中央坚强领导、亲切关怀下，自治区党委、政府团结带领全区各族人民，深入贯彻落实习近平新时代中国特色社会主义思想和总书记治边稳藏重要战略思想，推动各项工作取得了新成就，西藏正处在历史上最好时期之一。', '吴英杰指出，长期以来，天津市站在党和国家工作全局的高度，始终把做好对口援藏工作作为一项重大政治任务和光荣使命，在项目、资金、人才、技术等方面进行全方位支持，有力促进了昌都市经济社会全面进步。下一步，我们将牢固树立“四个意识”，正确处理好中央关心、全国支援和自力更生、艰苦奋斗的关系，进一步做好受援工作，把天津支援的资金使用好、项目落实好、干部管理好，为天津对口援藏工作创造良好条件。真诚希望天津市一如既往地关心支持西藏工作，进一步加大对口支援力度，为推进昌都长足发展和长治久安提供有力支撑。', '在昌都期间，我市和自治区领导看望慰问了全市第八批援藏干部。李鸿忠勉励各位援藏干部，要牢记党中央、习近平总书记嘱托，提高政治站位，以昂扬的精神状态，倾注满腔热情，忠诚履职尽责，在援藏工作岗位上，磨练意志、增长才干。要带着深厚感情开展工作，增进感情交流，为促进民族团结进步作出新的更大贡献。', '自治区领导刘江和自治区政府秘书长朱强，市领导李毅、梁宝明、李树起、魏大鹏和市政府秘书长孟庆松参加。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>261</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>察雅县党政代表团赴重庆市万州区回访学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100358/202306/4ceaad34d1114007ad664080adad939b.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['为深入贯彻党的二十大、中央第六次、第七次西藏工作座谈会精神特别是习近平总书记视察西藏时的重要讲话和新时代党的治藏方略以及西藏自治区党委、昌都市委关于援藏工作的部署要求。6月25日，带着全县各族干部群众的无限感激，察雅县委书记其珠多吉率领党政代表团赴重庆市万州区开展援藏回访学习考察，举行万州·察雅对口支援工作座谈会，强化万察两地援藏对接，深化人文互鉴，促进各民族间交往交流交融，进一步加深两地友谊，携手推动援藏工作取得新成效。', '重庆市委常委、万州区委书记于会文代表万州区委、区政府向察雅县党政代表团赴万回访表示热烈欢迎。并指出，对口援藏是党中央和习近平总书记部署的重要政治任务，万州将坚定扛牢政治责任，立足察雅所需，竭尽万州之能，切实做好援察各项工作，促进察雅长治久安和高质量发展。', '其珠多吉代表察雅县委、县政府和全县各族干部群众向万州长期以来对察雅的无私援助表示衷心感谢。指出，察雅的发展变化根本在于习近平新时代中国特色社会主义思想科学指引，根本在于以习近平同志为核心的党中央把舵领航。离不开援察省市企业的无私援助和广大援藏干部的默默付出。立足新征程、站在新起点，将进一步把万州援助和自力更生、艰苦奋斗结合起来，锚定“四件大事”、聚力“四个创建”，围绕“六县六化”强县举措、“四地一中心一支撑”发展定位、“一核两特十点多美”城乡格局和“一带、两圈、三地、四线、五个一万、六个千万、七个多项”产业体系，奋力谱写察雅长治久安和高质量发展新篇章。', '万州区委副书记李庆，区委常委、办公室主任吴晓明，区委常委、区政府副区长张范，区人大常委会副主任许明云，区政府副区长骆高燕，区政协副主席邹燕等万州区相关领导和部门负责同志，察雅县委常务副书记、常务副县长徐坤（重庆市永川区援藏），县委常委、县人大常委会主任江勇泽培，县政协主席多登，县委常委、副县长张亮（重庆市万州区援藏），县委常委、组织部部长陈凯峰和相关部门负责同志一同参加活动。', '6月26日，万州·察雅对口支援工作座谈会上共同观看了万州和察雅宣传片，万州区委常委、副区长张范和察雅县委常委、县人大常委会主任江勇泽培分别介绍了两地经济社会发展和对口支援工作情况，两地发改委、财政局、教育局、卫健委等单位进行了交流。万州区委常委、常务副区长赵光平对下一阶段援察工作从进一步推动教育卫生等领域人才双向交流、就业创业工作、产业深度合作、基础设施建设等方面进行了部署，帮助察雅加快补齐教育、医疗等民生领域短板。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>261</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>王君正主持召开自治区党委常委会扩大会议</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100358/202306/4ded85324eb44fb488b82dd4ac5c6b41.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['6月5日上午，自治区党委书记王君正主持召开自治区党委常委会（扩大）会议，认真传达学习习近平总书记致“2023·中国西藏发展论坛”贺信精神，研究部署贯彻落实工作。强调，', '要认真学习贯彻落实习近平总书记重要指示精神，坚持知行合一、实干为要，努力建设团结富裕文明和谐美丽的社会主义现代化新西藏。', '6月5日上午，自治区党委书记王君正主持召开自治区党委常委会（扩大）会议，认真传达学习习近平总书记致“2023·中国西藏发展论坛”贺信精神，研究部署贯彻落实工作。这是会议现场。记者 李洲 摄', '王君正指出，西藏作为特殊的边疆民族地区，始终受到以习近平同志为核心的党中央高度重视和深情牵挂。习近平总书记非常关心中国西藏发展论坛，继2019年致信祝贺论坛开幕，再次专门发来贺信，为我们做好西藏工作指明了前进方向、提供了根本遵循。全区各级各部门要深刻领会习近平总书记重要贺信精神，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，不断提高政治判断力、政治领悟力、政治执行力，坚决确保党中央决策部署在西藏学习领会到位、贯彻落实到位。', '王君正强调，各级各部门要深入学习宣传、贯彻落实习近平总书记重要贺信精神，自觉从中汲取奋进力量，努力在以学铸魂、以学增智、以学正风、以学促干上不断取得新成效。深入学习贯彻习近平总书记关于“人民幸福是最大的人权，发展是实现人民幸福的关键”的重要指示，坚持以人民为中心的发展思想，把群众身边的小事当作各级党委、政府的大事来抓，持续巩固拓展脱贫攻坚成果，全面推进乡村振兴，深入推进“十大民生工程”，努力让各族群众过上更加幸福美好的生活。深入学习贯彻习近平总书记关于“完整、准确、全面贯彻新发展理念”的重要指示，各级领导干部要不断提高贯彻新发展理念的能力和水平，更好地把新发展理念贯穿到经济社会发展全过程各领域，真正让新发展理念成为决策前提、行动自觉、价值体现。深入学习贯彻习近平总书记关于“加快推进高质量发展”的重要指示，坚持稳中求进工作总基调，按照“三个赋予一个有利于”的总要求，持续深化改革开放，加快培植清洁能源、数字经济、通用航空等战略性新兴产业，着力扩大有效投资，加大招商引资力度，加快走出一条符合西藏实际的高质量发展之路。深入学习贯彻习近平总书记关于“努力建设团结富裕文明和谐美丽的社会主义现代化新西藏”的重要指示，聚焦“四件大事”聚力“四个创建”，坚持求真务实，勇于担当作为，切实把党中央决策部署转化为推动西藏长治久安和高质量发展的具体行动和实际成效。', '深入学习贯彻习近平总书记关于“人民幸福是最大的人权，发展是实现人民幸福的关键”的重要指示，', '深入学习贯彻习近平总书记关于“努力建设团结富裕文明和谐美丽的社会主义现代化新西藏”的重要指示，', '王君正强调，各级各部门要牢固树立“一盘棋”思想，加强组织领导，压实工作责任，确保习近平总书记重要指示精神落地生根、开花结果。整合媒体资源，大力宣传习近平总书记重要贺信精神，大力宣传习近平总书记对西藏工作的高度重视、对各族群众的关心关怀，进一步营造良好舆论氛围。结合主题教育，深入实际调查研究，扑下身子、沉到一线，运用党的创新理论研究新情况、解决新问题、探索新机制，形成共促高质量发展的强大合力。改进作风狠抓落实，坚决防止形式主义、官僚主义，以钉钉子精神抓好工作落实。', '会议听取了自治区党政代表团赴河北、山东、四川学习考察情况通报。王君正指出，近年来，各省市党委全面贯彻落实习近平总书记关于西藏工作的重要指示和新时代党的治藏方略，扎实做好对口支援工作，深入推进交流合作，为促进西藏长治久安和高质量发展作出了重要贡献。此次学习考察，主题鲜明、重点突出，进一步加深了对习近平新时代中国特色社会主义思想的深刻理解和把握，感受了河北、山东、四川经济社会发展的良好风貌，进一步坚定了全面贯彻习近平总书记关于西藏工作的重要指示和新时代党的治藏方略的信心决心，增强了做好西藏工作的责任感使命感紧迫感。全区各级各部门要胸怀“两个大局”、心系“国之大者”，自觉把西藏高质量发展置于党和国家工作全局，积极融入国内国际双循环和全国统一大市场，解放思想、更新观念，优势互补、扬长避短，创造性开展工作。要转变工作作风，狠抓工作落实，不断改进和提升工作水平，切实把学习考察成果转化为发展思路、务实举措、过硬作风，努力推进西藏长治久安和高质量发展。', '全区各级各部门要胸怀“两个大局”、心系“国之大者”，自觉把西藏高质量发展置于党和国家工作全局，积极融入国内国际双循环和全国统一大市场，解放思想、更新观念，优势互补、扬长避短，创造性开展工作。', '会议听取了2022年川藏铁路建设工作情况汇报，研究审议了川藏铁路建设2023年工作要点。王君正强调，全区各级各部门要强化大局意识，紧紧围绕目标要求，统筹做好川藏铁路建设各项工作，加强工程建设管理，健全完善现代化建设管理体系，加大技术攻关创新力度，加强生态环境保护；聚焦沿线发展，深化路地合作，积极吸纳群众转移就业、引导大学生创新创业、培养建设运营人才、发展富民产业；强化沟通协调，形成工作合力，确保把川藏铁路建设成为精品工程、安全工程、绿色工程、创新工程、廉洁工程。', '王君正强调，要更新发展观念，坚持统筹兼顾、多规合一，优化功能布局，强化资金、土地、人才等要素保障，完善基础设施配套，努力把边境经济合作区建设成为集聚资源、承接项目、发展口岸特色经济的高水平沿边开放平台，助力高原经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>261</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>王君正主持召开自治区党委常委会扩大会议</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100359/202306/e2b15e866ab243dbb2b53b869339010f.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['5日上午，自治区党委书记王君正主持召开自治区党委常委会（扩大）会议，认真传达学习习近平总书记致“2023·中国西藏发展论坛”贺信精神，研究部署贯彻落实工作。强调，要认真学习贯彻落实习近平总书记重要指示精神，坚持知行合一、实干为要，努力建设团结富裕文明和谐美丽的社会主义现代化新西藏。', '王君正指出，西藏作为特殊的边疆民族地区，始终受到以习近平同志为核心的党中央高度重视和深情牵挂。习近平总书记非常关心中国西藏发展论坛，继2019年致信祝贺论坛开幕，再次专门发来贺信，为我们做好西藏工作指明了前进方向、提供了根本遵循。全区各级各部门要深刻领会习近平总书记重要贺信精神，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，不断提高政治判断力、政治领悟力、政治执行力，坚决确保党中央决策部署在西藏学习领会到位、贯彻落实到位。', '王君正强调，各级各部门要深入学习宣传、贯彻落实习近平总书记重要贺信精神，自觉从中汲取奋进力量，努力在以学铸魂、以学增智、以学正风、以学促干上不断取得新成效。要深入学习贯彻习近平总书记关于“人民幸福是最大的人权，发展是实现人民幸福的关键”的重要指示，坚持以人民为中心的发展思想，把群众身边的小事当作各级党委、政府的大事来抓，持续巩固拓展脱贫攻坚成果，全面推进乡村振兴，深入推进“十大民生工程”，努力让各族群众过上更加幸福美好的生活。要深入学习贯彻习近平总书记关于“完整、准确、全面贯彻新发展理念”的重要指示，各级领导干部要不断提高贯彻新发展理念的能力和水平，更好地把新发展理念贯穿到经济社会发展全过程各领域，真正让新发展理念成为决策前提、行动自觉、价值体现。要深入学习贯彻习近平总书记关于“加快推进高质量发展”的重要指示，坚持稳中求进工作总基调，按照“三个赋予一个有利于”的总要求，持续深化改革开放，加快培植清洁能源、数字经济、通用航空等战略性新兴产业，着力扩大有效投资，加大招商引资力度，加快走出一条符合西藏实际的高质量发展之路。要深入学习贯彻习近平总书记关于“努力建设团结富裕文明和谐美丽的社会主义现代化新西藏”的重要指示，聚焦“四件大事”聚力“四个创建”，坚持求真务实，勇于担当作为，切实把党中央决策部署转化为推动西藏长治久安和高质量发展的具体行动和实际成效。', '王君正强调，各级各部门要牢固树立“一盘棋”思想，加强组织领导，压实工作责任，确保习近平总书记重要指示精神落地生根、开花结果。整合媒体资源，大力宣传习近平总书记重要贺信精神，大力宣传习近平总书记对西藏工作的高度重视、对各族群众的关心关怀，进一步营造良好舆论氛围。结合主题教育，深入实际调查研究，扑下身子、沉到一线，运用党的创新理论研究新情况、解决新问题、探索新机制，形成共促高质量发展的强大合力。改进作风狠抓落实，坚决防止形式主义、官僚主义，以钉钉子精神抓好工作落实。', '会议听取了自治区党政代表团赴河北、山东、四川学习考察情况通报。王君正指出，近年来，各省市党委全面贯彻落实习近平总书记关于西藏工作的重要指示和新时代党的治藏方略，扎实做好对口支援工作，深入推进交流合作，为促进西藏长治久安和高质量发展作出了重要贡献。此次学习考察，主题鲜明、重点突出，进一步加深了对习近平新时代中国特色社会主义思想的深刻理解和把握，感受了河北、山东、四川经济社会发展的良好风貌，进一步坚定了全面贯彻习近平总书记关于西藏工作的重要指示和新时代党的治藏方略的信心决心，增强了做好西藏工作的责任感使命感紧迫感。全区各级各部门要胸怀“两个大局”、心系“国之大者”，自觉把西藏高质量发展置于党和国家工作全局，积极融入国内国际双循环和全国统一大市场，解放思想、更新观念，优势互补、扬长避短，创造性开展工作。要转变工作作风，狠抓工作落实，不断改进和提升工作水平，切实把学习考察成果转化为发展思路、务实举措、过硬作风，努力推进西藏长治久安和高质量发展。', '会议听取了2022年川藏铁路建设工作情况汇报，研究审议了川藏铁路建设2023年工作要点。王君正强调，全区各级各部门要强化大局意识，紧紧围绕目标要求，统筹做好川藏铁路建设各项工作，加强工程建设管理，健全完善现代化建设管理体系，加大技术攻关创新力度，加强生态环境保护；聚焦沿线发展，深化路地合作，积极吸纳群众转移就业、引导大学生创新创业、培养建设运营人才、发展富民产业；强化沟通协调，形成工作合力，确保把川藏铁路建设成为精品工程、安全工程、绿色工程、创新工程、廉洁工程。', '会议研究审议了吉隆边境经济合作区的建设方案。王君正强调，要更新发展观念，坚持统筹兼顾、多规合一，优化功能布局，强化资金、土地、人才等要素保障，完善基础设施配套，努力把边境经济合作区建设成为集聚资源、承接项目、发展口岸特色经济的高水平沿边开放平台，助力高原经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>261</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>天津援藏前指与天津建筑设计院密切配合加快推进昌都第二职业技术学校项目建设</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2019-03-21</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100360/201903/e0240013f4a94ad18334611d35ccfdfc.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['2018年7月9日-11日，中共中央政治局委员、天津市委书记李鸿忠，市委副书记张国清率天津市党政代表团赴昌都市学习考察。期间，李鸿忠书记对天津援建的昌都第二职业技术学校规划设计提出了具体的指示要求。天津援藏前方指挥部认真落实李鸿忠书记指示要求，在市扶贫协作和支援合作工作领导小组办公室的指导下，积极协调推进该项目建设。今年春节刚过(正月十四)，就专门派人到天津建筑设计院，在前期沟通的基础上，就设计任务、监理施工、工程招标、项目结算等问题与院领导、工程负责人进一步对接；3月初返藏后，及时就该项目建设问题，与天津建筑设计院及昌都方面多次沟通协调。', '3月14日-15日，天津建筑设计院派出由2名设计工程师组成的工作组赴昌都实地考察对接。工作组一行不顾一路奔波的疲劳和严重的高原反应，第一时间赶赴建筑工地现场了解相关情况，并在前方指挥部组织召开的具体问题对接工作会上，与项目规划设计方和施工方进行了深入对接，详细了解项目的外墙和室内建设具体情况，从如何保证项目建设质量、在项目中融入天津元素等方面，提出了意见建议，与各方达成了共识。', '昌都第二职业技术学校是天津重点援藏项目之一，是天津在发挥职业教育优势“软件”援藏基础上实施的“硬件”援藏项目，天津投入资金8631万元，援建学校图文信息中心、实训楼及体育馆等4栋建筑，预计2019年9月竣工。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>261</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>昌都市与林芝市考察组进行座谈佘兴宇出席</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2016-09-28</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100355/201609/1cb265c6baf443f39fab749e988ca4b2.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['近日，林芝市委副书记、常务副市长赵树明一行先后深入我市博物馆、野堆村孜通坝隧道、达因卡保障、自来水厂、尚噶花园、污水处理厂等地进行学习考察。', '24日上午，我市与林芝市考察组召开座谈会。昌都市委常务副书记、政法委书记佘兴宇出席并讲话，副市长泽仁俊美主持会议。', '会上，赵树明说，近年来，在党中央、国务院的亲切关怀下，在自治区党委、政府的领导下，在昌都等兄弟地市的引领带动下，林芝经济社会发展呈现出健康快速发展态势。并介绍了“十三五”时期林芝经济社会发展的总体思路：围绕2018年率先全面建成符合中央要求，符合西藏区情的小康社会，到2020年建成更高水平的小康社会；到2020年基本公共服务主要指标接近或达到西部地区平均水平“两大目标”，着力打造幸福、和谐、美丽“三个林芝”，重点抓好惠民生、抓投资、保生态、强产业、促创新、保稳定“六件大事”的发展思路。', '佘兴宇简要介绍昌都的基本情况后，就两市进一步加强交流合作提出，一是建立紧密高效的合作机制。积极构建政府协商体系，建立健全区域协调机制，加大工作互动力度，推动两市经济发展、社会和谐稳定；二是积极探索建立交通体系共建、要素市场共培、生态保障共享的合作机制，努力营造区域协调发展环境。逐步实现铁路、公路、航空三位一体的交通基础设施互联互通、全面接轨，为昌都、林芝两地市场互通有无、资源共享，各类要素合理流动、有效整合创造基础性条件；三是共同推动产业发展。建议充分利用“十三五”期间，林芝市拟打造为国家旅游区，以及我市拟打造为藏川滇青四省区交界区域经济中心和“西电东送”接续基地的有利机遇，依据不同优势，合作推进产业互补发展，促进产业联合与分工，增强区域主导产业的对外竞争力；四是合作推进旅游业发展。建议加强区域协作，加强两地旅游推广合作，借鉴学习林芝市的经验做法，联合策划旅游项目，联合促销旅游活动，联合开发旅游产品，共同打造两市精品旅游线路和品牌，共同发展。', '会上，我市住建局相关负责人首先介绍了昌都城市规划、建设及管理工作情况，并与林芝市各单位负责人交换意见。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>261</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>架起津昌民族团结桥天津市第八批援藏工作队卡若区工作组开展民族团结工作小记</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019-06-03</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100355/201906/51b844ce2e5c481789b78f4faec686b9.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['天津在海之滨，昌都在山之巅，两地相隔3000多公里，却因援藏工作，将两个风格迥异的城市连在一起，也将天津干部的心与昌都群众的心紧紧连在一起。', '天津市第八批援藏工作队卡若区工作组进藏以来，积极推进经济发展、着力改善民生、促进民族团结、维护社会稳定，为实现卡若区长足发展和长治久安积极贡献力量，谱写了一曲曲动人心弦、感人肺腑的民族团结赞歌。', '补齐“短板”是帮助民族地区发展的首要条件，卡若区工作组紧紧牵住发展这个“牛鼻子”，多次深入卡若区15个乡镇167个村(居)53座寺庙走访调研，科学制定发展思路，加快落实发展举措，实现了“十三五”、东西部协作和对口支援所有援藏项目精准落地。实施精准扶贫及新农村建设项目4个，完成投资3500余万元，带动建档立卡贫困户近百人增收。', '“对比天津，卡若区的民生基础设施还是落后一大截。”卡若区工作组相关负责人介绍，他们用实际行动切实把保障和改善民生作为加强民族团结工作的出发点和落脚点，以民生改善增进民族团结。先后投入资金3100余万元，完成基层卫生院建设和查漏补缺项目10项，新建卡若区面达乡、拉多乡、沙贡乡标准化卫生院3个；实施北部偏远乡镇嘎玛乡鸟东小学建设项目，解决如意乡中心小学近200名师生用水难题等等。', '卡若区工作组充分利用自身优势，积极挖掘天津医疗、教育、农牧等各类人才赴昌都实施短期支援4批次共14人，组织6批次150余人赴津进行学习考察、挂职锻炼等，有效促进两地建立密切联系，增进交流合作，共促民族团结。', '2018年，对于卡若区的西绕永青来说，是难忘的一年。7月，中共中央政治局委员、天津市委书记李鸿忠率队来访，与他家结为民族团结的“亲戚”。同年12月，没出过远门的西绕永青一家受邀前往天津走访探亲，与李鸿忠书记一家心贴心交流、畅叙民族团结亲情。', '卡若区工作组充分发挥桥梁纽带作用，积极搭建交流互访平台，积极促成津昌两地各层次交流互访7次，以实际行动彰显团结。同时，每位援藏干部还与卡若区2至3户建档立卡贫困户建立了帮扶关系，采取慰问走访、医疗服务、就业帮扶等多种形式，帮助建档立卡贫困户脱贫和持续增收。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>261</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>天津体育学院不断加大体育援藏工作力度</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2018-08-17</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100360/201808/aebe570884f146b5986b2df344b1e2dd.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['近日，为深入贯彻落实习近平总书记援藏工作相关讲话精神和中央第六次西藏工作座谈会精神，以及天津市委李鸿忠书记在昌都学习考察时的讲话精神，推进体育援藏工作升级加力，天津体育学院党委书记王欢率领工作组到昌都推进援藏工作。', '在工作对接座谈会上，王欢同志表达了对昌都市政府和市教育局(体育局)热情接待的感谢，对昌都各级领导关心照顾天津援藏干部表示感谢，介绍了天津体育学院基本情况，指出此行是为了深入贯彻落实习近平总书记援藏工作相关讲话精神和中央第六次西藏工作座谈会精神，以及前段时间李鸿忠书记访问西藏时安排的体育援藏工作任务，结合新阶段新发展新要求，共商合作事宜，签订合作意向书；他还特别指出，天津体育学院可以和昌都一起开展竞技体育选才工作，利用天津体育学院的技术和人才优势，开展昌都学生体质监测工作。昌都市教工委副书记、副市长胡登孚同志代表市委、市政府两位主要领导表达了对王欢同志一行的感谢和欢迎，他从历史沿革、人文地理、经济社会发展等方面全面详细介绍了昌都，并介绍了昌都教育体育基本情况。指出自1994年中央确定天津市对口支援昌都以来，天津市委、市政府始终把对口支援昌都作为重大的政治责任，从战略和全局的高度，形成了以干部援藏、资金援藏、产业援藏、智力援藏和组团式教育人才援藏为主要内容的援藏工作基本格局，在24年的援藏工作中，津昌两地人民结下了浓厚情谊。强调没有天津市委市政府和社会各界的无私援助，就没有昌都今天翻天覆地的变化。', '此次工作对接取得积极成果，天津体育学院与昌都市教育局(体育局)在四个方面达成了合作意向，并签订了协议书：一是天津体育学院定期选派专家到昌都为体育教师(教练员、社会体育指导员)举办学术报告或进行现场辅导，对口支持昌都体校的建设与发展。二是天津体育学院定期选派专家并携带专业器材，为昌都有关人群开展体质测试工作，为科学选材、科学健身提供科学依据。三是昌都市教育局(体育局)选派优秀体育教师(教练员、社会体育指导员、管理干部)到天津体育学院开展集中培训。四是昌都市教育局(体育局)选拔有培养前途的青少年运动员到天津体育学院进行集中训练，符合条件的可就读天津体育学院附属竞技体育学校。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>261</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>昌都市粮食局年度部门决算</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103259/201910/897c4cf280b741688dc4a028362b6d9c.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['昌都市粮食局主要执行国家、自治区粮食流通和储备粮管理的方针、政策和法律、法规、规章；拟订本市粮食流通体制改革方案并组织实施；承担全市国有粮食企业预警及应急责任；起草全市粮食流通和储备粮管理的有关措施并监督执行；负责全市粮食流通的行业管理；承担地方储备粮行政管理职责；拟订全市粮食市场体系建设与发展规划并组织实施；负责执行并监督检查国家、自治区粮食流通统计制度；监督管理全市粮食企业财务工作；承办全委及市发展和改革委员会交办的其他事项。', '根据上述职责，粮食局设4个内设机构（储备粮管理科、粮食监督检查科、粮食质检中心、信息统计中心）', '单位编制人数23人，其中行政编制人数10人，事业编制人数13人（含机关工勤人员编制）。单位18年年底实有人数65人，其中在职人员18人（行政5人，事业13人', '1.因公出国(境)及外出学习考察方面。我单位本着“厉行节约、反对浪费”的原则，严格控制因公出国(境)，不存在用公款出国(境)旅游、公款支付应由个人负担费用的情况，2018年未产生因公出国(境)费用。', '印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>261</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>帕里河畔有人家</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-11-04</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100357/202111/ca80b503d1e14dd8829d16472c3dd825.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['帕里河弯弯曲曲向前延伸，沿着河畔逆流而上，穿过河谷牧场后，站在雪山顶上远眺，一个形似“堡垒”的村落便出现在眼前，这就是巴卡村卡热组。', '卡热组，一个边陲自然村，位于西藏阿里地区札达县楚鲁松杰乡巴卡村。这里平均海拔4100米，山高谷深，每年大雪封山半年。', '“卡热藏语意为‘坚固的堡垒’。据传，卡热的先民曾居住在悬崖上的洞穴里。堡里仅有一扇门进出、一条路通达。旧西藏，楚鲁松杰十分封闭，盗匪猖獗，凿穴群居是为了防御强盗。”村里老人索朗多杰说。', '76岁的索朗多杰和老伴旦增措姆一直住在村里。如今，老两口搬进边境小康村新房，卧室、客厅、厨房、储物间、厕所等布局合理，宽敞的院落里开满鲜花。“以前哪敢想能住这么好的房子。当年解放军赶跑土匪，我们才走出土堡，在对岸山腰上建起属于自己的家。”', '沿着河床，索朗多杰带着记者来到原来的住处。只见悬崖上洞穴密布，在经年风吹日晒和雨水冲刷下，多处已坍塌。里面没有窗户，一片漆黑，只留下石灶和已熏得发黑的石凳。', '随着国家对边境地区的投入不断加大，卡热人先后3次兴建或改建住房。2018年，巴卡村边境小康示范村项目正式启动，按照人均30平方米的标准，卡热群众每家都分到一套独家院落。', '2018年底起，新华社记者曾在楚鲁松杰乡蹲点调研，数次来到卡热组采访，记录下这个很难抵达的边陲小村群众生产生活的沧桑巨变。近日，记者再次走进这里，处处感受到新变化。', '卡热组目前共有19户77人。走在村道上，可以看到一幢幢藏式小楼，村民家门前的树叶泛黄，脚下是青稞留香的田野，深秋的边陲古村宛如嵌在深山里的一幅油画。', '记者两年多前蹲点采访时，卡热组到乡政府仅50公里，但全是土路，汽车需蜗行1个多小时；每到冬季，村民靠光伏板存电用电，遇上数日大雪只能点油灯照明；为寻找手机信号，人们要爬到半山腰，固定点位与外界联系。', '“现在手机信号覆盖到村里，跟在阿里地区读书的孩子视频通话，联系卫生院医生看病，给乡政府汇报放牧巡边情况都很方便。”29岁的村民仁青欧珠说。', '44岁的巴卡村党支部书记次白益西感慨地说：“如今村里连上了电网，自来水接到了家里，打电话上网很方便。很多群众期盼的问题得到了解决。”', '封山问题曾最为困扰当地群众。如今，楚鲁松杰乡通外柏油公路已建成通车，卡热组新建的水泥路也连接上柏油路，通行条件得到进一步改善。', '2019年，卡热组农牧民运输队正式成立，很多青壮年参与到工程运输、车辆管理中来。两年来，运输队创收几百万元，有力助推群众增收。', '每年夏秋季节，仁青欧珠会去附近工地打工，他还学会了电焊、盖房技术。“放牧巡边、打工挣钱，各不耽误。”他说。', '村容村貌也跟着变化。“卡热组自发修建了垃圾填埋场，每户人家在房前屋后植树50棵，订立村规民约爱护环境。”曾前往沿海学习考察的次白益西，对当地优美的人居环境十分羡慕。“如今，我们的美丽乡村愿望正在实现。”', '次白益西的两个孩子分别在拉萨和阿里上高中。“我们这辈人受条件所限，错过了上学的机会，所以稍有条件就全力支持孩子上学。”次白益西介绍，组里已有4名学生考上大学，其中两人毕业后返回楚鲁松杰乡就业。“我鼓励孩子考大学，毕业后返回家乡，守护、建设祖国的边陲。”（记者曹健、陈尚才、格桑朗杰）']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>261</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>大上海政府甘当店小二</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2017-12-27</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100356/201712/f9ff8b9bd1134cd09f6be2c9305d507e.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['年终岁末，上海召开优化营商环境推进大会，拿出了一份扎实的《着力优化营商环境加快构建开放型经济新体制行动方案》。', '“营商环境就是生产力”、“不进则退，慢进也退”、“实现革命性流程再造”……不满足于小修小补，上海正以“刀刃向内”的决心，向全市发出营商环境再优化的总动员，以提升软实力和核心竞争力为目标，争创城市发展新优势。', '“总体上是好的，走在全国前列。”观察人士评价。否则，就不足以解释有“620家跨国企业地区总部、420多家外资研发中心”落户上海。非税收入占上海一般公共预算收入的比重，今年已降至11.5%，为全国最低。', '曾有外资企业尝试向上海的不同窗口咨询同一件事的办理流程，得到的反馈完全一致。政策的公开透明度高，堵住了“找关系才能办事”的制度漏洞。', '诚信、法治、安全……优势还能列出不少。然而，参照国际最高标准、学习兄弟省市好经验，上海在营商环境方面仍有较大提升空间。', '采访中不少企业家表示：“就政商关系而言，上海的环境是清的，但亲得还不够。”“服务中小企业和民营经济，还有持续提升的期待。”', '中共中央政治局委员、上海市委书记李强说：“上海能有今天的成就，关键一条就是抓住改革开放特别是浦东开发开放的重大机遇，着力营造良好的营商环境。”“进入新时代，肩负新使命，必须把优化营商环境摆在更加突出的位置。”', '这样的认识，来自对世界形势的冷静研判，也来自上海党政代表团近期对长三角及广东深圳的学习考察。', '看兄弟省市，优化营商环境你追我赶、创新迭出。江苏的“不见面审批”、浙江的“最多跑一次”，做得有声有色。相比原来的重招商引资，大家普遍意识到：“环境好了，项目自然会来。环境不好，项目来了也会走。”', '谋更好发展，建设卓越全球城市，上海必须在提供更好的制度供给上不断有新突破。“依靠人口、土地红利早已难以为继。对照中央经济工作会议提出的高质量发展要求，上海需要更优的营商环境，以构筑新优势、培育新动能。”', '围绕市场主体遇到的“痛点”“难点”“堵点”，上海全市正在开展一场大调研、大动员。从诸多细节中，企业家们一窥上海优化营商环境的决心：', '有抓手。上海市市长应勇说，上海加快构建法治化、国际化、便利化的营商环境，核心就是深化政府的“放管服”改革。', '以浦东新区率先试点的“证照分离”为例，目前已梳理出548项企业市场准入审批事项。“除了国家规定的事项，市区两级的许可审批，都要按取消、备案等方式进行改革。”', '“事前审批是特例，事中事后监管才是常态”、“把经济管理权放到离市场最近的地方，把社会管理权放到百姓最近的地方”……中路股份董事长陈闪说，这样的改革，对企业家信心是很大的提振。', '有数据。优化营商环境不是无的放矢，对照国际标准、坚持自我加压，上海抛出了一串硬邦邦的数据指标。', '上海自贸区管委会常务副主任、浦东新区区长杭迎伟说，对标新加坡等地，浦东新区承诺“企业从取得土地到获得施工许可证的审批时间，带设计方案的不超过15个工作日，不带设计方案的48个工作日。”', '上海市发展改革委主任汤志平说，上海将围绕市场最关心的施工许可办理、企业开办、纳税、获得电力、跨境贸易等10大领域，开展专项行动计划，大幅改善企业办事全流程所花时间、效率和费用。', '一言以蔽之，“该放的权要放得更彻底，该管的要管得更科学、更到位、更高效，服务要更精准、更贴心。”上海市委表示，政府要当好服务企业的“店小二”，做到有求必应、无事不扰。', '“到2018年，相关领域的短板弱项明显改善，部分指标达到国际先进水平。到2020年，各领域的营商环境便利度全面进入国际先进行列。”在行动方案中，上海提出了总体目标。', '实现这样的宏愿，上海既要将已有的强项做得更强更优、对短板弱项进行提升补齐，还要积极打造新亮点、新标识，形成强大“引力场”。', '效率优先。全球最大的自动化码头洋山四期西侧，一辆标有“中国海关”字样的白色卡车伸出展臂，就架起了一个检测门。无人驾驶的集卡穿门而过，好像做了个全身CT，集装箱里装了什么一目了然。整个查验过程，耗时不足15秒。', '“我们正在探索‘验放自动化、监控远程化、通关零等待、物流零干扰’的即时通关新模式。”上海海关关长高融昆表示。以大数据和人工智能等“黑科技”为支撑，上海正在全市推广“自贸区速度”，把“便利留给企业、复杂留给系统”。', '创新优先。注册在上海闵行的“途虎养车网”有1700余万活跃用户，是汽车后市场领域的“独角兽”。在闵行市场监管局的帮助下，途虎正在制定上海第一个汽车后市场标准化体系，打造行业发展新标杆。', '在第三方支付、网络文学等新经济领域，上海集聚了一批“独角兽”企业。“新经济跑得快，政府监管不能缺位。这要求政府加快能力提升跟上企业发展的步伐，而不是找根绳子把他们拴住。”上海市委提出，各级干部的监管思维要与时俱进。', '让营商环境“没有最好、只有更好”，已成为新时代上海的新追求和新作为。企业家们期待，上海以更优的营商环境，为市场主体提供更好的创新发展土壤']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>261</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>昌都市人民政府驻成都办事处年度部门决算</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2017-06-20</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103244/201706/c698f98b0a5a4c7caa7a84ff11e47154.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['(1)负责与驻地党委、政府和有关部门的联系与沟通，促进昌都与四川及内地省(市)的相互了解和友好往来；参与我市在成都及内地省(市)有关重大活动的组织、协调和服务工作。', '(2)负责收集、整理、上报驻地及周边地区经济、社会、文化、科技等方面的信息，为市委、市政府科学决策提供及时、准确、适用的信息。', '(3)充分发挥“窗口”作用，广泛向驻地社会各界宣传昌都经济社会、民族文化、风土人情、旅游景观等优势和投资环境、优惠政策，推介昌都名特优产品，协助昌都企业拓展区内外市场，扩大昌都影响力，提高昌都知名度。', '(4)受市有关部门的委托，开展经济技术合作和招商引资工作，为我市引进资金、技术、人才、管理经验和客商到昌都投资创业牵线搭桥。', '(5)负责市领导以及相关重要团组附成都工作学习的接待服务工作；为市直各部门、各县(区)在成都开展公务活动提供咨询服务和工作支持。', '(7)协助市县(区)有关部门做好昌都籍赴成都、北京上访人员及其他相关突发事件的稳控、处置工作。', '单位实有人数44人，其中：在职人员：22人，退休22人。机构情况及增减变动原因：纳入2016年度部门决算汇编范围的独立核算单位(以下简称“单位”)共1个，其中：单户录入1户，其中含单位1个，占单位总数的100%。执行会计制度为：行政会计制度。', '(4)收入支出增减变动原因分析：支出增减变动原因分析:工资福利支出增加是因为2016年度增资幅度大及人员调入。商品和服务支出增加原因：一是因为差旅费比列提高；二是2016年度人员增加，导致商品和服务支出增大。', '三公方面，我单位2016年度三公经费决算数8.7万元，车辆老化严重，开展各项业务工作三公经费较去年没有减少。', '2016年，昌都市人民政府驻成都办事处在市委、市政府的亲切关怀和坚强领导下，在相关部门的大力帮助下，紧紧围绕各项工作目标，在扎扎实实地开展“两学一做”专题教育活动的同时，努力服务于市委、市政府中心工作，内强素质，外树形象，充分发挥协调服务和内引外联的作用，不断提升工作质量和效率。经过全体干部职工的共同努力，圆满地完成了全年的各项工作任务。现就2016年度的主要工作总结如下：', '(一)加强政治学习，激发了党员领导干部的工作热情，使他们思想、业务素质得到进一步的提升', '一年来，办事处结合“两学一做”专题教育活动，组织干部职工特别是县处级领导干部认真学习邓小平理论、“三个代表”重要思想和习近平总书记系列重要讲话精神，以及党的十八届四中、五中全会以来的精神、第六次西藏座谈会精神，特别是“治国必治边、治边先稳藏”的重要战略思想和“努力实现西藏持续稳定、长期稳定、全面稳定”的重要指示,贯彻落实俞正声主席“依法治藏、长期建藏、争取人心、夯实基础”的重要原则,贯彻落实王岐山书记参加十二届全国人大三次会议西藏代表团审议时的重要讲话精神,贯彻落实自治区党委关于昌都工作“六个强化”“六个开创”“六个新型昌都”重要批示指示精神,贯彻落实市第一次党代会、市委一届二次、三次全委会、市纪委一届二次全体会议精神,紧紧围绕协调推进“四个全面”战略布局,实施“强工兴市、东西发展、创建基地、夯实三基”发展战略,对照“两学一做”要求,聚焦对党忠诚、个人干净、敢于担当,把思想教育、党性分析、整改落实、立规执纪结合起来,把领导班子建设与领导干部队伍建设结合起来,自觉弘扬“老西藏精神”“两路”精神和孔繁森精神,教育引导县处级以上领导干部把“两学一做”作为座右铭,作为修身做人的基本遵循,作为为官用权的警世箴言,作为干事创业的行为准则,切实增强践行“两学一做”要求的思想自觉和行动自觉,加强党性修养、坚持实事求是、改进工作作风,着力解决“不严不实”问题,真正做到心中有党不忘恩、心中有民不忘本、心中有责不懈怠、心中有戒不妄为。', '通过学习和各专题研讨，进一步提高党员领导干部的思想境界。通过开展读原著、学原文、悟原理，深刻领会两学一做专题教育的丰富内涵，了解专题教育的深远意义，掌握不严不实的危害，严格按照从严从实的标准去要求自己；进一步规范党员领导干部的言行。从严处入手，从实处着力，通过不断的对照检查，查摆自身存在的问题，按照严实标准去整改落实，做一名“忠诚、干净、担当“的党员领导干部；进一步落实全面从严治党。全面从严治党的要求，具体到党员干部就是两学一做的要求，只有个体过关，整体才会过硬，我们的党才有战斗力和凝聚力，通过五个专题研讨，明确肩负的责任和使命，汇聚发展正能量；进一步提高了全体党员领导干部的整体素质。干部职工们深刻领会了构建和谐社会和牢固树立科学发展观的精神实质，增强了全心全意为人民服务的意识，提高了的整体素质。', '成都办事处作为我市驻内地办事机构，市委、市政府要求我们不仅要做招商的桥头堡，而且还要当排头兵，我们在坚持增强服务意识，提升服务质量和服务水平的同时，不断研究和探索新形势、新任务下的服务方式，努力拓展服务领域，大力提升服务质量和水准，更好地为市委、市府、广大干部职工和广大客商提供优质高效的服务。一是努力做好票务工作。今年以来，面对接待团队和来往旅游和经商人员激增，为确保学习考察、挂职锻炼干部和地区干部职工及时返回工作岗位，办事处提前谋划，及时与国航、藏航沟通协调，年初增加航班20余架次，输送我市干部职工和来往客商2000多人次。二是做好天津市短期专业技术援藏干部和引进人才的接待服务工作。三是做好学习、考察和挂职锻炼往返中转接待工作。全年共计接待干部赴天津挂职，赴天津、深圳、苏州、青岛、西安等学习考察培训班13批次，近300人次。四是积极组织协调我市各县和有关单位，把优势资源、优势项目、优势产品带来成都，在成都开设了昌都特色产品展销厅，并为十一县开设专柜，展示高原特色产品。同时积极联系我市商家参加成都各类商品交易会，加大我市宣传力度，寻求合作伙伴，注重招商引资后劲的培植。五是为往来客商搞好服务。成都是客商来往昌都市考察投资的主要途径地，也是我市项目单位到区外考察的必经之地，更是举办招商活动的主战场之一，成都办事处在住宿、饮食、票务等方面为他们提供优质服务，尽力展现成都办事处作为我市窗口单位的良好形象，为客商坚定投资信心起了重要作用。六是积极配合重庆联络处工作，大力加强与重庆市相关部门的沟通与协调，为顺利进入下步的设计建设打下基础。', '针对办事处接待服务工作的特点，一是不断修订和补充接待服务的程序、规范和标准，对干部职工进行经常性的学习培训;二是严格执行中央八项规定，坚决贯彻接待程序化、服务规范化、操作标准化的管理，努力推进人性化的服务理念。一年来，圆满完成了我市部分领导、天津市短期援藏干部轮换工作提供了优质服务，给他们留下了良好的印象。三是充分利用宾馆现有条件，不断加大营销策划，确保宾馆稳步发展。宾馆设施设备陈旧，严重制约和影响了宾馆的经营效益，一定程度上也影响到了干部职工待遇。为此，办事处克服诸多方面困难，通过各种渠道不断加大营销策划和推进工作；同时进一步加强宾馆内部管理，降低经营成本，提升服务质量，确保了宾馆经营稳中有利。全年预计接待干部职工和旅客3万余人(次)，入住率42%，实现营业额300多万元，实现利润18多万元。', '(四)高度重视老干工作，努力提升服务工作质量。认真贯彻《关于进一步加强离退休干部工作的意见》和《市委会议纪要》精神，落实离退休干部职工的政治、生活待遇。一是春节前夕，举行在蓉离退休干部职工迎新春座谈会，区党委常委、昌都地委书记罗布顿珠莅临会议，并代表自治区党委、政府和市委、市府，亲切看望慰问了在蓉离退休干部职工。二是不定期与离退休老干部、老工人进行座谈，积极组织老干部党支部组织生活，从而听取意见和建议，帮助解决党支部建设中存在的实际问题。三是不定期的走访慰问探望地级领导、老党员、生活困难党员和生病的离退休人员代表，发放慰问金5万多元。四是走访访问建国以前参加工作和“59·3·28”人员169人，发放慰问金16.9万余元。五是开展多种健康有益的活动，丰富老干部退休生活。组织了簇桥和双流支部老同志到浦江石象湖、金堂五凤溪一日游，前后共分了六批293人参加；另外还组织安置在成都的61名退休干部职工到海口、桂林10日健康疗养活动。', '为认真贯彻落实市委、市府领导关于加强干部职工就医和医疗保健服务工作指示精神，全力为昌都地区广大干部职工在蓉就医和医疗保健提供方便快捷服务。今年以来，我办根据地区机构编制委员会(藏昌机编发【2013】21号)通知要求，及时增加人员，进一步密切了与华西医院、四川省人民医院、成办医院和三六三医院的沟通与联系，竭力争取他们的支持和帮助，使得地区来蓉就医的干部职工及时入院、及时得到了诊治；医疗保健服务也能随到随安排。全年年为近700名干部职工在蓉提供就医和保健服务。同时，对昌都地区在成都住院治疗的干部职工，我办及时进行看望和慰问，并尽力为他们解决具体困难和问题，赢得了大家的广泛赞誉。', '办事处的强基惠民活动，在县乡两级党委的正确领导以及驻村工作队员团结努力和村“两委”的大力支持下，坚决服从区党委和市委的统一部署，精心组织，周密安排，确保了活动有声势、有力度、有成效。一是加强基层组织建设，充分发挥好吾沙村党支部的战斗堡垒作用和村委会的职能。二是采取多种有效措施，全力维护社会稳定。三是理清发展思路,找准致富门路，确保村民收入实现持续稳增长。四是踏踏实实地为吾沙村村民办理了一系列实事难题。办事处积极协调成办医院，帮助吾沙村村民在蓉治病，解决住宿、生活问题，并到医院进行了看望并给予了现金慰问。针对扎玉镇小学道路问题，办事处自筹资金17万余元完成小学校门前道路和吾沙村老百姓院落硬化，解决学生上学和当地群众出入道路难行问题。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>261</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>昌都市信访局年度部门决算</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103352/202309/77fe20004c824af98481adbf9c094bc1.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['（1）负责处理人民群众给市委、市府来信、来电、来访，保证信访渠道的畅通，及时向市委、市府报告来信、来电、来访中提出的重要建议和反映的重大问题。', '（5）为来信、来电、来访人员提供有关政策咨询，做好信访人员的思想疏导、矛盾化解工作。', '（6）综合分析人民群众来信、来访、来电反映的情况，征集、筛选和提供信访信息和建议，对带有全局性的或重要信访问题开展调查研究，提出解决问题的方案或建议。', '（7）负责组织实施全市信访工作目标管理，提高信访工作质量，加强信访队伍的自身建设，开展信访专兼职干部培训和信访宣传工作，提高信访干部的政治和业务素质；研究和探讨信访工作的规律和理论，指导信访工作实践，发挥信访工作的社', '（9）按照《信访条例》规定，对在信访工作中行政机关工作人员和信访群众提出奖励或处罚的建议。', '单位编制人数：29人,其中行政编制人数10人，事业参公编制人数19人。单位实有人数', '年度部门决算汇编范围的独立核算单位（以下简称“单位”）共1个，其中：单户录入1户，其中含单位1个，占单位总数的100%。执行', '本着“力行节约、反对浪费”的原则，严格控制因公出国（境），不存在公款出国（境）旅游、公款支付应有个人负担费的情况，', '年昌都市信访局履行一般行政事业管理职能、维持机关运行，用一般公用预算安排的行政经费，合计58.53万元。', '绩效自评情况：我局年末车辆编制数为4辆，完成我局一般公务用车的保险缴费完成率100%。保障我局公务用车正常运行，保障安全交通。', '牌，切实推动党建与信访深度融合，探索“党建+信访”“干部+群众”“征集意见+解决问题”机制，全面提升全市信访干部业务水平和综合能力；慰问三老人员及困难党员40人次，发放慰问金及慰问品17000元，开展党员联系群众1次，发放慰问金及慰问品6000元。', '集中力量、集体研究、统筹部署、加强协调等措施，实现信访突出问题及信访疑难事项的案结事了，为我市社会稳定及经济发展保驾护航', '党的二十大期间，市信访工作联席会议办公室制定《关于印发&lt;关于做好中国共产党第二十次全国代表大会期间信访安全保障工作方案&gt;的通知》《关于进一步做好党的二十大期间信访稳定工作的通知》和《关于转发&lt;西藏自治区信访工作联席会议关于做好党的二十大期间及第四季度全区信访工作&gt;的通知》等文件，并成立信访维稳督导组3个，深入县（区）督导3批次12人次，进一步统一了', '建立“跟班培训+赴区内外学习”的培训机制，开办送信访业务知识进党校讲座3期，开展全市信访干部基础业务培训3期，组织选派11县（区）共3批次9名信访干部到市局挂职学习', '党的二十大会议期间，昌都市开展市级领导坐班接访24人次，共接待受理群众来信来访32批件36人次，已办结14批件，正在办理18批件（其中：来访6批件8人次，已办结5批件6人次，正在办理1批件2人次），开展情报分析研判会议24场次，全面掌控本辖区群众上访动态，做到早发现、早报告、早控制、早解决，把负面影响降到最低。', '市信访局选派1名副局长和1名党组成员、四级调研员赴北京、拉萨值守，另选派8名市县公安、信访工作人员赴北京开展信访值守，确保出现问题有人管，遇有信访突发事件，能得以有效处置，及时开展劝返稳控工作。', '党的二十大召开之前，妥善解决“双拖欠”问题26件、3个“骨头案、钉子案”有效推进、9个信访疑难案件和信访积案妥善化解销号或待销号、7件重复信访事项得到解决，全力维护群众的合法权益，以实际成效赢得了群众的支持和信任，', '依法执政、依法行政、依法管理的能力水平，促进依法办事，为全面深化法治西藏建设提供法治保障。', '机关运行经费：为保障单位运行用于购买货物和服务的各项资金，包括办公费、印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置、办公用房水电费、取暖费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>261</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>昌都市住房和城乡建设局年度部门决算</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2017-06-20</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103295/201706/8f226c6db271480c94d2e9854fd97f26.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['(一)昌都市住房和城乡建设局的职能是：①指导和管理全地区城市规划、村镇规划、城市勘察和市政工程测量工作，负责昌都市委、市府交办的城市总体规划和各县城镇体系规划的审查报批工作；指导全地区各县县城和小城镇的规划建设工作；参与土地利用总体规划的审查；承担对历史文化名城、名胜古迹相关的审查报批和保护监督工作，管理城市建设档案。②贯彻执行国家、自治区有关建设项目可行性研究经济评价方法、经济参数、建设标准、建设工期定额、建设用地指标和工程造价管理；监督指导各类工程建设标准定额的实施。③负责全市各类房屋建筑及其附属设施的建造和与之相配套的线路、管道、设备的安装和规划区市政工程项目招投标活动的监督执法，负责对从事工程建设项目招投标代理机构的资格认定工作；参与全地区各类工程的质量监督检查工作。④指导全地区的建筑活动，规范和管理建筑市场，指导和监督建筑市场准入、工程招投标、工程监理以及工程质量和施工安全管理工作。⑤指导全地区住宅建设和城镇住房制度改革工作，负责住宅和房地产业行业管理；执行上级业务部门关于住房公积金的具体缴存比例，负责住房公积金的归集、使用管理及贷款管理；指导和推动全地区经济适用住房、安居工程和住宅产业化工作等等。', '1.因公出国(境)及外出学习考察方面，我局本着“厉行节约、反对浪费”的原则，严格控制因公出国(境)，不存在用公款出国(境)旅游、公款支付应由个人负担费用的情况，2016年未产生因公出国(境)费用。', '2.公务接待方面。2016年我局公务接待费预算安排4万元，决算使用0万元，使用预算额度为0元，2016年公务接待费同比2015年增加4万元。我局严格遵照中央八项规定、自治区九项要求和约法十章开展公务接待，严格按照公务接待程序开展相关工作。', '1.基本支出，包括两部分；一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。', '2.一般行政管理项目支出，包括招待费、会议费、购置费(包括设备、计算机等)、专用材料费、干部培训费、信息网络运行维护费等用于一般行政管理事务方面的项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>261</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>龚会才在统战系统调研时强调坚决把党中央区党委关于统战工作的部署要求落到实处奋力谱写昌都统战事业新篇章</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-06-21</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100359/202306/bd64f84443fe4967b4e13140683619da.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['龚会才在统战系统调研时强调坚决把党中央、区党委关于统战工作的部署要求落到实处奋力谱写昌都统战事业新篇章', '强调，要把牢新时代统战工作的历史方位和重要使命，进一步强化政治责任感和历史使命感，坚决把党中央、自治区党委关于统战工作的部署要求落到实处，奋力谱写昌都统战事业新篇章，为推进市委', '龚会才认真观看了昌都市统战、民宗、工商联、民族团结进步模范区创建工作开展情况展板，来到市委统战部统战科、民族宗教科以及市民宗局藏传佛教科，与大家亲切握手交流，了解统战工作、民族团结进步创建、', '在随后召开的座谈会上，龚会才同大家深入交流，认真听取意见建议，对近年来全市统一战线工作给予肯定，代表市委向统战工作一线的全体干部职工表示慰问和感谢。龚会才指出，统一战线是党克敌制胜、执政兴国的重要法宝。党的十八大以来，以习近平同志为核心的党中央高度重视统战工作，党的二十大对巩固和发展最广泛的爱国统一战线作出战略部署，为我们做好新时代党的统战工作指明了前进方向、提供了根本遵循。王君正书记今年2月15日在自治区党委统战工作会议上对全区统战工作作出安排部署，3月29日在自治区党委统战工作领导小组会议上对全区统战工作提出具体要求，5月11日到自治区统战系统调研，为我们做好新时代昌都统战工作给予了有力指导。', '在随后召开的座谈会上，龚会才同大家深入交流，认真听取意见建议，对近年来全市统一战线工作给予肯定，代表市委向统战工作一线的全体干部职工表示慰问和感谢。龚会才指出，统一战线是党克敌制胜、执政兴国的重要法宝。党的十八大以来，以习近平同志为核心的党中央高度重视统战工作，党的二十大对巩固和发展最广泛的爱国统一战线作出战略部署，为我们做好新时代党的统战工作指明了前进方向、提供了根本遵循。王君正书记今年', '“两个确立”的决定性意义，精准把握“国之大者”“区之要情”“市之重点”，引导广大统一战线成员听党话感党恩跟党走，不断巩固共同思想基础的“根”与“魂”。强化政治引领，从严从实抓好统战系统党员干部教育管理，加强对党的民族宗教政策学习，不断提升政治判断力、政治领悟力、政治执行力和政策理论水平。强化政治责任，厘清职责分工，做到党的中心工作推进到哪里，统一战线的智慧和力量就汇聚到哪里。', '聚焦落实昌都市创建全国民族团结进步模范区规划，细化任务分解，创新方法载体，打造示范亮点，营造浓厚氛围，形成以点串线、以线连片、以片扩面的创建格局。深化创建教育，推动模范区创建', '“九进”活动，深入挖掘整理昌都各民族交往交流交融历史事实，支持配合完成好昌都民族团结故事采风创作工作，讲好中华民族一家亲的鲜活故事，增进各族群众“五个认同”。用好援藏优势持续拓宽昌都和祖国内地交往交流的桥梁，鼓励昌都籍学生到区外学习、就业，吸引更多企业和群众来昌投资兴业，加大国家通用语言文字推广普及力度，构建“互嵌式”社区生活环境，加强创建交流。', '“五个有利于”标准，扎实开展宗教领域“三个意识”教育，引导寺庙僧尼树牢“国大于教、国法大于教规、教民首先是公民”的理念，推动“三个意识”教育走深走实。持续压实工作责任，坚持“四级书记”抓宗教工作，压实县乡党委政府属地管理责任、统战宗教部门管理责任、寺管会工作责任，强化寺管会干部和驻寺民警考核管理，提升驻寺干部宗教事务工作能力水平。加强宗教界代表人士队伍建设，支持宗教界全面从严治教，引导广大僧尼更加自觉“遵行四条标准、争做先进僧尼”，不断巩固宗教领域爱国统一战线。', '持续优化营商环境，依法维护企业正常经营秩序，积极构建亲清新型政商关系，打造有利于民营经济发展的', '“五个环境”。全面落实助力民营经济发展的优惠政策，引导民营企业投身“三区一高地”创建，广泛参与重大项目建设、特色产业发展、乡村振兴，带动就业创业，为高质量发展增添动力。推进“五好”县级工商联和“四好”商会、“民营经济人士之家”建设，引导民营经济人士弘扬企业家精神，聚精会神办企业、遵纪守法搞经营，大胆发展、服务社会、助力富裕。', '加强党外知识分子工作，搭建拓展各类学习培训、建言献策、服务社会的平台和渠道，鼓励党外知识分子、新的社会阶层人士立足本职建功立业。加强藏胞侨务工作，依法妥善做好藏胞回国探亲、学习考察的服务保障工作，发挥', '“以侨为桥”作用，讲好中国故事的昌都篇章，展示昌都对外形象。加强网络领域统战工作，创新做好网络人士统战工作的方式方法，加强网络统战干部队伍、网络代表人士队伍建设，走好网络群众路线，团结争取“绝大多数”，画出最大同心圆。', '加强统战队伍建设，健全县乡村三级统战工作网络，推动重心下移、力量下沉，确保基层统战工作有人抓有人管，注重在基层一线培养选拔使用政治坚定、业务精通、作风过硬的干部。提升干部履职能力，增强团结同志的能力、调查研究的能力、做思想政治工作的能力、处理各种复杂敏感问题的能力。大兴调查研究之风，改进作风狠抓落实，做到善于担当、严谨务实、清正廉洁，不断推进昌都统战工作守正创新、提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>261</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>昌都市环保局年度部门决算</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2016-09-26</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103292/201609/b6edf732c8f54ca29cfbbf84541e2d34.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['昌都市环境保护局成立于2002年，其职能是贯彻执行环境保护法规，统筹协调监督管理重大环境问题，污染防治，生态保护，辐射安全，环境监测，环境保护宣传教育等。我局是县级单位，属党政机关。', '市环境保护局共设置科室7个，其中行政科室4个，分别是办公室(政策法规科)、污染防治科(辐射环境管理科)、环境监测科、环境影响评价科；参公事业单位1个，为环境监察支队；事业单位2个，分别是环境保护监测站和环境工程评估中心。单位设有行政编制10名，其中处级领导职数4人，内设机构科级领导职数13名，事业编制26名，其中参公7名，机关后勤3名。现有党组书记1人，党组副书记、局长1人，党组成员、副局长、调研员1人，党组成员、调研员1人。', '1.因公出国(境)及外出学习考察方面。我局本着“厉行节约、反对浪费”的原则，严格控制公务接待和因公出国(境)，不存、公款支付应由个人负担费用的情况，2015因此年未产生因公出国(境)经费。', '1.基本支出，包括两部分；一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。', '2.一般行政管理项目支出，包括招待费、会议费、购置费(包括设备、计算机等)、专用材料费、干部培训费、信息网络运行维护费等用于一般行政管理事务方面的项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>261</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>昌都市委农村工作会议召开</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2021-11-14</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c100355/202111/a5c37972a62841c89797c28839ab4a66.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为开好市委农村工作会议，市委选派1万余名干部深入所有村社开展了为期1个月的乡村振兴大调研活动，组织3个工作组赴兄弟地市学习考察，并及时组织召开乡村振兴大讨论会议，进一步察实情、找差距、理思路，做了大量基础性工作。', '11月11日下午，市委农村工作会议在卡若召开。会议坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实习近平总书记关于“三农”工作、脱贫攻坚和乡村振兴工作重要论述，贯彻落实习近平总书记西藏工作重要论述、视察西藏重要讲话精神和新时代党的治藏方略，贯彻落实中央农村工作会议、全国脱贫攻坚总结表彰大会、全国巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作会议和自治区党委农村工作会议、全区脱贫攻坚总结表彰大会暨全区巩固拓展脱贫攻坚成果同乡村振兴有效衔接会议精神，隆重表彰“三农”工作先进集体，总结全市“三农”工作和脱贫攻坚工作，部署新发展阶段“三农”工作。', '市委副书记、常务副市长魏东主持会议。市委副书记廖传锦就中共昌都市委员会、市人民政府《关于全面推进乡村振兴加快农业农村现代化的实施意见》《关于实现巩固拓展脱贫攻坚成果同乡村振兴有效衔接的实施意见》作说明。市委副书记王亚东宣读表彰决定。天津市第九批援藏干部人才领队张建华，市人大常委会主任齐应海，市委常委黎世江、梅方权、李斌、泽仁俊美、刘涛年、欧珠达瓦、任厚明、吴应海出席。', '会议表彰了2020年度农牧民增收、农牧区劳动力转移就业、肉奶增产、青稞增产先进县（区）。', '普布顿珠指出，以习近平同志为核心的党中央始终高度重视“三农”工作，习近平总书记先后发表系列重要讲话，作出系列重要指示批示，在中央农村工作会议上全面总结党的十八大以来我国农业农村发展取得的历史性成就、发生的历史性变革，从党和国家全局出发对巩固拓展脱贫攻坚成果、全面推进乡村振兴、加快农业农村现代化作出重大部署，为我们做好新发展阶段“三农”工作指明了前进方向、提供了根本遵循。习近平总书记坚持把脱贫攻坚摆在治国理政突出位置，为脱贫攻坚工作举旗定向、领航掌舵，推动脱贫攻坚取得全面胜利，并在全国脱贫攻坚总结表彰大会上深刻总结了脱贫攻坚的光辉历程和宝贵经验，深入阐述了伟大脱贫攻坚精神，对全面推进乡村振兴、巩固脱贫攻坚成果提出明确要求。全市上下要深入学习领会，准确把握精神实质、核心要义和实践要求，感恩奋进、接续奋斗，巩固脱贫攻坚成果，奋力推动新发展阶段乡村全面振兴。', '普布顿珠指出，自脱贫攻坚战打响以来，市委、市政府始终牢记习近平总书记的殷殷嘱托，全面落实党中央决策部署、区党委统一安排，团结带领全市各族人民攻坚克难、砥砺奋进，始终落实精准方略、靶向治疗，书写了摆脱贫困、逐梦小康的恢弘篇章；始终用力补齐短板、改善民生，绘就了山乡巨变、面貌一新的壮美画卷；始终坚持因地制宜、活血造血，孕育了产业俱兴、高质发展的勃勃生机；始终强化感恩教育、扶志扶智，奏响了自强不息、勤劳致富的大地颂歌；始终加强党的领导、尽锐出战，厚植了党群一心、血肉相连的鱼水深情。这些成绩的取得，是习近平新时代中国特色社会主义思想和习近平总书记“三农”工作、扶贫工作、西藏工作重要论述及新时代党的治藏方略科学指引的结果，是区党委正确领导的结果，是对口援昌省市企业鼎力支援的结果，是各族干部群众艰苦奋斗的结果。', '普布顿珠强调，做好新发展阶段“三农”工作，要坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实总书记关于“三农”工作、乡村振兴工作、西藏工作重要论述，贯彻落实党的十九届六中全会精神，贯彻落实总书记视察西藏重要讲话精神和新时代党的治藏方略，坚持以人民为中心的发展思想，坚持共同富裕方向，坚持“四个赋予一个有利于”要求，以服务保障“四件大事”“八项任务”“四个确保”为重点，紧扣“六大发展战略”，深入推进农牧业供给侧结构性改革，全力促进农牧业高质高效、农牧区宜居宜业、农牧民富裕富足。', '坚持把巩固拓展脱贫攻坚成果同乡村振兴有效衔接作为首要任务，严格落实“四个不摘”要求，健全防止返贫动态监测和帮扶机制，开展常态化就业培训和组织化转移就业，持续做好搬迁安置点扶持工作，优化援藏帮扶协作、干部结对帮扶等机制，坚决守住不发生规模性返贫底线。', '继续实施最严格的耕地保护制度，坚决遏制耕地草场“非农化”“非牧化”、防止“非粮化”。加大对主产县的财政支持力度，保障产粮大县抓粮得实惠、不吃亏、有发展。分区分片规模化开展土地开发整治和高标准农田建设，加大优良品种推广力度，确保粮食产量特别是青稞播种面积产量逐年提升。', '大力实施产业强市战略，坚持一区域一业和一县一业，一村或多村一品，聚焦“3+3”产业体系规划和“五大养殖”“七大种植”基地建设，规范发展专业合作社、家庭农牧场，培育一批有市场、有前景的富民产业，为推进全面乡村振兴奠定坚实产业基础。', '围绕推进“三融一体”城乡共同体建设，加强“多规合一”适用性村庄规划编制，深入推进美丽乡村建设行动和农村人居环境综合整治提升五年行动，大力实施“十大幸福工程”特别是“人居安福工程”，不断提升和改善乡村面貌，让群众更加安居乐业。', '把增加群众收入作为经济发展和民生改善的中心任务，加快成立增收机构、制定增收方案、健全增收工作机制，细化落实“十项增收措施”，启动五年就业促进行动和“双业”工程，做实做细集体经济培育、群众技能培训、转移就业、能人培养等工作，确保群众持续稳定增收。', '大力弘扬社会主义核心价值观，常态化开展“四讲四爱”“遵行四条标准、争做先进僧尼”教育实践活动，深入开展反分裂斗争，切实加大国家通用语言文字普及力度，持续淡化宗教消极影响，教育引导各族干部群众增进“五个认同”，铸牢中华民族共同体意识。', '大力实施党建统市战略，持续整顿软弱涣散基层党组织，扎实做好驻村驻寺工作，夯实基层基础。全面落实“十项常态化排处机制”和“四级领导接访包案调处机制”，常态化开展扫黑除恶、缉枪治爆等专项行动，加强隐患排查整治，充分发挥村规民约作用，促进农牧区平安和谐。', '普布顿珠强调，实现乡村振兴，必须切实加强党的领导，汇聚乡村振兴强大合力。要加强组织领导，建立健全实施乡村振兴战略领导责任制，层层压实责任、级级签订责任书，细化措施、主动作为，合力推进乡村振兴各项工作。要强化工作保障。严格执行“花钱必问效、无效必问责”绩效管理制度，确保每一分钱都花在刀刃上。要把乡村振兴作为培养锻炼干部的广阔舞台，努力打造一支懂农业、爱农村、爱农民的干部人才队伍。要持续转变作风。大兴调查研究之风，多深入一线、深入农牧区，增强做好“三农”工作的本领。深化党史学习教育，着力解决好群众“急难愁盼”问题。强化督导检查，细化任务清单和落实台账，推动问题在一线解决、工作在基层落实。常态化推动基层减负，让基层干部心无旁骛谋发展、干实事。', '会议以电视电话会议形式召开，各县（区）、各乡（镇）设分会场。市人大、政府、政协、检察院、强巴林寺管会有关地级领导和有关部门负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>261</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>昌都市人民政府办公室年度部门决算</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103244/201706/9f5ca3e300774b01a48b4083341c0b03.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['(一)负责市政府会议和市政府领导重要活动的组织安排，协助市政府领导组织实施决策、决定事项。', '(四)根据市政府领导指示，对市政府各部门之间出现的争议问题，提出处理意见，报市政府研究决策。', '(五)综合协调银行、证券、保险等金融工作，跟踪了解和调查研究全地区金融运行情况，并提出政策建议。', '(六)督促检查市政府各部门、各县对市政府决定事项及市政府领导指示的贯彻落实情况，及时向市政府报告。', '(七)负责组织或参与对全市改革开放和经济社会发展中的重大问题进行调查研究、决策咨询，提出政策性建议和咨询意见。收集、分析、整理和报送全市经济社会发展的重要信息、动态，为市政府决策提供参考建议。', '(八)负责指导、督促、检查和协调地区突发公共事件的应急应对工作，负责市政府值班工作，及时报告重要情况，传达和督促落实市政府领导同志指示。', '(十一)组织、指导、监督全市依法行政工作，调查研究依法行政工作中的普遍问题，提出推进依法行政的具体措施和工作建议，依法纠正违法或者不当的行政行为。负责承办市政府受理的行政复议、行政赔偿事宜，以及涉及市政府的行政诉讼、民事诉讼应诉等法律事务；负责市政府、市政府办公室、各县、市政府各部门制定的规范性文件和重大行政处罚决定的备案审查工作；承担市政府、市政府办公室、各县、市政府各部门的规范性文件的审查职责。负责行政执法主体清理工作，承担行政执法评议考核和行政执法责任制的实施工作。', '昌都市人民政府办公室2016年内设正科级机构17个，分别是政工人事科(纪检监察室)、秘书一科(综合经济科)、秘书二科(农牧林水科)、秘书三科(社会管理科)、会务联络科、机要秘书科、信息科、市政府督查室、市政府应急管理办公室、规范文件审查科(行政复议科)、法制监督科(依法行政指导科)、昌都市国防动员委员会综合办公室、市政府研究室、行政审批管理办公室(市民服务中心)、咨询工作联络办公室、行政综合科、机关事务管理局。共有编制96人,现在职98人，退休43人。', '昌都市藏语文工作委员会(昌都市编译局)内设正科级机构5个，分别是综合科、藏语言文字管理科、编译科。共有事业编制16人，现在职职工13人，退休职工7人。', '1、因公出国(境)及外出学习考察方面。我办本着“力行节约、反对浪费”的原则，严格控制因公出国(境)，不存在公款出国(境)旅游、公款支付应有个人负担费的情况，2016年未发生因公出国(境)经费。', '3、公务用车方面。我办现有车辆30辆(含编译局2辆、通麦结转站2辆)，2016年公车运行维护费355.5524万元(含专项工作用车)。增加原因：一是我办一般行政管理项目公务用车运行维护费未单独核算，与我办行政运行公务用车运行维护费一起核算；二是我市交通路况差，维修成本高；三是车辆老化严重，车辆运行成本高；四是我市经济发展压力大、发展任务重、出差、下乡用车多。', '(一)2016年昌都市人民政府办公室(编译局)履行一般行政事业管理职能、维持机关运行，用一般公用预算安排的行政经费，合计711.6468万元。', '1.基本支出，包括两部分；一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>261</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>昌都市发展和改革委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2017-06-20</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103259/201706/86116ec1d6a44cdea8d8066d42fc6ca4.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['(1)贯彻执行国家、自治区发展和改革委战略规划，拟订并组织实施我市国民经济和社会发展的中长期规划和年度计划；统筹协调经济社会发展，研究分析区内外经济形势，研究提出昌都国民经济发展、价格总水平调控和优化重大经济结构的目标、措施，提出综合运用各种经济手段和政策的建议；衔接、平衡各行业的行业规划。受市人民政府委托向市人大报告我市国民经济和社会发展年度计划和相关措施。', '(2)负责监测宏观经济和社会引导的责任，发展态势，承担预测预警和信息引导的责任，研究宏观经济运行、总量平衡、全市经济安全和总体产业安全等重要问题并及时提出对策建议；负责日常经济运行的调节；协调解决经济运行中的重大问题；负责组织重要物资的紧急调度和协调。', '(3)负责汇总分析财政、金融等方面的情况；指导监督检查价格政策的执行，严格重要商品价格与重点收费标准；依法查处价格违法行为和价格垄断行为等。负责市场价格的统计监测工作；行使市内依法扣押、没收、追缴物品的价格认证工作；监控物价总体水平，管理指导物价工作。', '(4)承担指导推进和综合协调经济体制改革的责任，会同有关部门搞好重要专项经济体制改革之间的衔接，承担经济体制改革试点的工作。', '(5)承担规划重大建设项目和生产力布局的责任，拟订全社会固定资产投资总规模和投资结构的调控目标及措施，衔接平衡申请国家及自治区建设资金投资和涉及重大建设项目的专项规划。按国家和自治区的规定做好我市重大建设项目、重大外资项目、重大社会投资项目、境外资源开发类重大投资项目和大额用汇投资项目的申报工作。指导和监督政策性贷款建设资金的使用，引导民间投资方向，研究提出利用外资、社会投资和境外投资的总量平衡和结构优化的目标和政策建议。组织开展重大建设项目稽察。指导工程咨询业发展。按规定指导、协调、管理全市招投标工作。负责协调衔接对口援藏建设项目规划和年度计划.', '(6)研究提出经济结构战略性调整的建议。协调第一、二、三产业发展问题并衔接平衡相关发展规划，做好与国民经济和社会发展规划、计划的衔接平衡；协调农牧区和农牧区经济社会发展的问题；会同有关部门拟订服务业发展规划并提出政策建议，拟订现代物流业发展规划；协调解决重大技术装备推广应用等方面的问题。', '(7)组织相关部门实施区域协调发展及实施西部大开发战略的规划和政策措施；提出新型城镇化发展政策建议，引导和促进区域经济协调发展。', '(8)承担重要商品总量平衡和宏观调控责任；编制重要农畜产品、工业品和原材料进出口总量计划并监督执行；根据情况对经济运行情况对进出口总量计划进行调整；拟订全市战略物资储备规划，负责组织战略物资的收储、动用、轮换和管理；会同有关部门指导管理粮食、石油和药品等重要物资和商品的储备。', '(9)负责国民经济发展与社会发展的衔接平衡，组织拟订社会发展总体规划和年度计划；参与拟订人口和计划生育、科学技术、教育、文化、卫生、民政等发展政策建议，推进社会事业建设；研究提出促进就业、调整收入分配、完善社会保障与经济协调发展的政策建议，协调社会事业发展和改革中的重大问题及政策。', '(10)拟订可持续发展规划，负责节能减排的综合协调工作；组织拟订发展循环经济、全社会能源资源节约和综合利用规划及政策措施并协调实施；参与编制生态建设、环境保护规划，协调生态建设、能源资源节约和综合利用的重大问题，综合协调环保产业和清洁生产促进有关工作。', '(11)负责能源的行业管理；提出能源，发展政策建议；组织实施能源发展规划、产业政策，衔接能源生产建设和供需平衡，协调能源发展和改革问题；指导、协调农村能源发展工作；负责能源行业节能和资源综合利用，指导能源科技进步。', '昌都市发展和改革委员会内设正科级机构10个分别为：办公室(纪检监察室)、国民经济综合科(市国防经济动员办公室、市西部大开发办公室)、固定资产投资科、农村经济科(经济贸易科)、基础产业科(产业协调科)、社会发展科、物价局、发展规划与经济体制改革科、能源资源科(市能源办公室、应对气候变化科)、基本建设管理科(市重点项目建设协调办公室、市重大建设项目稽查特派员办公室)；内设事业机构6个,分别为:项目协调管理中心(市发改委驻拉萨工作站)、市经济信息中心、市价格监测中心(市价格认证中心)、市铁路办、市受援办。', '1.因公出国(境)及外出学习考察方面。我委本着“厉行节约、反对浪费”的原则，严格控制因公出国(境)，不存在用公款出国(境)旅游、公款支付应由个人负担费用的情况，2016年未产生因公出国(境)费用。', '1.基本支出，包括两部分；一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。', '2.一般行政管理项目支出，包括招待费、会议费、购置费(包括设备、计算机等)、专用材料费、干部培训费、信息网络运行维护费等用于一般行政管理事务方面的项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>261</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>昌都市商务局年度部门决算</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103307/202309/f38fb62c6ff14809a0e16762274ccfa0.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['昌都市商务局为市政府工作部门，正县级。市商务局贯彻落实党中央关于商务工作的方针政策和自治区党委、市委的决策部署，在履行职责过程中坚持和加强市委对商务工作的统一领导。', '1.贯彻落实国家和自治区国内外贸易、国际经济合作的发展战略、政策。贯彻执行国家和自治区国内外贸易、外商投资、对外援助、对外投资和对外经济合作的法律法规；拟订全市商务发展规划、年度计划并组织实施；研究经济全球化、区域经济合作、现代流通方式、开放型经济新体制和流通体制改革的发展趋势并提出对策建议。', '2.拟订全市国内贸易发展规划并组织实施，促进城乡市场发展，执行国内外资金投向市场体系建设的政策，指导大宗产品批发市场规划建设和城市商业网点、商品交易市场（现货交易类）规划，以及商业体系建设工作；推进农村市场体系建设，组织实施农村现代流通网络工程。', '3.负责推进全市流通产业结构调整，指导流通企业改革、商贸服务业和社区商业发展，提出促进商贸中小企业发展的政策建议，推动物流配送、电子商务、流通标准化和连锁经营、商业特许经营等现代流通方式的发展。', '4.牵头推进商务领域信用体系建设，指导商业信用销售， 建立商务诚信公共服务平台；规范商贸企业交易行为，牵头推动重要产品追溯体系建设；按有关规定对拍卖等特殊流通行业进行监督管理；执行有关规范市场运行、流通秩序的政策，负责推进商贸领域行政执法。', '5.组织实施重要消费品市场调控和重要生产资料流通管理；负责建立健全生活必需品市场供应应急管理机制，监测分析市场运行、商品供求状况，调查分析商品价格信息，进行预测预警和信息引导；统筹商务领域消费促进工作；按分工负责重要消费品（食糖除外）储备管理和市场调控工作；按有关规定对成品油流通进行监督管理；贯彻执行酒类、药品流通政策并拟订发展规划，对酒类、药品流通发展进行指导。', '6.研究提出推进全市电子商务发展的政策意见，会同有关部门拟订全市电子商务发展规划并组织实施；推进全市商务系统信息化建设。', '7.执行国家制定的进出口商品、加工贸易管理办法和进出口管理商品、技术目录；指导贸易促进活动和外贸促进体系建设；贯彻执行国家和自治区促进外贸增长方式转变的政策措施； 推进出口品牌和出口基地建设；组织实施国家和自治区拟定的重要工业品、原材料和重要农产品进出口总量计划；会同有关部门协调大宗进出口商品；负责对外贸易经营者备案登记初审工作。', '8.贯彻执行国家和自治区对外技术贸易、进出口管制以及鼓励技术和成套设备进出口的贸易政策，推进进出口贸易标准化与便利化工作；会同有关部门依法监督技术引进、设备进口、国家限制出口技术的工作。', '9.会同有关部门贯彻执行国家和自治区促进服务出口和服务外包发展的规划、政策，牵头拟订全市服务贸易发展规划并组织实施，推动服务外包平台建设。', '10.配合上级部门调查国（境）外对我国出口商品实施的歧视性贸易政策、法律法规及做法；组织协调产业安全应对工作及国外对全市出口商品的反倾销、反补贴和保障措施以及其他与进出口公平贸易相关的工作；指导、协调出口产品贸易摩擦应对和进口产品贸易救济申诉工作；跟踪调查反倾销、反补贴和保障措施等贸易救济措施对全市相关产业的影响；建立进出口公平贸易预警机制。', '11.贯彻执行国家和自治区利用外资法律法规规章和外商投资产业政策；依法对全市外商投资审批、备案工作进行指导和管理，规范对外招商引资活动；协调、指导自由贸易区、综合保税区、经济技术开发区、境外经贸合作区有关工作；指导和管理全市外商投资企业进出口工作。', '12.负责全市会展业促进与管理工作，指导、管理全市外对外经济技术展览会和赴境外非商业性办展活动。', '13.负责全市对外投资和经济合作工作，执行国家和自治区有关对外投资和经济合作政策；依法管理和监督对外投资、对外承包工程、对外劳务合作（含公民出境就业）等，指导外派劳务和境外就业人员的权益保护工作，拟订全市对外投资管理办法和具体政策措施，依法初审市内企业对外投资开办企业（金融企业除外）。', '14.负责全市招商引资工作；贯彻执行关于招商引资、投资促进工作的方针、政策和发展战略，拟订全市招商引资发展规划；拟订和分解下达全市招商引资年度目标任务；负责全市招商引资、投资促进工作的统计、监测、督查、考核、评估、信息发布和政策宣传工作，提出招商引资工作的奖励建议。', '15.负责建立、维护和管理招商引资项目库及招商引资信息服务平台；负责全市重点投资领域招商引资项目的征集、策划、包装、推介、签约工作；负责市级重大招商引资项目落地、开工、建设、投产的全程跟踪、服务和指导，协调解决属于市级层面事权的问题。', '16.负责对经济发展的影响及潜在投资者的发展规划、投资方向的分析；分析研判区域经济发展和区域合作趋势，收集、分析、研究区域经济发展和合作动态，提出招商引资、区域合作和优化营商环境的政策建议。', '17.负责组织全市重大招商引资、投资促进活动；负责组织实施全市投资洽谈会和组织参加区内外大型投资洽谈会；负责区内外组织在昌举办投资洽谈会等各类招商引资活动的组织、协调与服务。', '18.承办区内外政府和企业经贸代表团赴昌考察访问，以及市政府和企业经贸代表团外出考察访问的联络、接洽工作；负责推进落实以市政府名义与相关政府部门、商（协）会、高等院校、企业等之间签署的相关经贸合作协议和备忘录；负责推进落实区域经济合作，联系协调市政府驻外办事处招商引资和投资促进工作，与区内外投资促进机构、中介机构等组织建立合作机制。', '19.负责区内外投资企业政策咨询、投资咨询等服务工作；参与解决赴昌投资企业和客商的投诉案件，协调有关部门处理相关投诉案件。', '22.职能转变。市商务局应按照党中央、国务院关于转变政府职能、深化“放管服”改革，深入推进审批服务便民化的决策部署，组织推进本行业系统转变政府职能，深化简政放权、创新监管方式，优化政务服务工作。推进流通领域供给侧结构性改革，大力发展流通新业态、新模式、新技术，完善流通供给体系，提高城乡尤其是农牧区流通供给质量，提升流通供给效率。推动对外贸易高质量发展，优化贸易方式，培育对外贸易新业态新模式，大力发展服务贸易，推动外贸发展上台阶。积极融入“一带一路”建设，建设面向南亚开放重要通道，加强开放合作，推动形成全方位、宽领域、高层次的开放型经济新格局。', '1）与市发展和改革委员会的有关职责分工。一是市发展和改革委员会负责编制重要工业品、原材料和重要农产品的进出口总量计划，市商务局负责在市发展和改革委员会确定的总量计划内组织实施。二是市发展和改革委员会负责贯彻落实国家和自治区利用外资和境外投资的战略、规划、总量平衡和结构优化政策措施，按规定权限审核外商投资重大项目和境外投资项目。市商务局负责依法核准外商投资企业的设立及变更事项和境内企业对外投资开办企业（金融企业除外）事项。三是市发展和改革委员会负责招商引资的宏观管理工作。市商务局负责全市招商引资具体工作。', '2）与市市场监督管理局的有关职责分工。一是市市场监督管理局负责餐饮服务食品安全和酒类食品安全的监督管理。市商务局负责执行促进餐饮服务和酒类流通发展规划和政策，并负责制定全市促进餐饮服务和酒类流通发展规划。二是市商务局负责执行药品流通政策，并拟订其发展规划。市市场监督管理局在药品监督管理工作中，配合执行药品流通发展规划和政策。', '9个正科机构，分别为：办公室、市场运行和消费促进科（电子商务科）、市场体系建设科（流通业和商贸服务管理科）、对外贸易科（对外投资与经济合作科）、招商活动科、项目促进科（区域合作科）、市商务局信息中心（市贸易促进会）、市投资服务中心、市供销合作社；编制人数：38人,其中行政编制人数18人，事业编制人数18人（含参公人员9人），工勤人员编制2人。单位实有在编人数36人，其中：行政在编17人，事业在编15人（含参公人员7人），机关后勤4人。', '因公出国（境）及外出学习考察方面：我局不存在公款出国（境）旅游、公款支付应有个人负担费的情况，', '年昌都市商务局履行一般行政事业管理职能、维持机关运行，用一般公用预算安排的行政经费，合计', '1.基本支出，包括两部分：一是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括局公及印刷费、水电费、邮电费、交通费、差旅费、局议费、福利费、物业管理费、日常维修费、一般购置费等。', '2022我局负债等数据与2021年度相比都有所下降，主要原因是我局按照市财政局相关要求，加强对往来款项的清理，负债有所下降。', '1.促消费市级财政配套第二批：预算资金为822.45万元，支出722.45万元，完成预算的87.84%。完成了本年度目标任务，成为拉动全市经济社会发展的重要动力，促进疫后消费回暖，保障全市人民群众生活需求。有效应对新冠肺炎疫情影响，活跃消费市场，在促消费上下功夫、出实招，指导开展丰富多彩、形式多样的促消费专题活动，营造浓厚消费场景，促进商贸经济发展。', '3. 2021年招商引资技术培训经费项目：年初预算收入30万元，支出29.98万元，预算执行率99.93%，完工项目绩效自评价情况，项目总体达到了预期效果，通过项目的开展，招商知识能力和水平得到了不断提升，完善了知识结构，合格率100%。', '5.综合治理经费（含基层党建及治理建设工作经费、党风廉政建设工作、精神文明建设工作、安全生产及环保督察工作、综合治理建设工作）：年初预算收入20万元，支出20万元，完成率100%，绩效自评情况：将综合治理措施落实到实处，确保不发生影响社会稳定及安全生产事故，努力搞好单位普法和法制宣传教育。不断提高法治水平，做到依法行政、依法管理、民主管理。完成项目情况较好。', '6.商务其他工作经费：年初预算收入18.95万元，支出20.62万元，使用年初结转资金1.75万元，预算执行率100%，绩效自评情况，房租收益返还项目经费保障了我局干部食堂的正常运营。', '8.促销费活动专项经费：年初预算收入 280.00万元支出280.00万元,预算执行率100%，有效应对新冠肺炎疫情影响，活跃消费市场，在促消费上下功夫、出实招，指导开展丰富多彩、形式多样的促消费专题活动，营造浓厚消费场景，促进商贸经济发展。', '9.商务局强基惠民第十批驻村干部生活补助：年初未下达该项目预算资金，年中下达，预算资金5.16万元，支出5.16万元，预算执行率100%。项目全部用于驻村干部的生活补助，有效保障驻村干部的基本生活。', '10.办公楼后侧石墙维修工程经费：年初未下达该项目预算资金,年中下达预算资金 25.67万元，支出25.67 万元，预算执行率 100%。资金全部用于支付办公楼后侧石墙的维修维护，保障我局人员工作环境及安全。', '11.聘请法律顾问：年初预算 4.8 万元，支出4.8 万元，预算执行率 100%。项目资金用于支付单位聘请法律顾问，完成年度法律顾问咨询，服务，提高我局党政机关依法执政、依法行政、依法管理的能力水平。', '12.市商务局职工体检补贴提标部分经费：年初未下达该项目预算资金，年中下达，预算资金5万元，支出4.99万元，预算执行率 99.8%。项目资金用于职工体检补贴支出，保障和维护职工日常身体健康。', '15.促消费补贴资金：年初未下达该项目预算资金，年中下达，预算资金 900.00 万元，支出900.00万元，用于疫情后开展促销费活动，拉动我市消费升级，刺激市场恢复，促进经济稳定增长。', '16.惠民爱心箱采购资金：年初未下达该项目预算资金，年中下达，预算资金 12.26 万元，支出12.26万元，预算执行率 100%。我局负责统筹协调，各县区和各把加工企业克服时间紧.任务重等困难，加班加点做好糌粑的生产、储备和调运工作，为自治区国庆惠民爱心箱的顺利发放贡献昌都人民的一份力。对接11 县区，抓紧糌粑的生产储备以及调运，共向自治区调运了两批次共 73 吨。', '机关运行经费：为保障单位运行用于购买货物和服务的各项资金，包括办公费、印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置、办公用房水电费、取暖费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>261</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>昌都市国土资源局年度部门决算</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2016-09-26</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103289/201609/a18a18ef5292406d98eaae4f8171fd7b.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['(一)承担规范国土资源管理秩序的责任。贯彻执行国家、自治区国土资源管理的法律法规和规章，执行国土资源管理的技术标准、规程、规范和办法；指导区(县)国土资源行政执法工作，调查处理国土资源违法案件。', '(二)承担保护与合理利用土地、矿产等自然资源的责任。研究提出全市国土资源供需总量平衡的政策建议；参与全市经济运行、区域协调、城乡统筹的研究，并拟定涉及国土资源领的调控政策和措施；编制并组织实施国土规划；拟订国土资源领域资源节约集约利用和循环经济的政策建议和措施并组织实施。', '(三)承担优化配置国土资源的责任。编制和组织实施市土地利用总体规划、土地利用年度计划、土地整理复垦开发规划和其他专项规划；指导和审核区(县)土地利用总体规划和矿产资源规划，组织编制市矿产资源、地质勘查和地质环境等规划以及地质灾害防治、矿山环境保护等其他有关的专项规划，并监督检查规划执行情况；参与报请国家或自治区人民政府审批的涉及土地、矿产相关规划的审核；参与报请国务院、自治区审批的城市总体规划审核。', '(四)负责规范国土资源权属管理。依法保护土地、矿产等自然资源所有者和使用者的合法权益；组织承办和调处重大权属纠纷；指导土地确权；承担各类土地登记资料的收集、整理、共享和汇交管理，提供社会查询服务。', '(五)承担全市耕地保护的责任。牵头拟订实施全市耕地保护政策，组织实施基本农田保护，监督占用耕地补偿制度执行情况；指导和组织落实未利用土地开发、土地整理、土地复垦和耕地开发的监督工作；组织实施土地用途管制、农用地转用和土地征收征用；承担上报国家或自治区人民政府审批的各类用地的审核、报批工作。', '(六)承担准确提供全市土地利用各种数据的责任。拟订全市地籍管理办法并组织实施，组织土地资源调查、地籍调查、土地统计和动态监测；指导各区、县地籍调查、登记和土地分等定级工作。', '(七)承担节约集约利用土地资源的责任。执行自治区土地开发利用标准，管理和监督城乡建设用地供应、政府土地储备、土地开发和节约集约利用；拟订并组织实施土地使用权出让、租赁、作价入股、转让等管理办法并组织实施；建立基准地价、标定地价等政府公示地价制度；会同农业部门监督管理农村集体建设用地使用权的流转。', '(八)承担规范国土资源市场秩序的责任。监测土地市场和建设用地利用情况，监管地价；规范和监管矿业权市场，组织对矿业权人勘查、开采活动进行监督管理；规范和监管国土资源相关社会中介组织和行为，依法查处违法行为。', '(九)负责矿产资源开发的管理。负责全市规划矿区和对国民经济具有重要价值矿区的管理；承担保护性开采的特定矿种、优势矿产的开采总量控制及相关管理工作，组织编制实施矿业权设置方案。', '(十)负责地质勘查行业和矿产资源储量管理。管理全市地质调查评价、矿产资源勘查；管理自治区级地质勘查项目；管理地质勘察资质、地质资料、地质勘察成果；统一管理市级公益性地质调查和战略性矿产勘查工作。', '(十一)承担地质环境保护责任。组织实施矿山地质环境保护，监督管理古生物化石、地质遗迹、矿业遗迹等重要保护区、保护地；依法管理水文地质、工程地质、环境地质勘查和评价工作；监测、监督防止地下水过量开采和污染；指导城市地质、农业地质、旅游地质的勘查、评价工作。', '(十二)承担地质灾害预防和治理的责任。组织、协调、指导和监督全市地质灾害防治工作；制定并组织实施重大突发地质灾害等国土资源突发事件应急预案，指导应急处理。', '(十三)依法征收国土资源收益，规范、监督资金使用，拟定土地、矿产资源参与经济调控的政策措施。依法组织土地、矿产资源专项收入的征管；配合有关部门拟定收益分配制度；配合有关部门指导、监督全市土地整理复垦开发资金的收取和使用；依法管理土地、矿产等资源性资产和国家出资形成的矿业权权益，负责有关资金、基金的预算和财务、资产管理与监督。', '(十四)依法履行测绘行政管理职能，贯彻执行测绘法律法规规章及规范性文件，统一监督管理本行政区域内的测绘工作，指导各区、县的测绘管理工作。', '(十五)负责指导和监督全市土地、房屋、林地、草原、滩涂等不动产登记工作；会同有关部门起草不动产统一登记的地方性法规、规章草案，建立不动产统一登记制度；推进不动产登记信息基础平台建设，会同住建、林业、农牧、水利做好不动产登记相关工作。', '(十六)推进国土资源科技进步；开展本行业对外交流与合作工作，组织实施国土资源信息化和信息资料的公共服务。', '负责局机关政务协调和督促检查工作；负责机关文秘、文电、会务、机要、信息、信访、保密、档案、国土资源行政审批窗口、综合治理、精神文明建设、安全保卫等机关运转工作；负责人大代表和政协委员提案的办理；承担综合业务与协调处理等工作。', '组织编制和实施全市土地利用、矿产资源、地质环境等综合规划和土地复垦整理开发等专项规划；指导、审核区、县、乡(镇)土地利用总体规划、矿产资源规划和本行政区域内的测绘事业发展规划；依法直到参与国土资源相关规划；承担建设项目预审和农用地转用项目用地的规划、计划审查；参与报请自治区、地区审批的城乡总体规划的审核；负责国土资源统计工作科学技术研究、科学普及、对外合作与交流。', '承担基本农田保护、农用地转用、土地征收征用和土地整理、复垦、开发工作；承担耕地保护责任目标考核的有关工作，监督检查基本农田保护和占用耕地补偿制度落实情况；承担城乡建设用地和土地市场管理工作；规范土地使用权出让、租赁、作价出资和转让行为；拟订并实施土地供应、土地价格、土地资产和土地储备管理办法；拟订并实施土地开发利用标准；承担节约集约用地评价和建设用地分等定级工作，组织实施基准地价、标定地价等制度，对土地市场和地价实施动态监测。', '拟订地籍管理相关办法；拟订土地确权、登记、争议调处办法并监督指导工作，承担调处重大土地权属纠纷工作；指导地籍信息系统的建立与维护；拟订土地调查、监测、统计的规程、规范、标准和全国土地调查、监测总体方案并组织实施；指导区(县)地籍工作；承担土地登记监督管理工作。承担全市不动产统一登记的法律法规草案、规章；拟订不动产确权和权属争议调处的规则、办法；会同有关部门建立不动产统一登记制度；推进不动产登记信息基础平台建设，会同住建、林业、农牧、水利做好不动产登记相关工作。', '组织矿产资源调查评价，编制地质勘查规划；管理地质勘查行业、地堪项目成果，管理地质堪查资质；负责探矿权、采矿权管理，承担矿业权年鉴以及非金属矿登记发证的管理工作；承担矿产资源保护和保护性开采特定矿种的管理事项；管理矿业权市场；监管矿产资源勘查、开采活动；调处重大矿业权权属纠纷；协助开展矿产资源开发利用统计年报的汇总上报工作；指导全市矿产资源管理信息系统建设。承担管理全市矿产资源储量、矿产资源补偿费征收和地质资料；拟订矿产资源储量管理办法、标准、规程；管理矿产资源储量评审、登记、统计；实施矿山储量动态监督管理；承担矿产资源补偿费征收、矿产地储备、压覆矿产资源管理的事项；组织矿产资源形势分析和战略研究。', '组织对全市国土资源法律法规执行情况进行监督检查；拟订土地、矿产执法监督和违法案件查处的规定；依法组织查处重大国土资源违法案件；负责国土资源信访工作；指导全市国土资源监察工作。', '承担全市国土资源领域的执法监察任务；负责全市国土资源动态巡查，及时发现和制止各类土地矿产违法行为；负责全市国土资源违法案件的调查取证等工作，负责相关处罚决定的落实到位；负责全市国土资源信访工作，调查核实国土资源信访违法案件，依法提出处理意见；对各县市国土资源局的执法监察工作进行督导检查，及时发现并纠正工作中的问题，不断提高国土资源执法监察业务水平；承办市国土资源局交办的其他事项。', '组织协调和监督地质灾害防治工作；承担监督管理地质遗迹、古生物化石、矿业遗迹等重要保护区、保护地质遗迹的工作；依法管理水文地质、工程地质、环境地质勘查和评价工作；组织监测、监督防止地下水过量开采引起的地面沉降和地下水污染造成的地质环境破坏；管理地质灾害防治资质；监督与指导全市城乡地质、农业地质、旅游地质的勘查评价工作。制定组织实施重大突发地质灾害等国土资源突发事件应急预案，指导应急处理。审核和拟定地质灾害项目审查和申报工作等行政工作。', '承担我市土地测绘测量后整理土地资源入库到土地储备中心。管理城乡建设用地供应、政府土地储备、土地开发和节约集约利用；拟订土地使用权出让、租赁、作价出资、转让等管理办法并按规定组织实施；建立基准地价、标定地价等政府公示地价制度。受政府、其他单位或个人委托，承担土地使用权及采矿权、探矿权的公开招标、拍卖、挂牌等服务性工作；办理土地使用权转让、出租、抵押、租赁、登记发证等服务性工作；承担地籍档案公开查询服务工作；提供土地使用权交易信息服务和法律政策咨询；承担其他有关土地矿产交易中的服务性工作。', '土地测绘测量、土地规划、土地调查等业务工作。土地测绘测量：从事土地储备的测量、登记发证的测量(地籍测量)；土地规划：开展县级土地利用总体规划、地级土地利用总体规划、规划修编工作；土地调查：每年的市土地变更调查等业务工作；受市、县人民政府委托，承担土地开发整理、复垦项目的可行性调研评价工作，以及项目申报的前期工作；承办市局交办的其他事项。', '承担地质灾害预防和治理的责任。指导应急处理、组织、协调、指导和监督全市地质灾害防治工作；制定并组织实施重大突发地质灾害等国土资源突发事件应急预案。为保护和恢复矿山地质环境、保护地质遗迹及古生物化石，以及防止矿渣泥石流和滑坡等矿山地质灾害的发生。共有行政编制18名，事业编制22名。目前共有职工人数56人(含援藏干部2人)，离退休职工20人，县级干部4人，科级干部17人(含副科)，一般干部12人，高级工工人1人,初级工工人2人。', '1.因公出国（境）及外出学习考察方面。我局本着“厉行节约、反对浪费”的原则，严格控制公务接待和因公出国（境），不存在用公款出国（境）旅游、公款支付应由个人负担费用的情况， 2015年未产生因公出国（境）经费。', '2.公务接待方面。2014年公务接待费0万元，2015年公务接待费1.0712万元，同比增加100%。增长原因为2016年我局新成立不动产登记中心，自治区国土资源厅、福建省国土资源厅专项工作组来我局指导不动产登记前期工作。', '3.公务用车方面。我局现正常运行车辆4台，2014年公务用车费13.2万元，2015年公务用车费22.6万元，同比增加71.21%。增长原因为我局到10县1区巡查、排查地质灾害，矿山安全生产检查，卫片执法检查，农村宅基地确权登记，耕地保护等工作。下乡任务重导致车辆维修费用增加。', '1.基本支出，包括两部分；一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。', '2.一般行政管理项目支出，包括招待费、会议费、购置费(包括设备、计算机等)、专用材料费、干部培训费、信息网络运行维护费等用于一般行政管理事务方面的项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>261</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>昌都市生态环境局年度部门决算</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103292/202209/b3dad6909ffb478ab01b747d5257c5f2.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['负责建立健全生态环境基本制度；贯彻执行国家和自治区生态环境保护方针、政策和法律、法规、标准，会同有关部门拟订地方性规划、区划并组织实施，起草生态环境地方性法规草案和政府规章草案；会同有关部门编制并监督实施重点区域、流域、饮用水水源地生态环境规划和水功能区划，组织拟订地方生态环境标准与技术规范。', '负责地方生态环境问题和行业安全生产的统筹协调、监督管理；牵头协调地方环境污染事故和生态破坏事件的调查处理，指导协调县（区）政府对突发生态环境事件的应急、预警工作；落实生态环境损害赔偿制度，协调解决有关跨区域环境污染纠纷，统筹协调市重点区域、流域生态环境保护工作。', '负责监督管理减排目标的落实；组织实施地方各类污染物排放总量控制、排污许可证制度；提出市实施总量控制的污染物名称和控制指标，监督检查全市污染物减排任务完成情况，实施生态环境保护目标责任制。', '负责提出市生态环境领域固定资产投资规模和方向、市财政性资金安排的意见，按政府规定权限审批、核准市规划内和年度', '计划规模内固定资产投资项目，配合有关部门做好组织实施和监督工作；参与指导推动循环经济和生态环保产业发展。', '负责地方环境污染防治的监督管理；制定地方大气、水、土壤、噪声、光、恶臭、固体废物、化学品、机动车等的污染防治管理制度并监督实施；会同有关部门监督管理饮用水水源地生态环境保护工作，组织指导城乡生态环境综合整治工作，监督指导农业面源污染治理工作；监督指导区域大气环境保护工作，组织实施区域大气污染联防联控协作机制。', '指导协调和监督生态保护修复工作；组织编制全市生态保护规划，指导、协调、监督美丽昌都建设和构建国家重要生态安全屏障工作；监督对生态环境有影响的自然资源开发利用活动、重要生态环境建设和生态破坏恢复工作；组织制定各类自然保护地生态环境监管制度并监督执法；监督野生动植物保护、湿地生态环境保护、荒漠化防治等工作；指导协调和监督农村生态环境保护，监督生物技术环境安全，参与生物物种（含遗传资源）工作，参与协调生物多样性保护工作和生态保护补偿工作。', '负责生态环境准入的监督管理；受市人民政府委托，对经济和技术政策、发展规划以及经济开发计划进行环境影响评价；按规定审批或审查开发建设区域、规划、项目环境影响评价文件；拟订并组织实施市生态环境准入清单。', '负责环境监测工作；开展污染源监测、应急监测及执法监测；指导各县（区）生态环境监测站开展工作。', '开展生态环境保护对外合作交流；受市人民政府委托，参与处理生态环境保护对外事务，开展对外合作与交流。', '配合市委、市政府接受中央、自治区生态环境保护督察；负责中央、自治区环境保护督察反馈问题整改工作。', '负责生态环境监督执法，组织开展全市生态环境保护执法检查活动，查处生态环境违法问题，指导全市生态环境保护综合执法队伍建设和业务工作。', '组织指导和协调全市生态环境宣传教育工作，制定并组织实施生态环境保护宣传教育纲要，推动社会组织和公众参与生态环境保护；开展生态环境科学研究和技术工程示范，推动生态环境技术管理体系建设。', '负责辐射安全的监督管理；监督管理放射性同位素与射线装置安全，监督管理电磁辐射、伴有放射性矿产资源开发利用中的污染防治；组织开展辐射环境监测；开展辐射环境的应急响应、事故处理及事故原因调查工作。', '职能转变。市生态环境局要统一行使生态和城乡各类污染排放监管与行政执法职责，切实履行监管责任，督促各县（区）各有关部门全面落实大气、水、土壤污染防治行动计划。构建政府为主导、企业为主体、社会组织和公众共同参与的生态环境治理体系，实行最严格的生态环境保护制度，严守生态保护红线和环境质量底线，坚决打好污染防治攻坚战，构筑国家生态安全屏障，推进美丽昌都建设，打造昌都国家生态文明高地。', '1.与市发展和改革委员会的有关职责分工。市生态环境局负责应对气候变化和减排工作。市发展和改革委员会负责参与编制生态环境保护规划，协调生态环保产业和清洁生产促进有关工作。', '与市自然资源局的有关职责分工。市生态环境局负责做好监督防止地下水污染工作。市自然资源局负责提供地下水监测数据，负责监督管理地下水过量开采引起的地面沉降等地质问题。', '与市农业农村局的有关职责分工。市生态环境局负责监督指导农业面源污染治理工作。市农业农村局负责指导农产品产地环境管理、农业清洁生产和生态循环农业建设。', '与市水利局的有关职责分工。市生态环境局负责编制水功能区划、排污口设置、流域水环境保护工作。市水利局负责指导水资源保护工作，组织编制并实施水资源保护规划，指导饮用水水源保护工作。', '与市林业和草原局的有关职责分工。市生态环境局负责组织制定各类自然保护地生态环境监管制度并监督执法。市林业和草原局负责自然保护地的管理工作。', '贯彻执行生态环境保护综合行政执法有关法律、法规、规章和国务院、自治区、市有关政策、制度及其他规范性文件', ';负责编制全市生态环境保护综合行政执法工作的规范性文件、中长期规划和年度计划并组织实施。', '(1)除经开区外的市城市规划区范围内执法职责由市生态环境保护综合行政执法队承担;(2)市生态环境局卡若区分局负责行业监管,发现案件线索及时上报市生态环境保护综合行政执法队查处,市生态环境保护综合行政执法队将查处结果及时反馈卡若区分局;(3)市生态环境局卡若区分局定期向市生态环境保护综合行政执法队上报生', ',并保持动态更新;(4)市生态环境局卡若区分局对卡若区各乡镇综合行政执法机构有关生态环境保护领域执法工作进行指导和监督。', '2.与相关行政主管部门的职责分工。市自然资源、林业草原、水利等行业主管部门负责资源开发利用的监督管理、生态保护和修复,依法履行生态环境保护“一岗双责”,积极支持生态环境保护综合行政执法队伍依法履行执法职责。在日常监督管理中,行业管理部门发现环境污染和生态破坏行为的,应当及时将案件线索移交生态环境保护综合行政执法队伍,由其依法立案查处。', ';编制、修订生态环境应急预案并组织实施,组织编制、修订专项生态环境应急预案并组织开展演练;负责生态环境应急处置设施的建设和运行工作;组织突发性生态环境事件应急处理,协调重、特大突发环境污染事件和破坏事件的调查处置;协助有关单位实施环境突发事件的责任调查和追究;负责全市生态环境网格化监管体系建设和运行工作;承办市生态环境局交办的其他事项。', ';负责全市污染源在线监控网络和“两微”平台的管理与维护工作;负责生态环境信息的收集、整理、汇总、分析、发布工作,建立健全全市生态环境信息数据库并向公众、有关单位提供生态环境信息服务;负责全市生态环境系统信息化技术指导工作;负责拟定全市生态环境保护宣传教育工作规划和年度计划并组织实施;负责全市生态环境宣传教育工作;组织编制生态环境保护宣传教育资料;负责全市生态环境', ';负责有关生态环境影响评估的技术培训工作;负责本市环境影响评价技术审查专家库的建立和管理工作;', ';负责县(区)分局审批的建设项目环评文件的技术复核工作;承办市生态环境局交办的其他事项。', '负责卡若、类乌齐、丁青辖区内生态环境质量检测、污染源监测、应急监测、执法监测和重点排污单位监督性监测工作', ';负责片区内生态环境监测数据的收集、汇总和管理工作;负责片区内生态环境监测系统的监测数据质量保证工作;开展片区内生态环境状况调查和评价工作,编制生态环境检测报告和生态环境质量报告书;负责片区内生态环境监测网建设和运行工作;负责生态环境质量与污染源监测系统的运行和管理工作;承办市生态环境局交办的其他事项。', '负责洛隆、边坝辖区内生态环境质量检测、污染源监测、应急监测、执法监测和重点排污单位监督性监测工作', '负责察雅、八宿、左贡辖区内生态环境质量检测、污染源监测、应急监测、执法监测和重点排污单位监督性监测工作', '; 负责片区内生态环境监测数据的收集、汇总和管理工作;负责片区内生态环境监测系统的监测数据质量保证工作;开展片区内生态环境状况调查和评价工作,编制生态环境检测报告和生态环境质量报告书;负责片区内生态环境监测网建设和运行工作;负责生态环境质量与污染源监测系统的运行和管理工作;承办市生态环境局交办的其他事项。', '负责江达、贡觉、芒康辖区内生态环境质量检测、污染源监测、应急监测、执法监测和重点排污单位监督性监测工作', '7个，分别是办公室、法规与标准科、自然生态保护与生态环境监测科（市生物多样性保护与生物安全管理办公室）、水与大气环境科、土壤环境与固体废物管理科（辐射安全监管科）、环境影响评价与排放管理科、政工人事科（财务科）。', '11 县（区）设立生态环境分局，正科级，为市生态环境局的派出机构，名称统一为昌都市生态环境局', '县（区）分局（如昌都市生态环境局卡若区分局），由市生态环境局直接管理。负责所辖区域内的环境污染防治、生态保护修复等工作的监督、行政执法及执法监测工作。共核定行政编制', '昌都市生态环境局昌都经济开发区分局为市生态环境局的派出机构，正科级。主要负责昌都经济开发区内环境污染防治、生态环境准入等工作的监督、行政执法及执法监测工作。核定行政编制', '将市生态环境保护综合行政执法队文电、会务、信息、档案、机要、保密、协调、督办等职责交由市生态环境局办公室承担', ';将市生态环境保护综合行政执法队队伍建设和作风建设等职责交由市生态环境局政工人事科(财务科)承担。', '(案件受理科):负责“12369”电话投诉和网上投诉的受理核查统计和分片区移交工作;负责生态环境保护执法信息化建设、“双随机一公开”工作;负责制定执法队内部管理的有关制度和工作计划,并组织落实;承担全市生态环境保护综合行政执法案件的统计分析工作;组织开展全市生态环境保护综合行政执法队伍的考评、培训,总结、交流经验;承担生态环境保护执法后督察和挂牌督办工作。', ':承担除经开区外的卡若区范围内违法案件审查和相关行政执法工作;指导经开区和洛隆、边坝、丁青、类乌齐 4 县生态环境保护综合行政执法队开展行政执法和案件查办工作;负责协调解决跨区域跨流域环境污染纠纷,以及突发性生态环境事件的调查处置、建设项目环境保护事中事后监督管理、相关法律法规的宣传等工作。', ':指导江达、贡觉、察雅、芒康、左贡、八宿 6 县生态环境保护综合行政执法队开展行政执法和案件查办工作;负责协调解决跨区域跨流域环境污染纠纷,以及突发性生态环境事件的调查处置、建设项目环境保护事中事后监督管理、相关法律法规的宣传等工作。', '10县生态环境保护综合行政执法队,名称规范为“昌都经济开发区生态环境保护综合行政执法队”和“', '”,在各分局加挂牌子,实行“局队合一”体制,由市生态环境局统一管理、统一指挥。各县生态环境保护综合行政执法队依法行使辖区范围内各领域污染防治、生态保护、辐射安全方面的行政处罚权以及与行政处罚相关的行政检查、行政强制等执法职能,以日常执法检查、一般违法案件查处为主;对辖区各乡镇综合行政执法机构有关生态环境保护执法工作进行业务指导和监督。队长由市生态环境局各分局局长兼任。', '(市生态环境宣教中心)、市生态环境工程评估中心、卡若片区生态环境监测站、洛隆片区生态环境监测站、察雅片区生态环境监测站、江达片区生态环境监测站、机关后勤服务事业编制。', '“高温蒸汽灭菌”处理工艺，来实现医疗废物无害化，达到安全处置的目的，设计日处理医疗垃圾3吨。', '%。项目绩效自评价情况：全面落实新时代党的建设总要求,以党的政治建设为统领,扎实开展“不忘初心,牢记使命”主题教育,利用“两学一做”学习教育常态化制度化、“主题党日”、组织生活会、在职党员到社区报到等活动充分发挥基层党组织的战斗堡垒和党员的先锋模范作用，使党员政治思想素质有所提高、领导班子能力有所增强，党员教育管理有新局面、支部建设有新进展、干部职工精神面貌有新变化。', '档案数字化建设使我局文件、资料、档案等得到进一步规范管理，文件、资料保存更真实、完整、安全，便于工作人员查阅，提高工作效率。', '0万元，完成预算的100 %。项目绩效自评价情况：实现了对公务车辆的预期可能发生风险的保障，保障县分局车辆运行维护费。', '法律顾问单位为我局依法行政管理等方面重大决策、重大案件、各类纠纷提供法律意见，并要求顾问单位每年开展', '4次法治培训讲座。通过聘请法律顾问，使全市生态环境系统切实增强了全市依法决策、依法行政和依法管理的能力，全面提升了全系统依法办事水平，增强法治观念，营造良好的法治环境。', '深入学习贯彻习近平生态文明思想，宣传落实《西藏自治区国家生态文明高地建设条例》，普及生态文明知识，弘扬生态文化，倡导生态文明行为，加快推动绿色低碳发展，', '通过演练检验了我市突发环境事件应急预案的科学性、针对性和实用性，检验了各相关部门在突发环境事件发生时的应急联动指挥机制，锻炼和提高了应急管理人员快速反应、协同作战、应急处置的实战能力。演练成果得到市领导和自治区生态环境厅的肯定。', '%。项目绩效自评价情况：通过开展考核提升11县区对环保的重视程度；同时考核优良县区有生态补偿资金用以生态环境保护项目。紧密围绕生态文明建设，向全社会普及环境保护科学知识，采取多样式的环保宣传方式，增强公众的环境保护意识、责任意识，提高群众企业的环境道德水平，强化环境法制观念，引导全社会树立生态理念和生态道德观，构建文明、节约、绿色、低碳的消费模式和生活方式。切实做到环境保护全民参与，坚决打好污染防治攻坚战。', '2021年度创建自治区级生态文明建设示范乡镇、村居工作计划及2020年12月22日召开的生态文明建设示范区创建工作推进会部署要求，', '国家生态文明建设示范市的自评估、编制工作报告，选派工作人员予以培训指导，持续做好巩固提升。', '%。项目绩效自评价情况：推进我市生态创建工作有序开展，保障土壤信息化项目机房、指挥中心建设，以及网络通信系统、虚拟化计算系统、信息安全设计、土壤综合分析系统、GIS地理信息系统、投诉管理系统（12369）、OA办公自动化系统、视频会议系统等后期正常运营。有效控制我市声环境不超标、噪音正常。通过监测准确掌握辖区水环境质量情况，对于出现水环境质量异常情况及时进行分析和处理，从而确保辖区水环境质量持续良好，确保群众饮用水水质安全。同时，对于巩固昌都市生态文明建设示范市水环境质量指标也有促进作用。持续提升队伍战斗力，扎实做好中央环境保护督察组反馈问题整改工作，全力打好污染防治攻坚战，持续保持环境监管执法高压态势，严厉打击环境违法行为。', '5个领域温室气体排放清单报告各6本，共计12份报告。摸清了我市重点温室气体排放行业、领域温室气体排放情况。昌都市机动车遥感监测平台项目(二期)是根据昌都市关于打赢柴油货车污染治理攻坚战相关要求，在自治区下达资金实施了一期的基础上申请的。已完成《昌都市峰值测算及达峰路径研究报告（初稿）》《昌都市碳排放达峰行动方案（初稿）》。', '上报昌都市环保局审批的建设项目环境影响文件的技术评估工作。把好审批关口，通过邀请专家，可以提高入河排污口论证报告的科学性、完整性，为更好地保护水环境奠定了基础。我局将对已发证的畜禽养殖、水处理、乳制品制造、酒精饮料制造、家具制造、锅炉等行业的排污单位通过监测和现场检查等方式，加强对排污者排污行为的监督检查；对拟发证的排污单位核发排污许可证，对申请材料中存在疑问的，将开展现场核查。', '项目绩效自评价情况：备足监测任务日常消耗，完成了日常辖区内环境监测、监督性监测、应急监测等。', '%。项目绩效自评价情况：根据综合水域环境容量和社会经济发展需要，以及污染物排放总量控制的要求，完成划定水域分类管理功能区的工作。', '%。项目绩效自评价情况：加强城乡噪声污染防治，改善声环境质量，保障人民享有良好的声环境，结合县城规划、用地现状，科学划定声环境功', '2110105）环境保护法规、规划及标准：反映环境保护法规政策的前期研究、制定，规划的前期研究、制订及实施评估，环境标准试验、研究和制定等方面的支出。', '2110199）其他环境保护管理事务支出：反映其他用于环境保护管理事务方面的支出。', '2110203）建设项目环评审查与监督：反映生态环境部门对建设类规划、建设项目的环境影响评价、评审，建设项目“三同时”监理、验收等发面的支出。', '2110304）固体废弃物与化学品：反映政府在垃圾、医疗废物、危险废物及工业废弃物处置处理等方面的支出，持久性有机物污染物监管及淘汰处置支出。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>261</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>昌都市商务局年度部门决算</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103307/202209/749779dc98b849728915f00f7dcefefd.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['我单位是昌都市人民政府下属的商务局，主要负责商贸商务管理、市场运行调节、市场体系建设、市场秩序、对外贸易、招商引资、商务信息工作等职能。机构主要成立于', '2004 年。是全额财政拨款核算的行政机关单位，实行独立的财务核算，拥有健全的财务管理机构。', '1、贯彻落实国家和自治区国内外贸易、国际经济合作的发展战略、政策，贯彻执行国家和自治区国内外贸易、外商投资、对外援助、对外投资和对外经济合作的法律法规；拟订全市商务发展规划、年度计划并组织实施；研究经济全球化、区域经济合作、现代流通方式、开放型经济新体制和流通体制改革的发展趋势并提出对策建议。', '2、拟订全市国内贸易发展规划并组织实施，促进城乡市场发展，执行国内外资金投向市场体系建设的政策，指导大宗产品批发市场规划建设和城市商业网点、商品交易市场（现货交易类）规划，以及商业体系建设工作；推进农村市场体系建设，组织实施农村现代流通网络工程。', '商贸服务业和社区商业发展，提出促进商贸中小企业发展的政策建议，推动物流配送、电子商务、流通标准化和连锁经营、商业特许经营等现代流通方式的发展。', '4、牵头推进商务领域信用体系建设，指导商业信用销售， 建立商务诚信公共服务平台；规范商贸企业交易行为，牵头推动重要产品追溯体系建设；按有关规定对拍卖等特殊流通行业进行监督管理；执行有关规范市场运行、流通秩序的政策，负责推进商贸领域行政执法。', '5、组织实施重要消费品市场调控和重要生产资料流通管理；负责建立健全生活必需品市场供应应急管理机制，监测分析市场运行、商品供求状况，调查分析商品价格信息，进行预测预警和信息引导；统筹商务领域消费促进工作；按分工负责重要消费品（食糖除外）储备管理和市场调控工作；按有关规定对成品油流通进行监督管理；贯彻执行酒类、药品流通政策并拟订发展规划，对酒类、药品流通发展进行指导。', '6、研究提出推进全市电子商务发展的政策意见，会同有关部门拟订全市电子商务发展规划并组织实施；推进全市商务系统信息化建设。', '7、执行国家制定的进出口商品、加工贸易管理办法和进出口管理商品、技术目录；指导贸易促进活动和外贸促进体系建设；贯彻执行国家和自治区促进外贸增长方式转变的政策措施； 推进出口品牌和出口基地建设；组织实施国家和自治区拟定的重要工业品、原材料和重要农产品进出口总量计划；会同有关部门协调大宗进出口商品；负责对外贸易经营者备案登记初审工作。', '8、贯彻执行国家和自治区对外技术贸易、进出口管制以及鼓励技术和成套设备进出口的贸易政策，推进进出口贸易标准化与便利化工作；会同有关部门依法监督技术引进、设备进口、国家限制出口技术的工作。', '9、会同有关部门贯彻执行国家和自治区促进服务出口和服务外包发展的规划、政策，牵头拟订全市服务贸易发展规划并组织实施，推动服务外包平台建设。', '10、配合上级部门调查国（境）外对我国出口商品实施的歧视性贸易政策、法律法规及做法；组织协调产业安全应对工作及国外对全市出口商品的反倾销、反补贴和保障措施以及其他与进出口公平贸易相关的工作；指导、协调出口产品贸易摩擦应对和进口产品贸易救济申诉工作；跟踪调查反倾销、反补贴和保障措施等贸易救济措施对全市相关产业的影响；建立进出口公平贸易预警机制。', '11、贯彻执行国家和自治区利用外资法律法规规章和外商投资产业政策；依法对全市外商投资审批、备案工作进行指导和管理，规范对外招商引资活动；协调、指导自由贸易区、综合保税区、经济技术开发区、境外经贸合作区有关工作；指导和管理全市外商投资企业进出口工作。', '12、负责全市会展业促进与管理工作，指导、管理全市外对外经济技术展览会和赴境外非商业性办展活动。', '13、负责全市对外投资和经济合作工作，执行国家和自治区有关对外投资和经济合作政策；依法管理和监督对外投资、对外承包工程、对外劳务合作（含公民出境就业）等，指导外派劳务和境外就业人员的权益保护工作，拟订全市对外投资管理办法和具体政策措施，依法初审市内企业对外投资开办企业（金融企业除外）。', '14、负责全市招商引资工作；贯彻执行关于招商引资、投资促进工作的方针、政策和发展战略，拟订全市招商引资发展规划；拟订和分解下达全市招商引资年度目标任务；负责全市招商引资、投资促进工作的统计、监测、督查、考核、评估、信息发布和政策宣传工作，提出招商引资工作的奖励建议。', '15、负责建立、维护和管理招商引资项目库及招商引资信息服务平台；负责全市重点投资领域招商引资项目的征集、策划、包装、推介、签约工作；负责市级重大招商引资项目落地、开工、建设、投产的全程跟踪、服务和指导，协调解决属于市级层面事权的问题。', '16、负责对经济发展的影响及潜在投资者的发展规划、投资方向的分析；分析研判区域经济发展和区域合作趋势，收集、分析、研究区域经济发展和合作动态，提出招商引资、区域合作和优化营商环境的政策建议。', '17、负责组织全市重大招商引资、投资促进活动；负责组织实施全市投资洽谈会和组织参加区内外大型投资洽谈会；负责区内外组织在昌举办投资洽谈会等各类招商引资活动的组织、协调与服务。', '18、承办区内外政府和企业经贸代表团赴昌考察访问， 以及市政府和企业经贸代表团外出考察访问的联络、接洽工作； 负责推进落实以市政府名义与相关政府部门、商（协）会、高等院校、企业等之间签署的相关经贸合作协议和备忘录；负责推进落实区域经济合作，联系协调市政府驻外办事处招商引资和投资促进工作，与区内外投资促进机构、中介机构等组织建立合作机制。', '19、负责区内外投资企业政策咨询、投资咨询等服务工作；参与解决赴昌投资企业和客商的投诉案件，协调有关部门处理相关投诉案件。', '22、职能转变。市商务局应按照党中央、国务院关于转变政府职能、深化“放管服”改革，深入推进审批服务便民化的决策部署，组织推进本行业系统转变政府职能，深化简政放权、创新监管方式，优化政务服务工作。推进流通领域供给侧结构性改革，大力发展流通新业态、新模式、新技术，完善流通供给体系，提高城乡尤其是农牧区流通供给质量，提升流通供给效率。推动对外贸易高质量发展，优化贸易方式，培育对外贸易新业态新模式，大力发展服务贸易，推动外贸发展上台阶。积极融入“一带一路”建设，建设面向南亚开放重要通道，加强开放合作，推动形成全方位、宽领域、高层次的开放型经济新格局。', '为：办公室、市场运行和消费促进科、市场体系建设科（流通企业和商贸服务管理科）、对外贸易科（对外投资与经济合作科）、招商活动科、项目促进科（区域合作科）；编制人数：', '2021年度预算数小于决算支出数是由于上年底结转171.176131万元，当年支出预算已执行但尚未完成，下年度需按原用途继续使用。', '因公出国（境）及外出学习考察方面。我局不存在公款出国（境）旅游、公款支付应有个人负担费的情况，', '2021我局资产、负债等数据与2020年度相比都有所下降，主要原因：一是2021年度我局按照财政要求上缴存量资金；二是我局按照市财政局相关要求，加强对往来款项的清理，负债有所下降。', '1）2021年全市招商引资专项工作经费项目（含回访对接援藏省市经费、藏博会专项经费）:调减后经费预算166.365174万元，支出166.365174万元，完成预算的100%。完工项目绩效自评价情况：我市招商引资工作得到了高度重视，并取得了巨大成绩，完成了本年度目标任务，成为全市经济社会发展的重要动力，项目的落地，大大提升了区域品牌影响力，带动区域人气，带来经济效益，同时为辖区范围内的居民提供就业机会。项目完成情况较好。', '4）2021年度“大庆美食街”工作经费项目:调减后经费预算80.8763万元，支出80.8763万元，完成预算的100%，完工项目绩效自评价情况：打造美食文化街区和商铺、餐饮一体的街区文化，通过组织相关的主题活动，对美食街形象包装，在进行招商、销售。完成情况较好。', '6）综合治理经费：（含基层党建及治理建设工作经费、党风廉政建设工作、精神文明建设工作、安全生产及环保督察工作、综合治理建设工作）调减后经费预算 19.983247万元，支出 19.983247万元，完成预算的100%，绩效自评情况：将综合治理措施落实到实处，确保不发生影响社会稳定及安全生产事故，努力搞好单位普法和法制宣传教育。不断提高法治水平，做到依法行政、依法管理、民主管理。完成项目情况较好。', '7）商务其他工作经费（含整规办执法队业务工作经费项目及房租收益返还项目）调减后经费预算 16.66004万元，支出16.66004万元，完成预算的100%，绩效自评情况：房租收益返还项目经费保障了我局干部食堂的正常运营。', '8 )副食品储备项目经费经费预算 41.22万元，支出41.22万元，完成预算的100%，绩效自评情况：此项经费，大大缓解了我局开展食品储备监管工作的借经费压力。保障广大人民群众的食品安全，加强了流通环节食品监管、市场秩序有效手段，预防、减轻和消除食品安全的风险。', '9）外经贸发展专项资金经费预算 0.00万元，上年结余106.33万元，支出85.683万元，结余20.647万元，完成预算的80.58%，绩效自评情况：项目资金全部用于支持企业参加各种展会，积极争取展会资源，帮助企业抢抓订单，通过市场调节，促进我市外贸稳定增长，并要求企业按照相关制度、规范并按规定用途使用资金。', '机关运行经费：为保障单位运行用于购买货物和服务的各项资金，包括办公费、印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置、办公用房水电费、取暖费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>261</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>年昌都市政府工作报告</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-01-31</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c101597/202301/bfca66fe70824b28bc3b80c96f7c29f7.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['现在，我代表市人民政府向大会作报告，请予审议，并请各位政协委员和列席人员提出意见。', '2022年是极不寻常、极不平凡的一年。面对外部环境错综复杂、新冠肺炎疫情冲击、经济下行压力加大的严峻形势，在市委的正确领导下，全市上下坚持以迎接服务、宣传贯彻党的二十大为主线，深入贯彻习近平总书记关于“疫情要防住、经济要稳住、发展要安全”的重要指示，全面落实区党委及市委经济工作会议部署，紧紧围绕“三区一高地”建设，团结一心、艰苦奋斗，攻坚克难、砥砺前行，在抢抓机遇中准确识变，在迎接挑战中科学应变，在化解风险中主动求变，较好地完成了市二届人大三次会议确定的目标任务。预计，全市地区生产总值完成303亿元，同比增长5%（可比价）；固定资产投资完成165.04亿元，同比增长5%；社会消费品零售总额实现84亿元，同比增长5.8%；一般公共预算收入完成20.96亿元，同比增长3%；城乡居民人均可支配收入达到44240元、17130元，同比分别增长9%、13%。发展支撑和内生动力持续增强，为推动新时代昌都经济社会高质量发展奠定了坚实基础。', '——社会大局持续稳定。深入开展反分裂斗争，严格落实各项综合性维稳措施，市域社会治理现代化试点扎实推进。突出铸牢中华民族共同体意识主线，深化民族团结进步创建，芒康纳西民族乡和洛隆硕督镇民族特色村寨加快建设。全面贯彻党的宗教工作方针，宗教和睦、佛事和顺、寺庙和谐的基础更加牢固。坚决防范化解金融风险，守牢了不发生区域性系统性风险底线。切实加强安全生产隐患排查整治，强化食品药品安全监管，严格危化品防控和特种设备监管，“智慧交通”电子抓拍系统主城区投入使用，安全生产形势总体平稳。突出抓好夏季治安打击整治“百日行动”，公安部挂牌整治涉枪涉爆重点地区按期摘牌销号。深入开展“千名干部进千村 矛盾风险隐患大排查”专项活动，聚力化解信访“骨头案”“钉子案”，信访办理质量和效率进一步提升。扎实做好固边兴边、国防动员、双拥共建、民兵预备役、退役军人服务保障等工作，军政军民关系更加密切。党的二十大安保维稳攻坚战全面打赢，重大敏感时点的社会领域风险防控有力，确保了社会大局持续和谐稳定。', '——基础设施持续改善。川藏铁路（昌都段）建设进展顺利，G349线边坝至嘉黎新改建工程夏贡拉山隧道即将贯通，G318线竹巴笼至林芝重点路段整治改建工程（觉巴山隧道）、川藏铁路配套公路加速推进，卡若区综合客运枢纽站主体完工，农村公路40个建制村通畅项目开工建设，乡（镇）、建制村通畅率达99%和79%。芒康、贡觉、左贡等县城供水二期工程加快推进，类乌齐县吉多乡、八宿县同卡镇2个灌区建成投用，弄利措水库加快建设，八宿县林卡乡、丁青县尺牍镇山洪沟治理工程全面开工，新建和改造农村供水工程204处、受益9.28万人。金上至湖北特高压输电项目前期工作稳步推进，川藏铁路施工供电工程（二期）昌都段全线贯通，国家电网澜沧江主变扩建工程有序实施，类乌齐尚卡、芒康曲登、芒康竹巴笼35千伏输变电线路工程建成投运，主电网人口覆盖率达95.6%。城镇建设全面提速，茶马广场至云南坝以西城市品质提升工程基本完成，中心城区建成区面积达9.66平方公里。持续推进通信盲区消除和网络普及惠民工程，完成川藏铁路（昌都段）通信保障（一批、二批）项目建设，启动实施电信普遍服务试点（八批）和中国电信集团通信援昌项目，建成4G基站210座、5G基站94座，新增156个自然村4G信号覆盖，主城区及10县县城5G网络进一步织密。', '——产业质效持续提升。全年新建高标准农田15.57万亩，完成测土配方和粮食绿色高产高效示范创建48万亩，青稞良种覆盖率达92%以上，粮食产量达20.11万吨，本地蔬菜淡、旺季供给率达45%、85%。牦牛经济杂交5348头、黄牛改良5008头，肉、蛋、奶产量分别达7.83万吨、700吨、11.91万吨，阿旺绵羊、牦牛、藏猪存栏分别达36万只、159万头、16万头。全区首个阿旺绵羊胚胎中心投入生产。设立全区首个市（地）级藏香猪资源开发利用研究所。全年获证“三品一标”企业4家，产品认证20个。《昌都市清洁能源中长期发展规划（2021-2035）》编制完成，金上、澜上、藏东南三个千万千瓦级清洁能源基地加快建设，苏洼龙水电站全部机组投产发电，叶巴滩、拉哇、巴塘、扎拉水电站主体工程加快建设，华电金上清洁能源基地330万千瓦光伏发电项目有序推进，今冬明春电力保供新建“14万千瓦+14万千瓦时光储”和19万千瓦时存量光伏增配储能项目有序推进，清洁能源建成装机182.08万千瓦、在建装机944.5万千瓦。新增限上企业3家、外贸企业5家，水泥、氧化镁、铜金属、啤酒、天然饮用水、藏药年产量分别达255万吨、12.5万吨、11.8万吨、2.38万吨、1.5万吨、50吨，市级及丁青等7县电子商务公共服务中心投入运营。昌都新区新增注册企业150家，实现营业收入100亿元，完成入库税收6.5亿元（含留抵退税）。恩威医药挂牌上市深交所创业板。“引客入昌”工作持续推进，然乌湖创4A景区基本完成，芒康古盐田创5A景区稳步推进，全年接待旅游总人数166.96万人次、实现收入13.69亿元。', '——乡村振兴持续推进。持续跟踪“三类人口”和“三保障”巩固情况，精准开展防返贫动态监测和帮扶，动态消除返贫致贫风险1845户8824人，守牢了不发生规模性返贫底线。三岩片区累计跨市搬迁1233户7764人。统筹整合财政涉农资金28.55亿元，实施乡村振兴项目328个，农村一二三产融合发展格局加快构建。八宿县拉根乡荞麦产业成功获批国家农业产业强镇项目，卡若区嘎玛乡获评全国“一村一品”示范村镇，洛隆县俄西乡纳入全区申报国家级农业现代化示范区储备清单，芒康县自治区级农业产业园成功创建，市农业技术推广总站申报的“西藏青稞绿色高效创建与示范项目”荣获2019-2021年度全国农牧渔业丰收成果三等奖。农牧业产业化龙头企业达26家、农牧民专业合作社达380家。实现标准化村级组织活动场所和村集体经济全覆盖。建设美丽宜居村庄30个，完成农村“厕所革命”户厕改造15610座、卫生户厕普及率达59%，清理农村生活垃圾2278吨、河道湖泊1956.41公里。芒康县及其余10县（区）美丽宜居村树立农牧民新风貌行动试点进展顺利。市县粮食储备任务全部完成。', '——改革开放持续深入。优化营商环境建设年行动深入实施，“放管服”改革扎实推进，知识产权量质齐升，市、县（区）两级行政许可事项清单编制完成，“证照分离”“一件事一次办”“跨省通办”有序推进，跨省异地评标如期实现，“全市通办”异地办理登记改革试点启动，公共资源交易全程电子化，“全国一张清单”市场准入负面清单制度全面落实，企业开办时间压缩至1.5个工作日，市场主体增长12.1%。拖欠民营和中小企业账款动态清零。成品油价格调整顺利完成。生态文明、司法体制改革不断深入，国资国企改革持续深化，农牧区、财税金融、社会保障、供销合作等各领域改革扎实推进。深入实施“招商引资百日攻坚”行动，积极参加“西洽会”“进博会”“中国品牌日”等活动，招商引资到位资金62.4亿元，完成全年目标任务的107.58%。第九、十批援藏干部人才顺利轮换，新增6家央企援助昌都，对口援昌升级加力。圆满完成尼泊尔驻拉萨总领事来昌公访外事活动，成功举办尼泊尔旅游推介会，双方传统友好关系进一步巩固。', '——生态环境持续优良。统筹山水林田湖草沙冰一体化保护和系统治理，深入开展澜沧江、怒江流域生态修复，扎实推进自然保护地建设，全面完成森林督查问题整改，大力实施国土绿化行动，完成营造林9.46万亩。坚决打好污染防治攻坚战，市“一江两河”污水散直排整治一期工程如期完成、整治污水直排口20个，市、县（区）污水处理率分别达90.68%和62.42%、垃圾处理率分别达99.44%和98.72%。全面落实河湖长制、林长制，蓝天、碧水、净土的良好环境持续巩固，全市空气质量优良率达100%，水环境质量达Ⅲ类及以上标准，土壤环境质量保持本底状态。积极配合和服务保障第二次青藏高原综合科学考察。昌都市创建国家生态文明高地规划编制完成，生态文明示范创建扎实开展，江达县获国家“第六批生态文明建设示范区”命名，第二轮中央生态环保督察问题整改深入推进，环保信息化建设有序实施，生态环境治理体系更加完善，监管效能有效提升，保护发展相得益彰，人与自然和谐共生，各族群众共创共享美好生态、宜居环境。', '——民生福祉持续增进。自治区“十大民生工程”和38项民生实事全面落实。组织化转移就业“县（区）长工程”深入实施，城镇新增就业7154人，高校毕业生总体就业率达95%，农牧民转移就业15.1万人、劳务创收13.56亿元。投资8.22亿元实施315个高海拔学校供暖工程，普通高中高考上线率93.47%、较去年提高5.04个百分点，义务教育巩固率96.96%。我市运动健儿在西藏自治区第十三届运动会暨第五届民族传统体育运动会上取得1金3银5铜的优异成绩，成功举办昌都市第一届全民运动会，全市公共体育场馆、学校体育场馆假期开放率100%。城乡公共文化服务体系一体化建设加快推进，文艺创作繁荣工程稳步实施，市图书馆公共服务标准化建设列入国家试点项目，市、县（区）融媒体中心智慧化建设有序推进，广播电视综合人口覆盖率分别达99.28%和99.44%。昌都市、丁青县入选2021-2023年第七届全国文明城市提名城市，昌都市及丁青、左贡、芒康、江达4县获评第五届自治区文明城市，察雅县被命名为自治区卫生县城，洛隆县康沙村，左贡县列达村、甲郎村、普卡村、格瓦村，类乌齐县达郭村、瓦日村，八宿县同尼村入选第六批中国传统村落名录。国家免疫规划稳步推进，公共卫生委员会实现建制村全覆盖，医联体建设深入实施，《昌都藏医药古籍文献精选集》编撰完成，藏医专病联盟和妇幼专科联盟作用不断凸显，孕产妇住院分娩率达96.14%，孕产妇、婴儿死亡率分别下降至27.28/10万、5.18‰，手术救治大骨节病患者334人、先心病患者29人。健康茶全面普及推广。新开工城镇棚户区改造4232户、公共租赁住房和干部职工周转房3924套、城镇老旧小区改造677户、农牧民危房改造8750户。根治欠薪专项行动持续开展，为1433名农民工追薪2960余万元。居家社区、医养融合养老“双试点”成功启动。全市首批10个社工服务站点落户卡若区。“12345”政务服务热线平台高效运转，办复群众诉求15541件。市、县（区）医保系统在线经办服务全覆盖，异地就医即时结算和医保关系转移接续跨市、跨省通办全面实现。全民参保登记成果不断巩固，五大保险参保率保持在95%以上。', '——疫情防控持续有力。面对突如其来的新冠肺炎疫情，坚持人民至上、生命至上，动员一切可以动员的力量，调动一切可以调动的资源，迅速打响疫情防控的人民战争、总体战、阻击战。积极充实核酸检测设备，单日核酸检测能力达7.3万管，采样后12小时内出结果率平均达到99%以上。建成方舱医院，购置移动CT、负压救护车等医疗设施设备31种，科学设立定点医院，设置床位2254张，有效保障救治需求。紧盯陆路和空中两条通道，发挥各卡点过滤网作用，严格落实首站远端管控、即采即走、查码、消毒、核酸检测、抗原检测等防控措施，严把关口防蔓延，严管通道防输入，严格管控防反弹，切实筑牢疫情防输入、防外溢、防反弹、防扩散堤坝，较短时间内实现社会面清零和动态清零。树牢抗疫“一盘棋”思想，第一时间对接援昌省市派出抗疫医疗队支援昌都，出色完成驰援日喀则市、拉萨市抗疫医疗任务。坚持防疫生产两手抓、两不误，以科学之策应对非常之难，全面落实稳经济一揽子及临时性政策措施，增值税留抵退税8.76亿元，全市国企减免房租5265.5万元，为市场主体延期还本付息2.1亿元、降低用电成本1586.9万元，大力推进各行业复工复产、复商复市，有序恢复正常生产生活秩序。', '各位代表！2022年，我们始终坚持党的全面领导，严格执行“三重一大”集体决策等制度，市政府党组向市委请示报告重大事项60个。深入推进党风廉政建设和反腐败斗争，全面贯彻“作风建设年”具体要求，扎实开展“学习二十大，政府‘是什么、干什么、怎么干’”学习实践活动，严格落实中央八项规定及其实施细则精神和区党委、市委有关规定，持续整治形式主义、官僚主义等突出问题，市政府及办公室发文数量减少8%、会议数量减少30%。坚定不移加强法治政府建设，积极推进政务公开，自觉接受人大法律监督和工作监督、政协民主监督、监委监察监督、社会舆论监督，强化统计监督、审计监督，办理代表建议94件、委员提案176件，办复率100%。树牢“政府过紧日子，群众过好日子”思想，开源节流、节用裕民，规范外出学习考察、公务接待等活动，“三公”经费下降5.6%。', '同时，我们全面加强档案、人防、消防、地震、气象、邮政管理、藏语言文字等工作，积极支持工会、共青团、妇联、残联、工商联等群团工作，凝聚了推进长治久安和高质量发展的强大合力。', '各位代表！成绩来之不易，这是以习近平同志为核心的党中央关心关怀的结果，是区党委、政府和市委正确领导的结果，是对口援昌省市企业无私援助的结果，是全市上下勠力同心、团结奋斗的结果。在此，我代表市人民政府，向付出辛勤劳动的全市各族干部群众，向对口援昌省市企业，向关心支持政府工作的人大代表、政协委员和广大离退休干部职工，向驻昌部队、武警官兵、消防指战员、公安干警，向关心支持昌都改革发展稳定事业的各界人士，表示衷心的感谢，并致以崇高的敬意！', '在总结成绩的同时，我们也清醒地认识到，全市经济社会发展还存在一些不容忽视的问题，主要表现在：受国际国内宏观环境影响和新冠疫情接连冲击，发展形势更加严峻复杂，经济下行压力进一步加大;有效投资持续放缓，消费增长后劲不足，产业和人才支撑能力不强;民生领域仍有不少短板，农牧民群众增收渠道不宽，促进城乡基本公共服务普惠共享仍需付出艰苦努力；少数干部作风不实、担当不足的现象仍然不同程度存在。对于这些问题，我们将采取更加有力有效的措施，认真加以解决。', '2023年是全面贯彻党的二十大精神的开局之年，是“十四五”规划承上启下的关键之年。全市政府系统将把学习贯彻党的二十大精神作为当前和今后一个时期的首要政治任务和头等大事要事，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，牢记“三个务必”，以时不我待、只争朝夕的干劲，广泛凝聚起奋进新征程、建功新时代的磅礴力量，不断开创昌都各项事业新局面。', '2023年政府工作的总体要求是：坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大和二十届一中全会及中央第七次西藏工作座谈会精神，深入贯彻习近平总书记关于西藏工作的重要指示和新时代党的治藏方略，按照区党委十届三次全会和市委二届八次全会的部署，特别是《中共昌都市委员会关于深入贯彻党的二十大和自治区党委十届三次全会精神 全面建设社会主义现代化新昌都的实施意见》《中共昌都市委员会 昌都市人民政府关于进一步提升基层治理体系和治理能力现代化水平的实施意见》《昌都市着力创建“三区一高地”规划（2022—2026年）》相关要求，弘扬伟大建党精神和“两路”精神、老西藏精神，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，正确把握安全与发展、物质与精神、经济建设与社会建设、经济发展与生态文明建设、效率与公平、保护传统与促进文明进步的关系，统筹疫情防控和经济社会发展，锚定“四件大事”“四个确保”，聚力“四个创建、四个走在前列”，着力在补短板、强弱项、固底板、扬优势上下功夫，持续深化“六稳”“六保”工作，保持经济运行在合理区间，推动经济社会高质量发展再上新台阶。', '2023年工作的主要预期目标是：地区生产总值增长8.5%左右（可比价），全社会固定资产投资增长12%以上，地方一般公共预算收入增长4%，城乡居民人均可支配收入分别增长10%、13%，社会消费品零售总额增长10%，居民消费价格涨幅控制在3%以内，城镇调查失业率控制在5%以内，能耗、碳排放强度和污染减排指标控制在国家核定范围内。', '上述目标的设定，与宏观经济环境、中央政策取向、自治区发展战略和全市实际相适应，符合社会预期和群众期待。其中，确定经济增长8.5%左右的目标，主要是考虑保持经济合理运行的需要，同时也能够支撑新增就业和居民收入目标，有利于调动各方面的积极性，推动绿色高质量发展。强化生态环保指标约束，旨在推动结构转型升级、新旧动能转换，协同推进高质量发展和高水平保护。这些指标经过综合考量和多方论证，既实事求是，又积极进取，若不发生重大条件改变，通过努力就完全能够实现。', '完成全年主要目标任务，我们将始终坚持党的领导，不断提高“政治三力”、时刻胸怀“两个大局”，坚决贯彻落实党中央、区党委、市委的部署要求，将“三个赋予一个有利于”贯穿政府工作各方面全过程，紧紧围绕在“四个创建、四个走在前列”中走在前、做表率，增强忧患意识，借机借势借力，从“国之大者、区之要情、市之重点”谋划推进经济社会发展各项工作。我们将始终坚持稳中求进，稳字当头、稳字为先，顶压前行、跳起摸高，统筹发展和安全，聚焦主要矛盾和特殊矛盾，积极融入国家和自治区发展战略，坚持问题导向、目标导向、结果导向，全面做好“六稳”“六保”工作，及时回应社会关切，引导形成稳定预期。我们将始终坚持人民至上，树牢以人民为中心的发展思想，紧紧依靠人民群众，积极主动开展工作，坚决维护人民利益，持续增进民生福祉，在幼有所育、学有所教、劳有所得、病有所医、老有所养、住有所居、弱有所扶上持续用力，着力解决人民群众急难愁盼问题，让现代化建设成果更多更公平惠及全体人民。我们将始终坚持改革创新，紧跟时代步伐，顺应实践发展，坚定不移深化改革、推动创新、扩大开放，着力破解深层次体制机制障碍，积极营造良好创新创业环境，努力提升创新能力和落实效率，聚力塑造发展新动能新优势，让经济社会发展越来越有活力。', '2023年经济社会发展任务重、挑战多、要求高。我们将突出重点、把握关键，着力抓好以下工作。', '加强交通基础设施建设。加快G318提质改造、川藏铁路配套公路、夏贡拉山隧道、觉巴山隧道等重点项目建设，开工建设G318重点路段整治改建（然乌过境段）、澜沧江沿江公路（如美至曲孜卡段）。实施55个农村公路建制村通畅项目。加快茶马公路规划报批。加快推进S204洛隆至波密断头路规划建设。争取G0613线昌都至邦达机场新改建工程纳入交通运输部“十四五”中期调整规划。', '加强水利基础设施建设。加快推动昂曲宗通卡水利枢纽工程前期工作。稳步推进弄利措水库和洛隆县马利镇、芒康县盐井乡灌区（扎西永顶片区）建设。开工建设洛隆县硕督镇山洪沟治理项目。持续开展中小河流治理。认真落实“三个责任、三项制度”，扎实抓好农村供水工程维修养护和改造升级。', '加强电力基础设施建设。开工建设220千伏昌都西输变电工程、110千伏通夏输变电工程和尺牍输变电工程，扩建洛隆110千伏变电站，新建芒康索多西35千伏输变电工程，增容改造35千伏丁青塔西、那通变电站，完成11项10千伏及以下中低压配电工程，持续推动电网改造升级，力争主电网人口覆盖率达97.46%。', '加强通信基础设施建设。加快推进农牧区通信消盲，实施好电信普遍服务（八批、九批）及川藏铁路（昌都段）通信保障（三期）项目，提升国省道沿线通信覆盖率，推动4G信号向20户以上自然村延伸。促进城镇通信技术演进升级，启动低频5G“打底网”建设，加快老旧小区千兆光纤接入能力建设。', '大力发展清洁能源产业。积极打造金上、澜上、藏东南水风光储一体化清洁能源基地，加快推进叶巴滩、拉哇、扎拉等水电站建设，力争巴塘水电站年内实现首台机组投产发电，确保如美、昌波水电站按期完成项目核准并开工建设。加快芒康昂多、贡觉拉妥水光互补光伏项目建设，科学谋划金上水光互补一体化70万千瓦光伏项目前期工作。加强与国家、自治区相关部门沟通衔接，力争金上清洁能源基地送出工程早日开工建设。筹备召开全市清洁能源大会。', '大力发展绿色工业。加快推进玉龙铜矿、卡玛多菱镁矿、海通新型干法熟料生产线等续建项目，启动实施新型干法水泥生产线（二线）配套项目，力争全年完成工业固定资产投资4.34亿元。完善建材产业体系，加快水泥企业提质增效。推动天然饮用水品牌做大做响。推进藏医药传承发展，做大做强藏医药产业。加强工业企业运行调度，全年生产水泥265万吨、氧化镁26万吨、铜金属11.9万吨、啤酒2.5万吨、天然饮用水1.65万吨、藏药60吨。', '大力发展文化旅游产业。坚持以文塑旅、以旅彰文，加强“文创昌都”品牌建设。推动唐卡、藏香等手工艺和昌都锅庄、丁青热巴、芒康弦子、香堆藏戏、边坝格萨尔等文化遗产保护传承。研究编制长江国家文化公园（昌都段）实施方案和建设保护规划。加强“旅游+”“+旅游”旅游产品开发，努力拓展旅游产业链，全年完成旅游接待178万人次，实现旅游收入14.5亿元。', '大力发展高原生物产业。围绕“五大养殖、七大种植”基地建设，统筹发展牦牛、阿旺绵羊、藏猪、葡萄、芫根等优势主导产业，开展葡萄、牦牛优势特色产业集群申报，推动芒康现代农业产业园申报国家级产业园，加快青稞白酒产业项目落地。青稞播种面积稳定在56万亩以上、产量稳定在16.62万吨以上。阿旺绵羊、牦牛、藏猪存栏量分别保持在36万只、159万头、16万头以上，并加大出栏力度。积极培育新型农牧业经营主体，力争农牧民专业合作社达到400家。', '大力发展商贸物流产业。启动集中采购和跨区域配送冷链物流集散中心项目，加快电子商务进农村综合示范建设，推动品牌连锁便利店发展，推进偏远乡（镇）加油站、果蔬配送网点建设，完善县域商贸流通体系。抓好消费扩容提质，促进线上线下消费融合发展。持续优化消费环境，全面提升安全消费水平。', '大力发展数字经济。加快云计算大数据中心（系统部分）实施，推动行业部门业务系统逐步迁移上云，统筹全市政务信息化项目建设运维，整合全社会各领域数据资源，不断提升“智慧昌都”覆盖广度和深度。实施重点工业企业数字化改造，拓展“5G+数字矿山”应用，培育全区产业数字化转型骨干企业。', '扎实推进新型城镇化建设。深入实施区域协调发展战略，聚焦副中心城市建设，积极融入全区“一核一圈两带三区”发展格局。统筹农业、生态、城镇空间，科学开展“三线划定”及“一张图”编制，按期保质保量完成全市国土空间总体规划编制。加快编制昌都市老旧小区保护和改造、海绵城市建设、城市排水、城市节水等4项规划，积极申报海绵城市。推进以人为核心、以县城为重要载体的新型城镇化建设，大力实施“县域突破”战略，加快推进城市更新行动，实施类乌齐县城供暖、四川桥改扩建工程，推进江达县新城区等4个城镇供水和左贡县等4个城市排水防涝设施建设，谋划推进县城、乡（镇）生活污水、垃圾无害化处理设施建设，新建公共租赁住房660套、棚户区改造6704户。完善城市功能，提升城市品质，精细化开展城市管理，努力打造“让本地人喜欢、外地人向往”的高原特色城市。', '扎实推进乡村振兴。持续巩固拓展脱贫攻坚成果，严格落实“四个不摘”要求，切实抓好防返贫动态监测和帮扶，全面落实控辍保学、基本医疗、大病保险、医疗救助等政策措施，不断补齐“水电路讯网、科教文卫保”十项提升工程短板弱项，积极稳妥推进三岩片区跨市搬迁。持续扶持特色产业发展，稳步提升乡村振兴衔接资金用于产业发展比例，加快推进类乌齐县扶贫产业项目提档升级先行试点工作。持续推进乡村建设行动，积极打造少数民族特色村寨，加快编制“多规合一”实用性村庄规划，推进农房质量提升，力争全年建成40个美丽宜居村庄，农村畜禽粪污、秸秆综合利用率和农膜回收率分别保持在92%、95%、87%以上，改造户厕1.5万座，健全树立农牧民新风貌长效机制，推进农牧民文明素质提升常态化、长效化。加强农牧民技能培训和“以工代训”，推动农牧民施工企业承建政府投资项目，拓宽农牧民增收致富渠道，不断缩小城乡居民收入差距，扎实推进共同富裕。', '深化重点领域改革。持续推进“放管服”改革，提升西南五省“跨省通办”承接能力，扩大“一件事一次办”覆盖面，全面落实减税降费政策，不断创优营商环境，确保市场主体增长6.5%以上。推动公共资源交易平台整合共享，做到“应进必进”，实现“平台之外无交易”。建立健全远程异地评标系统，常态化开展跨省异地评标。深化国资国企改革，优化国企管理体制，确保国有资产保值增值。积极推动农村“三变”改革，深入开展农牧民专业合作社“空壳社”清理。深化农村公路管理养护体制改革试点，不断提高“建、管、养、运”水平。推进供销合作社改革，发展社属企业，培育供销基层社。深化绩效预算、零基预算、预算管理一体化财政综合改革。加强政银企合作，不断提高中小微企业贷款可得性。', '深化创新驱动发展。完善科技协作、科技创新、科技管理体制机制。推动“双创”载体提质增效，布局建设高水平创新创业研究平台。力争全年培育高新技术企业2家、科技型中小企业20家。大力发展以昌都新区为龙头的园区经济，推动昌都新区创建国家级高新区，力争全年新区新增企业80家，实现税收6.5亿元。加强科技人才培养，多渠道多层次柔性引进科技领军人才，多措施多方式培养乡土科技人才。继续配合做好第二次青藏高原综合科学考察，推进昌都市高山峡谷野外综合观测站建设。加强科技普及，提高全民科学素质。', '深化区域开放合作。依托川藏铁路沿线经济带和藏东清洁能源开发区建设，加强与四川甘孜、云南迪庆等毗邻地区开展清洁能源、文化旅游、商贸物流等方面的交流合作。坚持“走出去，请进来”相结合，灵活运用线上“云招商”“屏对屏”招商、展会平台招商、“小分队”招商、以商招商等多种方式，精准招商、定向发力，全力推动华润雪花啤酒厂、中国水电四局清洁能源装备制造基地、渝昌工人文化宫、闽昌双创综合体等重点招商项目落地，确保完成自治区下达的招商引资目标任务。创新援藏方式，丰富援藏内涵，健全援藏机制，拓宽援藏领域，扎实推进智力援藏、产业援藏、就业援藏、民生援藏等，加快构建全方位、多层次、宽领域的援藏工作格局。立足共建“友好城市”，推动与尼泊尔吉日市深层次务实交流合作。', '严格生态保护。深入推进河湖长制、林长制。科学开展国土绿化行动，实施营造林15万亩以上，草原修复7万亩。编制新一轮林地保护利用规划。持续开展林草生态综合监测。推进类乌齐马鹿国家级自然保护区能力建设。扎实抓好森林草原防灭火。加强生物多样性保护和监管，严防外来物种入侵，构建安全生物链。有序推进矿山地质环境恢复治理。深入推进农村乱占耕地建房问题专项整治。持续巩固国家生态文明建设示范市创建成果，积极开展县（区）、乡（镇）、村（居）生态文明建设示范创建，全力推动国家生态文明高地项目建设和指标达标。', '强化污染防治。紧紧围绕大气、水、土壤三大领域，积极实施水源保护区清理整治专项行动和江河源保护“三大行动九大工程”，持续打好“七大标志性战役”。严格实施环境保护“一票否决”制，保持“三高”企业和项目零引进、零审批。实行“双随机、一公开”监管机制，依法严厉打击破坏生态环境的违法违规行为。持续抓好第二轮中央生态环保督察问题整改。加快智慧环保建设，优化监测监管机构，科学开展环境监测，确保藏东大地青山常在、绿水长流、空气常新。', '推进绿色发展。围绕“碳达峰”“碳中和”目标，深入研究碳汇经济、生态经济，探索发展生态产业。全面落实草原、自然保护区、森林等生态补偿政策，稳定提高群众从生态建设中获得的直接收益。统筹“绿起来”和“富起来”，引导和组织群众通过参与生态项目建设、务工就业、资源入股等方式增加收入，把绿水青山、冰天雪地的“颜值”转化为金山银山的“价值”。持续加强生态文明宣传教育，广泛开展生活垃圾分类处理，引导群众形成简约适度、绿色低碳、文明健康的消费模式和生活方式。', '突出就业优先。实施更加积极的就业政策，建立更加普惠的公共就业服务体系，加强就业创业服务信息化建设，多渠道开发就业岗位，全方位搭建供需平台，推动各类群体实现更高质量和更加充分就业，实现城镇新增就业7000人以上，应届高校毕业生就业率保持在98%以上，农牧民转移就业12万人以上、劳务增收10亿元以上。', '推动教育发展。落实立德树人根本任务，强化思政教育，建强教师队伍，继续推动教育组团式援藏，持续巩固师德师风专项教育整治成果。加强信息化建设，深化教育改革，巩固控辍保学成果，推动县域义务教育从基本均衡迈向优质均衡，推进学前教育普及普惠发展，推动普通高中教育特色化多样化发展，实施职业教育提质培优计划，发展特殊教育。持续推进全市高海拔学校供暖工程，加快拉萨昌都完全中学建设。完善全民健身公共服务体系，广泛开展普及性体育运动。', '提高健康水平。深入实施健康昌都“三大工程”。加快推进市公共卫生救治中心（市传染病医院）、市藏医院自治区区域医疗中心建设。大力实施“两癌”、出生缺陷干预等妇幼健康项目，巩固提升“两降一升”成果。充分发挥组团式医疗援藏优势，建强市人民医院“五大中心”。深化“三医”改革，建好医联体、医共体。持续做好大骨节病、儿童先心病救治。扎实开展13-14岁在校女生HPV疫苗、60岁以上老年人和在校中小学生流感疫苗免费自愿接种。加强疫情期间干部群众心理疏导，切实维护干部群众身心健康。', '繁荣公共文化。启动实施市图书馆公共服务标准化建设国家试点项目。有序推进县级图书馆总分馆制建设，持续开展自治区公共文化服务体系示范县创建。加快推动《昌都市红色遗址保护条例》立法。提档升级市博物馆、革命历史博物馆数字化建设。编撰完成《昌都红色故事口述史》《昌都红色遗迹文物资料汇编》。推动平安文化市场创建。推进广电、融媒体等事业发展。筹办好昌都市第九届三江茶马文化艺术节。', '兜实社保底线。坚持尽力而为、量力而行，加强低保和特困人员认定、低收入人口动态管理、困境未成年人救助保护，建立农村困境儿童、留守老人等困难群众定期探访制度，完善养老服务体系，培育和规范社会组织，推动慈善社工事业发展，探索建立医保报销“不见面办理”模式，持续做好五大保险征缴，织密织牢社会保障网络。', '抓牢疫情防控。坚持人民至上、生命至上，认真落实中央、自治区关于疫情防控各项措施，压实“四方责任”，抓实重点领域、重点部位、重点人员和医疗机构管理，因时因势优化完善调整防控措施，提高疫情防控精准性。规范设置昌都市疫情防控定点救治医院。加强一线抗疫专业技术人才梯队建设。完善应急处置预案，加强应急演练，提升应急响应能力。广泛开展爱国卫生运动，持续加强防疫知识宣传教育，巩固好疫情防控成果。', '维护国家安全。树牢总体国家安全观，增强忧患意识、风险意识，坚决维护祖国统一和社会稳定。深入开展反分裂斗争，依法严厉打击各种分裂渗透破坏活动。巩固深化全国民族团结进步示范市创建成果，持续加强国家通用语言文字推广普及，以铸牢中华民族共同体意识为主线，扎实推进全国民族团结进步模范区创建。坚持藏传佛教中国化方向，以“五个有利于”为标准，依法加强宗教事务管理，广泛开展“三个意识”教育，常态化推进“遵行四条标准 争做先进僧尼”教育实践活动，积极引导宗教与社会主义社会相适应。树牢大边疆、大边防意识，加快推进青川滇三省经昌都边防大通道项目申报建设，积极动员有意愿搬迁的群众抵边搬迁。全力支持国防建设，深入开展拥军优属、军民共建活动，推动军民深度融合发展，持续巩固军政军民团结的良好局面。', '确保经济安全。加强经济安全风险预警、防控机制和能力建设，确保重要产业、基础设施等关键领域安全可控。落实最严格的耕地保护制度，严守耕地红线。坚决扛起粮食安全的政治责任，保证粮食种植面积，保护种质资源，稳定粮食产量。严防严控金融风险，将不良贷款率控制在合理区间，有效应对企业债务违约、工资拖欠等风险，妥善化解政府隐性债务，深入开展防范和化解拖欠中小企业账款专项行动，坚决守住不发生系统性风险底线。', '强化公共安全。严格落实安全生产责任制和15条硬措施，健全应急管理体系，强化应急队伍建设，抓好自然灾害防范，加强地震监测预报预警，推动藏东应急救援中心尽早开工。深入开展道路交通、非煤矿山、森林草原、建筑、消防、寄递物流、危险化学品、特种设备等重大项目施工建设行业领域专项整治，强化校园安全治理，坚决遏制重特大安全事故发生。加强食品药品监管，守护好人民群众“舌尖上的安全”。', '深化平安建设。不断完善社会治理体制机制，进一步织密城乡社会治理网络。强化现代科技支撑，完善立体化社会治安防控体系。常态化开展扫黑除恶，依法严厉打击各类违法犯罪活动。妥善处置回迁安置历史遗留问题，依法有序推进昌都城区拆迁群众临时过渡安置住房清退。坚持和发展新时代“枫桥经验”，加强矛盾纠纷预防化解，持续开展拖欠农民工工资、征地拆迁、环境污染等重点领域专项排查，形成解决信访突出问题的合力。', '加强政治建设。以政治建设为统领，深入学习贯彻党的二十大精神，全面推进政府系统党的建设。坚持用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，常态化长效化开展党史学习教育，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚决确保党中央大政方针、自治区重大部署和市委各项工作要求不折不扣落实到位。', '加强法治建设。忠实履行宪法法律赋予的职责，严格按照法定权限和法定程序行使权力，自觉运用法治思维和法治方式推动工作。依法接受人大及其常委会的法律监督和工作监督，落实好人大的决定决议，加大地方性法规和政府规章的立法力度，自觉接受政协民主监督，高质量办好人大代表建议和政协委员提案，高度重视监察监督、巡视巡察监督、审计监督、社会监督和舆论监督。坚持法治昌都、法治政府、法治社会一体建设，深入推进“八五”普法，严格落实法律顾问、重大决策咨询论证听证等制度，提高政府决策科学化、民主化、法治化水平。', '加强作风建设。大力弘扬伟大建党精神，传承发扬“两路”精神和老西藏精神，坚决破除形式主义、官僚主义，持续精文简会，规范督查考核，切实为基层减负。把抓落实作为政府工作的生命线，推行“一线工作法”，对重大决策、重点项目、重要工作挂图作战，确保件件有着落、事事有回音。牢固树立政府过紧日子思想，优化压减“三公”经费支出，坚决把每一笔钱用在刀刃上、紧要处。', '加强廉政建设。坚定落实全面从严治党要求，严格履行“一岗双责”。深入贯彻落实中央八项规定及其实施细则精神，严肃查处为官不为、懒政怠政行为，坚决同各种消极腐败现象作斗争。强化制度建设，防控廉政风险，严惩重大工程、重点领域、关键岗位和群众身边腐败问题，让干部清正、政府清廉、政治清明成为政府的鲜明底色。', '各位代表！新时代画卷气吞山河，新征程号角催人奋进。让我们更加紧密地团结在以习近平同志为核心的党中央周围，坚持以习近平新时代中国特色社会主义思想为指导，在区党委、政府和市委的正确领导下，全面贯彻新时代党的治藏方略，不忘初心、牢记使命，踔厉奋发、笃行不怠，为谱写好中国式现代化昌都新篇章而不懈奋斗！', '5.自治区“十大民生工程”：促进就业增收、办好人民满意教育、提高卫生健康水平、丰富文化生活、加强安居保障、增进扶老育幼、完善帮扶救助、强化安全生产、兜牢民生底线。', '8.“三公”经费：政府部门人员因公出国（境）费用、公务接待费、公务用车购置和运行维护费。', '9.三个务必：务必不忘初心、牢记使命，务必谦虚谨慎、艰苦奋斗，务必敢于斗争、善于斗争。', '13.四个确保：确保国家安全和长治久安，确保人民生活水平不断提高，确保生态环境良好，确保边防巩固和边境安全。', '14.四个创建、四个走在前列：着力创建全国民族团结进步模范区、努力做到民族团结进步走在全国前列；着力创建高原经济高质量发展先行区、努力做到高原经济高质量发展走在全国前列；着力创建国家生态文明高地、努力做到生态文明建设走在全国前列；着力创建固边兴边富民行动示范区、努力做到固边兴边富民行动走在全国前列。', '16.六保：保居民就业、保基本民生、保市场主体、保粮食能源安全、保产业链供应链稳定、保基层运转。', '19.三个赋予一个有利于：所有的发展都要赋予民族团结进步的意义，都要赋予维护祖国统一、反对分裂的意义，都要赋予改善民生、凝聚人心的意义，都要有利于提升各族群众的幸福感、获得感、安全感。', '20.三个责任、三项制度：地方人民政府主体责任、水行政主管部门行业监管责任、供水管理单位运行管理责任；农村饮水安全工程运行管理机构、运行管理办法、运行管理经费。', '23.全区“一核一圈两带三区”发展格局：拉萨核心增长极；以拉萨为中心，辐射日喀则、山南、林芝、那曲的三小时经济圈；边境沿线发展带、铁路经济带；藏中南重点开发区、藏东清洁能源开发区、藏西北生态涵养区。', '25.一张图：以一张底图为基础，涵盖国土空间规划“五级三类”规划体系成果，形成可层层叠加打开的“一张图”，为统一国土空间用途管制、实施建设项目规划许可、强化规划实施监督提供依据和支撑。', '27.“多规合一”实用性村庄规划：整合村土地利用规划、村庄建设规划等乡村规划，实现土地利用规划、城乡规划等有机融合，编制“多规合一”的实用性村庄规划。', '30.江河源保护“三大行动九大工程”：为全面加强江河源保护，开展管护行动、强基行动、提能行动，实施自然保护地建设工程、重点生态功能区保护工程、山水林田湖草沙冰系统治理工程、生态环境综合管理工程、科考调查基础工程、宣传教育基础工程、政策支撑能力提升工程、监测分析能力提升工程、监督管理能力提升工程。', '31.七大标志性战役：柴油车污染治理攻坚战、饮用水水源地保护攻坚战、江河源保护攻坚战、重点流域综合治理攻坚战、农业农村污染治理攻坚战、白色污染治理攻坚战、环境基础设施提质增效攻坚战。', '33.双随机、一公开：在监管过程中随机抽取检查对象，随机选派执法检查人员，抽查情况及查处结果及时向社会公开。', '34.健康昌都“三大工程”：健康昌都保障工程、优质医疗资源扩容下沉工程、医疗卫生人才培养工程。', '35.两癌：针对危害女性健康的宫颈癌和乳腺癌开展的检查手段，以期做到早诊断、早发现、早预防、早治疗。', '37.市人民医院“五大中心”：胸痛中心、卒中中心、创伤中心、危重症孕产妇救治中心、危重儿童和新生儿救治中心。', '40.五个有利于：有利于维护祖国统一和社会稳定，有利于增进“五个认同”，有利于团结宗教界人士和信教群众，有利于藏传佛教健康传承，有利于减轻信教群众负担。', '42.两个确立：党确立习近平同志党中央的核心、全党的核心地位，确立习近平新时代中国特色社会主义思想的指导地位。', '45.两个维护：坚决维护习近平总书记党中央的核心、全党的核心地位，坚决维护党中央权威和集中统一领导。', '46.一岗双责：各级干部在履行本职岗位管理职责的同时，还要对所在单位和分管工作领域的党风廉政建设负责。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>261</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>昌都市财政局年度部门决算公开</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2016-09-26</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103283/201609/bf263d68257b4066be02e3a307ee9a99.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['(一)贯彻执行国家、自治区财政税收有关方针政策和法律法规，拟订全地区财税发展规划和改革方案并组织实施，分析预测宏观经济形势，组织拟订全地区宏观经济政策，提出运用财税政策宏观调控和综合平衡社会财力的建议，贯彻执行鼓励公益事业发展的财税政策；贯彻执行财政、财务、会计管理地方性法规。', '(二)承担全地区各项财政收支管理工作，并指导地区各级财政做好相关工作；负责编制全地区年度预决算草案并组织执行，向地委、行署报告全地区预算及执行情况，并报告决算。组织拟订地区部门经费开支标准、定额，负责审核批复地区各部门(单位)的年度决算；负责完善地区对各县、乡(镇)财政管理体制和转移支付制度，促进基层政府公共服务均等化。', '(三)负责政府非税收入管理，负责政府性基金管理，按规定管理行政事业性收费；管理财政票据；贯彻执行彩票管理制度和办法，监管彩票市场，按规定管理彩票资金。', '(四)组织实施国库管理制度、国库集中收付制度，指导和监督地区国库业务，按规定开展国库现金管理工作；贯彻执行政府采购制度并监督管理；根据全地区信息化建设战略，拟订财政信息化建设中长期规划，规范管理全地区财政信息化建设。', '(六)负责拟订全地区行政事业单位国有资产管理规章制度，按规定管理行政事业单位国有资产；拟订需要全地区统一规定的开支标准和支出措施，负责财政预算内行政机关、事业单位和社会团体非贸易外汇和财政预算内的国际收支管理。', '(七)负责审核和汇总编制全地区国有资本经营预决算草案，监督执行国有资本经营预算的制度和方法，收取地区本级企业国有资本收益；指导各县国有资本经营预算工作，组织实施企业财务制度，按规定权限管理金融类企业国有资产，参与拟订国有企业管理相关制度，按规定做好管理资产评估工作。', '(八)负责办理和监督地区财政的经济发展支出、地区政府性投资项目的财政拨款，贯彻执行建设投资的有关政策；制定基本建设财务制度，负责有关政策性补贴和专项储备资金财政管理工作；负责地区农牧业综合开发资金管理工作，参与农牧业综合开发项目相关工作。', '(九)贯彻执行社会保险相关政策；会同有关部门拟订社保障资金(基金)的财务管理制度，管理全地区相关的财政社会保障资金、就业及医疗卫生专项资金支出，编制、审核全地区社会保障预决算草案，承担社会保险基金财政监管工作。', '(十)按照上级财政部门制定的地方债务计划，拟订和执行全地区债务管理办法，加强债务管理，防范财政风险。', '(十一)负责管理全地区会计工作，监督和规范会计行为，组织实施国家统一的会计准则制度，指导和监督注册会计师、会计师事务所的业务，指导和管理社会审计；办理相关行政许可事项的审批和注册备案工作。', '(十二)拟订全地区财政监督检查制度和办法；监督检查财税法规、政策的执行情况，反映财政收支管理中的重大问题；代行自治区财政厅委托的部分财政监督管理职能。', '昌都市财政局内设正科级机构12个分别为：办公室(纪检监察室)、综合科(民生政策资金监管科)、预算科(文教科)、国库科(网络管理科)、行政政法科、经济建设科、农业科、社会保障科、企业科、监督检查科、协调办公室、金融科；内设事业机构4个,分别为:政府采购办公室、财政投资评审中心、财政国库集中支付中心、资产评估事务所。共有行政编制32名，事业编制31名。目前在职职工63(含援藏干部1人)，离退休职工12人。', '1.因公出国(境)及外出学习考察方面。我局本着“厉行节约、反对浪费”的原则，严格控制公务接待和因公出国(境)，不存在用公款出国(境)旅游、公款支付应由个人负担费用的情况，2015年未产生因公出国(境)经费。', '1.基本支出，包括两部分；一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。', '2.一般行政管理项目支出，包括招待费、会议费、购置费(包括设备、计算机等)、专用材料费、干部培训费、信息网络运行维护费等用于一般行政管理事务方面的项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>261</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>昌都市发展和改革委员会年度部门决算公开</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2016-09-26</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103259/201609/98bbdb7d184f424dbc6e80912481184a.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['(一)贯彻执行国家、自治区发展和改革委战略规划，拟订并组织实施我市国民经济和社会发展的中长期规划和年度计划；统筹协调经济社会发展，研究分析区内外经济形势，研究提出昌都国民经济发展、价格总水平调控和优化重大经济结构的目标、措施，提出综合运用各种经济手段和政策的建议；衔接、平衡各行业的行业规划。受市人民政府委托向市人大报告我市国民经济和社会发展年度计划和相关措施。', '(二)负责监测宏观经济和社会引导的责任，发展态势，承担预测预警和信息引导的责任，研究宏观经济运行、总量平衡、全市经济安全和总体产业安全等重要问题并及时提出对策建议；负责日常经济运行的调节；协调解决经济运行中的重大问题；负责组织重要物资的紧急调度和协调。', '(三)负责汇总分析财政、金融等方面的情况；指导监督检查价格政策的执行，严格重要商品价格与重点收费标准；依法查处价格违法行为和价格垄断行为等。负责市场价格的统计监测工作；行使市内依法扣押、没收、追缴物品的价格认证工作；监控物价总体水平，管理指导物价工作。', '(四)承担指导推进和综合协调经济体制改革的责任，会同有关部门搞好重要专项经济体制改革之间的衔接，承担经济体制改革试点的工作。', '(五)承担规划重大建设项目和生产力布局的责任，拟订全社会固定资产投资总规模和投资结构的调控目标及措施，衔接平衡申请国家及自治区建设资金投资和涉及重大建设项目的专项规划。按国家和自治区的规定做好我市重大建设项目、重大外资项目、重大社会投资项目、境外资源开发类重大投资项目和大额用汇投资项目的申报工作。指导和监督政策性贷款建设资金的使用，引导民间投资方向，研究提出利用外资、社会投资和境外投资的总量平衡和结构优化的目标和政策建议。组织开展重大建设项目稽察。指导工程咨询业发展。按规定指导、协调、管理全市招投标工作。负责协调衔接对口援藏建设项目规划和年度计划。', '(六)研究提出经济结构战略性调整的建议。协调第一、二、三产业发展问题并衔接平衡相关发展规划，做好与国民经济和社会发展规划、计划的衔接平衡；协调农牧区和农牧区经济社会发展的问题；会同有关部门拟订服务业发展规划并提出政策建议，拟订现代物流业发展规划；协调解决重大技术装备推广应用等方面的问题。', '(七)组织相关部门实施区域协调发展及实施西部大开发战略的规划和政策措施；提出新型城镇化发展政策建议，引导和促进区域经济协调发展。', '(八)承担重要商品总量平衡和宏观调控责任；编制重要农畜产品、工业品和原材料进出口总量计划并监督执行；根据情况对经济运行情况对进出口总量计划进行调整；拟订全市战略物资储备规划，负责组织战略物资的收储、动用、轮换和管理；会同有关部门指导管理粮食、石油和药品等重要物资和商品的储备。', '(九)负责国民经济发展与社会发展的衔接平衡，组织拟订社会发展总体规划和年度计划；参与拟订人口和计划生育、科学技术、教育、文化、卫生、民政等发展政策建议，推进社会事业建设；研究提出促进就业、调整收入分配、完善社会保障与经济协调发展的政策建议，协调社会事业发展和改革中的重大问题及政策。', '(十)拟订可持续发展规划，负责节能减排的综合协调工作；组织拟订发展循环经济、全社会能源资源节约和综合利用规划及政策措施并协调实施；参与编制生态建设、环境保护规划，协调生态建设、能源资源节约和综合利用的重大问题，综合协调环保产业和清洁生产促进有关工作。', '(十一)负责能源的行业管理；提出能源，发展政策建议；组织实施能源发展规划、产业政策，衔接能源生产建设和供需平衡，协调能源发展和改革问题；指导、协调农村能源发展工作；负责能源行业节能和资源综合利用，指导能源科技进步。', '昌都市发展和改革委员会内设正科级机构10个分别为：办公室(纪检监察室)、国民经济综合科(市国防经济动员办公室、市西部大开发办公室)、固定资产投资科、农村经济科(经济贸易科)、基础产业科(产业协调科)、社会发展科、物价局、发展规划与经济体制改革科、能源资源科(市能源办公室、应对气候变化科)、基本建设管理科(市重点项目建设协调办公室、市重大建设项目稽查特派员办公室)；内设事业机构6个,分别为:项目协调管理中心(市发改委驻拉萨工作站)、市经济信息中心、市价格监测中心(市价格认证中心)、市铁路办、市受援办。共有行政编制31名，事业编制32名，工勤人员5名。目前在职职工61(含援藏干部2人)，离退休职工15人，县级干部8人，科级干部33人(含副科)，一般干部13人，高级工工人7人。', '1.因公出国(境)及外出学习考察方面。我委本着“厉行节约、反对浪费”的原则，严格控制公务接待和因公出国(境)，不存在用公款出国(境)旅游、公款支付应由个人负担费用的情况，2015年未产生因公出国(境)经费。', '1.基本支出，包括两部分；一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。', '2.一般行政管理项目支出，包括招待费、会议费、购置费(包括设备、计算机等)、专用材料费、干部培训费、信息网络运行维护费等用于一般行政管理事务方面的项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>261</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>昌都市财政局年度部门决算</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2018-09-14</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103283/201809/ca4065c204404187a6ca269bd88e1b94.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['(一)贯彻执行国家、自治区财政税收有关方针政策和法律法规，拟订全市财税发展规划和改革方案并组织实施，分析预测宏观经济形势，组织拟订全市宏观经济政策，提出运用财税政策宏观调控和综合平衡社会财力的建议，贯彻执行鼓励公益事业发展的财税政策；贯彻执行财政、财务、会计管理地方性法规。', '(二)承担全市各项财政收支管理工作，并指导市各级财政做好相关工作；负责编制全市年度预决算草案并组织执行，向市委、市政府报告全市预算及执行情况，并报告决算。组织拟订市部门经费开支标准、定额，负责审核批复市各部门(单位)的年度决算；负责完善市对各县、乡(镇)财政管理体制和转移支付制度，促进基层政府公共服务均等化。', '(三)负责政府非税收入管理，负责政府性基金管理，按规定管理行政事业性收费；管理财政票据；贯彻执行彩票管理制度和办法，监管彩票市场，按规定管理彩票资金。', '(四)组织实施国库管理制度、国库集中收付制度，指导和监督地区国库业务，按规定开展国库现金管理工作；贯彻执行政府采购制度并监督管理；根据全市信息化建设战略，拟订财政信息化建设中长期规划，规范管理全市财政信息化建设。', '(六)负责拟订全市行政事业单位国有资产管理规章制度，按规定管理行政事业单位国有资产；拟订需要全市统一规定的开支标准和支出措施，负责财政预算内行政机关、事业单位和社会团体非贸易外汇和财政预算内的国际收支管理。', '(七)负责审核和汇总编制全市国有资本经营预决算草案，监督执行国有资本经营预算的制度和方法，收取市本级企业国有资本收益；指导各县国有资本经营预算工作，组织实施企业财务制度，按规定权限管理金融类企业国有资产，参与拟订国有企业管理相关制度，按规定做好管理资产评估工作。', '(八)负责办理和监督全市财政的经济发展支出、全市政府性投资项目的财政拨款，贯彻执行建设投资的有关政策；制定基本建设财务制度，负责有关政策性补贴和专项储备资金财政管理工作；负责市农牧业综合开发资金管理工作，参与农牧业综合开发项目相关工作。', '(九)贯彻执行社会保险相关政策；会同有关部门拟订社保障资金(基金)的财务管理制度，管理全市相关的财政社会保障资金、就业及医疗卫生专项资金支出，编制、审核全市社会保障预决算草案，承担社会保险基金财政监管工作。', '(十)按照上级财政部门制定的地方债务计划，拟订和执行全市债务管理办法，加强债务管理，防范财政风险。', '(十一)负责管理全市会计工作，监督和规范会计行为，组织实施国家统一的会计准则制度，指导和监督注册会计师、会计师事务所的业务，指导和管理社会审计；办理相关行政许可事项的审批和注册备案工作。', '(十二)拟订全市财政监督检查制度和办法；监督检查财税法规、政策的执行情况，反映财政收支管理中的重大问题；代行自治区财政厅委托的部分财政监督管理职能。', '昌都市财政局内设正科级机构12个分别为：办公室(纪检监察室)、综合科(民生政策资金监管科)、预算科(文教科)、国库科(网络管理科)、行政政法科、经济建设科、农业科、社会保障科、企业科、监督检查科、协调办公室、金融科；内设事业机构4个,分别为:政府采购办公室、财政投资评审中心、财政国库集中支付中心、资产评估事务所。共有行政编制32名，事业编制31名。没有变化。', '人员情况，包括当年变动情况及原因。目前在职职工67(含援藏干部3人)，离退休职工19人。调出3人，调进2人。现有车辆编制8辆，正常运行车辆6辆。', '1.因公出国(境)及外出学习考察方面，我局本着“厉行节约、反对浪费”的原则，严格控制因公出国(境)，不存在用公款出国(境)旅游、公款支付应由个人负担费用的情况，2017年未产生因公出国(境)费用。', '2017年昌都市政府采购服务用于建设国库集中支付及U8财务系统软件建设760万元经政府采购办集中招标采购由中标的西藏顶峰软件有限公司实施。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>261</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>昌都市环境保护局年度部门决算</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2017-06-20</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103292/201706/9b24b155863d448c899a6b507bd0f495.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['(一)贯彻执行国家、自治区有关环境保护的方针、政策和法律、法规、规章；负责建立健全环境保护制度；拟订全市环境保护中长期规划和年度计划并组织实施；组织编制全市环境功能区划；组织实施各类地方环境保护标准和技术规范；组织拟订并监督实施全市重点区域、流域污染防治规划和饮用水源地环境保护规划；参与制定地方主体功能区划。', '(二)负责全市重大环境问题的统筹协调和监督管理。牵头协调重特大环境污染事故和生态破坏事件的调查处理；指导协调各县重大突发环境事件的应急、预警工作；协调解决有关跨区域、跨流域环境污染纠纷；统筹协调全市重点流域、区域污染防治工作。', '(三)承担落实国家、自治区市主要污染物总量减排目标的责任。组织实施全市主要污染物排放总量控制和排污许可证制度；提出市实施总量控制的污染物名称和控制指标，督查、督办、核查各县污染物减排任务完成情况；实施环境保护目标责任制、总量减排考核并公布考核结果。', '(四)对全市环境保护领域固定资产投资规模和方向、全市财政性环保资金安排提出建议。配合有关部门组织实施全市环境保护固定资产投资项目并对其进行监督；参与指导和推动循环经济和环保产业发展。', '(五)承担从源头上预防、控制环境污染和环境破坏的责任。受市政府委托对重大经济技术发展规划以及重大经济开发规划、计划进行环境影响评价；对涉及环境保护的规范性文件提出意见；依法依规审批重大开发建设区域、项目环境影响评价文件。', '(六)负责全市环境污染防治的监督管理。研究拟定水体、大气、土壤、噪声、光、恶臭、固体废物、化学品、机动车等的污染防治管理措施并组织实施；会同有关部门监督管理饮用水水源地环境保护工作；组织指导城镇和农牧区的环境综合整治工作。', '(七)指导、协调、监督生态保护工作。组织编制全市生态保护规划；指导、协调、监督生态昌都建设和西藏高原生态安全屏障工作；组织评估生态环境质量状况，监督对生态环境有影响的自然资源开发利用活动、重要生态环境建设和生态破坏恢复工作；指导、协调、监督各种类型的自然保护区、风景名胜区、森林公园、地质公园的环境保护工作；负责向市政府提出各类自然保护区、生态功能保护区新建和调整的初审建议；协调和监督野生动植物保护、湿地环境保护、荒漠化防治工作、协调指导农牧区生态环境保护；监督生物技术环境安全，参与生物物种(含遗传资源)工作；组织协调全市生物多样性保护。', '(八)负责辐射安全的监督管理。负责辐射环境事故应急处理；负责放射性同位素及射线装置安全监督管理；负责放射性废物收贮工作；监督管理电磁辐射、伴有放射性矿产资源开发利用中的污染防治；组织开展辐射环境监测。', '(九)负责环境监测和信息发布。贯彻落实国家、自治区环境监测制度和规范；组织实施环境质量监测和污染源监督性监测；组织对全市环境质量状况进行调查评估、预测预警；组织建设和管理全市环境监测网和各县环境信息网；建立和实行环境质量公告制度，统一发布全市环境综合性报告和重大环境信息。', '(十)开展环境保护科技工作。组织全市环境保护重大科学研究和技术工程示范，推动环境技术管理体系建设；开展环境保护对外交流合作；受市政府委托参与处理涉及环境保护事务；参与应对气候变化工作。', '(十一)组织、指导和协调全市环境保护宣传教育工作。制定并组织实施全市环境保护宣传教育纲要；开展生态文明建设、环境友好型社会建设、生态昌都和西藏高原国家生态安全屏障建设的有关宣传教育工作，推动社会公众和社会组织参与环境保护。', '市环境保护局共设置科室7个，其中行政科室4个，分别是办公室(政策法规科)、污染防治科(辐射环境管理科)、环境监测科、环境影响评价科；参公事业单位1个，为环境监察支队；事业单位2个，分别是环境保护监测站和环境工程评估中心。单位设有行政编制9名，其中处级领导职数4人，内设机构科级领导职数13名，事业编制28名，其中：参公编制7名，事业编制18名，机关后勤3名。现有党组书记1人，党组副书记、局长1人，党组成员、副局长、调研员1人，党组成员、调研员1人。公务车辆编制5辆，实有公务车辆5辆。', '1、出国(境)及外出学习考察方面。我局本着：“厉行节约、反对浪费”的原则，严格控制公务接待和因公出国(境)，不存在公款支付应由个人负担费用的情况，2016年末产生因公出国(境)经费。', '1、基本支出包括两部分：一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；另一部分是公用经费，具体包括办公印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、日常维修费、一般购置费等。', '2、一般行政管理项目支出，包括招待费、会议费、购置费(包括设备、计算机等)、专用材料费、干部培训费、信息网路运行维护费等用于一般行政管理事务方面的支出。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>261</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>昌都市应急管理局年度部门预算</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103321/202401/57f582ed598f4d359367f9589fe3a35e.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['昌都市应急管理局贯彻落实党中央关于应急管理工作的方针政策和自治区党委、市委的决策部署，在履职尽责过程中坚持和加强市委对应急管理工作的统一领导。主要职责是：', '（1）负责应急管理工作，指导各县（区）、各部门应对安全生产类、自然灾害类等突发事件和综合防灾减灾救灾工作；负责安全生产综合监督管理和工矿商贸行业安全生产监督管理工作。', '（2）贯彻落实应急管理、安全生产政策，组织编制市应急体系建设、安全生产和综合防灾减灾规划，贯彻落实相关地方性法规和政府规章，组织制定有关规程和标准并监督实施。', '（3）指导应急预案体系建设，执行事故灾难和自然灾害分级应对制度，组织编制市总体应急预案和安全生产类、自然灾害类专项预案，综合协调应急预案衔接工作，组织开展预案演练，推动应急避难设施建设。', '（4）牵头建立统一的应急管理信息系统，负责信息传输渠道的规划和布局，建立监测预警和灾情报告制度，健全自然灾害信息资源获取和共享机制，依法统一发布灾情。', '（5）组织指导协调安全生产类、自然灾害类等突发事件应急救援，承担市应对重大灾害指挥部工作，综合研判突发事件发展态势并提出应对建议，协助市委、市政府指定的负责同志组织重大灾害应急处置工作。', '（6）统一协调指挥各类应急专业队伍，建立应急协调联动机制，推进指挥平台对接，衔接解放军和武警部队参与应急救援工作。', '（7）统筹应急救援力量建设，负责消防、森林和草原火灾扑救、抗洪抢险、地震和地质灾害救援、生产安全事故救援等专业应急救援力量建设，管理综合性应急救援队伍，指导县（区）及社会应急救援力量建设。', '（9）指导协调森林和草原火灾、水旱灾害、地震和地质灾害等防治工作，负责自然灾害综合监测预警工作，指导开展自然灾害综合风险评估工作。', '（10）组织协调灾害救助工作，组织指导开展灾情核查、损失评估、救灾捐赠工作，管理、分配救灾款物并监督使用。', '（11）依法行使市安全生产综合监督管理职权，指导协调、监督检查各县（区）、各部门安全生产工作，组织开展安全生产巡查、考核工作。', '（12）按照分级、属地原则，依法监督检查工矿商贸生产经营单位贯彻执行安全生产法律法规情况及其安全生产条件和有关设备（特种设备除外）、材料、劳动防护用品的安全生产管理工作；负责监督管理工矿商贸行业企业安全生产工作；依法组织并指导监督实施安全生产准入制度；负责危险化学品安全监督管理综合工作和烟花爆竹安全生产监督管理工作。', '（13）依法组织指导生产安全事故调查处理，监督事故查处和责任追究落实情况；组织开展自然灾害类突发事件的调查评估工作。', '（14）开展应急管理方面的对外交流合作，组织参与安全生产类、自然灾害类等突发事件的市外救援工作。', '（15）制定应急物资储备和应急救援装备规划并组织实施，会同市发展和改革委员会（市粮食和物资储备局）等部门建立健全应急物资信息平台和调拨制度，在救灾时统一调度。', '（16）负责应急管理、安全生产宣传教育和培训工作，组织指导应急管理、安全生产的科学技术研究、推广应用和信息化建设工作。', '1.与市自然资源局、水利局、林业和草原局、农业农村局等部门在自然灾害防救方面的职责分工。', '（1）市应急管理局负责组织编制市总体应急预案和安全生产类、自然灾害类专项预案，综合协调应急预案衔接工作，组织开展预案演练。按照分级负责的原则，指导自然灾害类应急救援；组织协调重大灾害应急救援工作，并按照权限作出决定；承担市应对重大灾害指挥部工作，协助市委、市政府指定的负责同志组织重大灾害应急处置工作。组织编制综合防灾减灾规划，指导协调相关部门森林和草原火灾、水旱灾害、地震和地质灾害等防治工作；会同市自然资源局、水利局、林业和草原局、农业农村局、气象局等有关部门建立统一的应急管理信息平台，建立监测预警和灾情报告制度，建立健全自然灾害信息资源获取和共享机制，依法统一发布灾情信息。开展多灾种和灾害链综合监测预警工作机制，发布森林和草原火险、火灾信息。', '（2）市自然资源局负责落实综合防灾减灾规划相关要求，组织编制地质灾害防治规划和防护标准并指导实施；组织指导协调和监督地质灾害调查评价及隐患的普查、详查、排查；指导开展群测群防、专业监测和预报预警等工作，指导开展地质灾害工程治理工作；承担地质灾害应急救援的技术支撑工作。', '（3）市水利局负责落实综合防灾减灾规划相关要求，组织编制洪水干旱灾害防治规划和防护标准并指导实施；承担水情旱情监测预警工作；组织编制重要江河湖泊和重要水工程的防御洪水抗御旱灾调度及应急水量调度方案，按照程序报批并组织实施；承担防御洪水应急抢险的技术支撑工作。', '（4）市林业和草原局负责落实综合防灾减灾规划相关要求，组织编制森林和草原火灾防治规划和防护标准并指导实施；指导开展防火巡护、火源管理、防火设施建设等工作，组织指导林场林区和草原开展防火宣传教育、监测预警、督促检查等工作。', '（6）必要时，市自然资源局、水利局、林业和草原局农业农村局等部门可以提请市应急管理局，以市应急指挥机构名义部署相关防治工作。', '（1）市应急管理局负责提出市救灾物资的储备需求和动用决策，组织编制全市救灾物资储备规划、品种目录和标准，会同市发展和改革委员会（市粮食和物资储备局）等部门确定年度购置计划，根据需要下达动用指令。', '（2）市发展和改革委员会（市粮食和物资储备局）根据救灾物资储备规划、品种目录和标准、年度购置计划、负责市救灾物资的收储、轮换和日常管理，根据市应急管理局的动用指令按程序组织调出。', '（1）市应急管理局履行安全生产综合监管职责，负责指导协调、监督检查本级政府负有安全生产监督管理职责部门的安全生产工作。', '（2）各负有安全生产监督管理职责的部门按照“管行业必须管安全、管业务必须管安全，管生产经营必须管安全”的要求，依法具体负责本行业领域的安全生产监督管理工作。', '负责机关日常运转，承担信息、安全、保密、信访、政务公开、重要文稿起草等工作；编制市应急体系建设、安全生产和综合防灾减灾规划并组织实施，研究提出相关经济政策建议，推动应急重点工程和避难设施建设，负责部门预决算、财务、装备和资产管理、内部审计工作；承担应急管理和安全生产新闻宣传、舆情应对、文化建设等工作，开展公众知识普及工作；承担应急管理、安全生产的科技和信息化建设工作，规划信息传输渠道，健全自然灾害信息资源获取和共享机制，拟订有关科技规划、计划并组织实施；负责机关和所属单位干部人事、机构编制、劳动工资等工作，指导应急管理系统思想政治建设和干部队伍建设工作；负责机关和所属单位的党群工作；负责机关和所属单位的党群工作；负责机关和所属单位离退休人员管理服务工作；负责应急管理系统干部教育培训工作，指导应急救援队伍教育训练；负责培训基地建设和管理工作，组织指导应急管理社会动员工作。', '承担应急值守、政务值班等工作，执行事故灾难和自然灾害分级应对制度，发布预警和灾情信息，衔接解放军和武警部队参与应急救援工作；统筹应急预案体系建设，组织编制市总体应急预案和安全生产类、自然灾害类专项预案，并负责各类应急预案衔接协调，承担预案演练的组织实施和指导监督工作，承担市应对重大灾害指挥部的现场协调保障工作，指导地方及社会应急救援力量建设；开展应急管理方面的合作和交流，履行相关合作协议，组织参与市外应急救援。', '建立重大安全生产风险监测预警和评估论证机制，承担自然灾害综合监测预警工作，组织开展自然灾害综合风险和减灾能力调查评估；组织协调地震应急救援工作，指导协调地质灾害防治相关工作，指导重大地质灾害应急救援。', '组织协调水旱灾害应急救援工作，协调指导重要江河湖泊和重要水工程实施防御洪水抗御旱灾调度和应急水量调度工作；组织协调雪灾、冰崩、冰湖、堰塞湖防御处置工作。', '监督实施消防地方性法规、技术标准，指导城镇、农村、森林、草原消防工作规划编制并推进落实，指导消防监督、火灾预防、火灾扑救工作。', '负责矿山（含煤矿、地质勘探）、石油（炼化、成品油管道除外）、冶金、有色、建材、机械、轻工、纺织、烟草、商贸、化工（含石油化工）、医药、危险化学品、烟花爆竹行业安全生产基础工作和监督管理工作；拟订相关行业安全生产规程、技术标准，指导监督相关行业企业安全生产标准化、安全预防控制体系建设等工作；承担危险化学品安全监督管理综合工作，组织指导市内危险化学品登记，指导非药品类易制毒化学品生产经营监督管理工作；贯彻落实相关地方性法规和政府规章，承担政策研究相关工作，承担规范性文件的审核和行政复议、行政应诉等相关工作；依法监督检查相关行业生产经营单位贯彻落实安全生产法律法规和标准情况；负责安全生产执法综合性工作，指导执法计划编制、执法队伍建设和执法规范化建设工作。', '依法依规指导协调和监督有专门安全生产主管部门的行业和领域安全生产监督管理工作，组织协调全市安全生产检查以及专项督查、专项整治等工作，组织实施安全生产巡查、考核工作；依法承担生产安全事故调查处理工作，监督事故查处和责任追究落实情况，组织开展自然灾害类突发事件的调查评估工作；负责应急管理统计分析工作；承担市安全生产委员会办公室的日常工作。', '承担灾情核查、损失评估、救灾捐赠等灾害救助工作，拟订应急物资储备规划和需求计划，组织建立应急物资共用共享和协调机制，组织协调重要物资的储备、调拨和紧急配送，承担救灾款物的管理、分配和监督使用工作，会同有关方面组织协调紧急转移安置受灾群众、因灾毁损房屋恢复重建补助和受灾群众生活救助。', '负责依法监督检查相关行业生产经营单位贯彻落实安全生产法律法规和标准情况；负责监督检查本辖区内生产经营单位贯彻执行安全生产岗位责任制、岗位安全操作规程和事故应急处理制度的建立和执行情况；负责对生产经营单位负责人、安全管理人员、特种作业人员（特种设备作业人员除外）的安全教育培训、从业资格和遵章守纪情况进行督导检查；负责对生产经营单位安全生产设备设施、作业环境、劳动保护、职业卫生、安全标志、安全防范措施及事故隐患整改实施情况、重大危险源进行执法监察；承办市应急管理局交办的其他事项。', '负责事故灾难类和自然灾害类突发事件应急救援的技术保障服务工作；负责应急预案中技术方面的审核指导工作；参与应急救援指挥及现场技术指导相关工作，负责依据应急预案和实际救援情况提出具体救援措施；负责应急救援队伍的技术培训和组织演练工作；负责提出应急救援装备的配备意见，负责新技术、新装备的推广运用；承办市应急管理局交办的其他事项。', '宣传贯彻党和国家应急管理、安全生产、防灾减灾救灾方针政策、法律法规和技术标准；负责拟订应急管理、安全生产、防灾减灾救灾宣传教育工作制度及方案并组织实施；负责应急管理、安全生产、防灾减灾救灾相关培训工作；负责应急管理、安全生产、防灾减灾救灾简报信息、经验资料、事故案例、安全技术指引等宣传图文、音视频资料的收集运用工作，组织协调新闻媒体开展相关宣传报道工作；承办市应急管理局交办的其他事项。', '承担辖区消防救援协调服务各项工作；配合开展消防安全监督管理、执法等工作；承担消防安全宣传教育和消防志愿者队伍建设工作。', '单位编制人数：63人,其中行政编制人数22人，参照公务员法管理事业单位编制人数11人，事业编制人数27人，机关后勤事业编制人数3人。2023年根据昌机编发〔2023〕9号文件，增加了一个机构和编制15名。', '项目支出包括：灾害防治及应急管理支出（类）应急管理事务（款）一般行政管理事务、安全监管、应急救援、应急管理、消防应急救援（项）1212.78万元，占当年一般公共预算财政拨款总额41.77%；其他资本性支出（项）0万元，占当年一般公共预算财政拨款总额0%。', '（6）对个人和家庭的补助支出44.32万元，用于退休人员护工费1.6万元、14周岁以下子女探亲费4万元、公益性岗位补贴32.87万元、其他对个人和家庭支出5.85万元（主要用于涉及其他人员经费和独生子女费、志愿者体检费、休假费等）；', '（8）项目支出1212.78万元，用于灾害防治及应急管理支出（类）应急管理事务（款）一般行政管理事务、安全监管、灾害风险防治、应急救援、应急管理，其他资本性支出（项）0万元。', '（1）2024年度一般公共预算当年财政拨款“三公”经费预算104.28万元，其中：因公出国（境）费财政拨款预算0.00万元；公务用车购置经费财政拨款预算0.00万元，公务用车运行维护费财政拨款预算103.78万元（含公务车辆保险费10万元），主要用于公务用车车辆油料费、维修（护）费和车辆保险费、安全生产监管巡查、应急监管检查、防汛抗旱督导检查、森林草原防灭火检查油料等支出;公务用车财政编制量6车辆，实有车辆5辆；特种车辆编制1辆，实有车辆1辆；单位公务接待费财政拨款预算0.5万元，主要用于单位按规定开支各类公务接待费用，2024年度各类公务接待预计6批次，预计接待人数35人，严格贯彻落实中央“八项规定”和自治区党委约法“十章”“九项”要求、市委实施办法和市政府关于加强“三公”经费管理的要求，严格控制“三公”经费的支出，力争实现“三公”经费的支出逐年递减目标。', '（2）2023年度一般公共预算当年财政拨款“三公”经费预算103.21万元，其中：因公出国（境）费财政拨款预算0.00万元；公务用车购置经费财政拨款预算0.00万元，公务用车运行维护费财政拨款预算102.71万元（含公务车辆保险费7.6万元），主要用于公务用车车辆油料费、维修（护）费和车辆保险费、安全生产监管巡查、应急监管检查、防汛抗旱督导检查、森林草原防灭火检查油料等支出;公务用车财政编制量6车辆，实有车辆5辆；特种车辆编制1辆，实有车辆1辆；单位公务接待费财政拨款预算0.5万元，主要用于单位按规定开支各类公务接待费用。', '随着单位职能职责的增加、人员编制的增加、工作任务的增加、应急救援的增加，公务用车运行与维护费预算经费较上年有增加。', '2024年度昌都市应急管理局政府采购项目预算经费640万元，其中：应急管理局综合业务宣传经费140万元、应急救灾物资采购经费500万元。', '（1）基层党建工作经费，预算经费11万元，主要用途是：根据上级党委要求，开展党员干部教育和培训，加强党的方针政策宣传，积极表彰先进、慰问和补助困难党员，组织党内活动（参观红色教育基地、为民办实事、观看爱国主义内容电影、学习活动进社区进企业以及上级党委部门组织的各项活动），召开工作会议，开展党建研究、调研和学习考察，加强党员活动阵地建设和党组织规范化制度化建设。通过开展基层党建工作，可以进一步提升党员干部的理论素养和业务能力，增强党组织的战斗力和凝聚力；增强团结协作意识，激发工作热情；改进工作作风，立足工作职能，提高服务质量。', '（2）法律顾问聘请经费，预算经费6万元，主要用途是：法律顾问聘用是为了保障单位中心工作，为推进依法行政、建设法治政府提供高质量全方位的服务。国家的责任，政府的行为。积极推行党政机关法律顾问制度，提高我局依法执政、依法行政、依法管理的能力水平，促进依法办事，为全面深化法治西藏建设提供法治保障。', '（1）安委会综合业务经费，预算经费10万元，主要用途是：市安委会在市委、市政府的领导下，负责研究部署、指导协调全市安全生产和应急管理工作，分析全市安全生产形势，研究提出全市安全生产和应急管理工作的重大方针、政策，研究解决安全生产和应急管理工作中的重大问题，审定和下达年度安全生产和应急管理控制考核指标，根据工作需要，协调昌都军分区、市公安局和武警支队、消防支队、森警支队，调集军队、公安干警、武警官兵参加生产安全事故应急救援工作。市安委会办公室负责研究提出全市安全生产和应急管理重要措施的建议；监督检查、指导协调市有关部门和各县（区）人民政府（新区管委会）的安全生产和应急管理工作；组织市安全生产检查、专项督导、专项整治、隐患排查治理；研究拟订年度安全生产控制考核指标，监督考核并通报全市安全生产控制指标执行情况；负责全市范围内较大生产安全事故的应急救援、调查处理和办理结案工作；指导协调全市安全生产行政执法工作；承办市安全生产委员会召开的会议和重要活动，督促、检查市安全生产委员会会议决定事项的贯彻落实情况；承办市安全生产委员会交办的其他事项。同时每季度需召开全市安全生产工作会议，总结安全生产工作开展情况，吸取经验教训，深入分析当前安全生产面临的形势，安排部署下一阶段安全生产重点工作。', '（2）安全生产督导巡查经费，预算经费30万元，主要用途是：市安委会办公室按年度制定督导巡查工作方案，提前明确督导巡查牵头单位、分组组成情况和重点内容。督导巡查组原则上采取包年、包片措施，持续跟踪一个年度内某一片区（含县区、部门、乡镇和企业）安全生产和应急管理工作开展情况，建立督导巡查工作台账，严厉打击安全生产领域非法违法行为，严格治理纠正生产经营单位违规违章行为，督促各级各部门、各企业认真落实安全生产和应急管理各项要求和措施，促进全市安全生产形势持续稳定向好。', '（3）应急管理综合宣传活动经费，预算经费150万元，主要用途是：为进一步加强应急管理、防灾减灾、自救互救能力和安全生产宣传教育工作，牢固树立安全发展观念，提高应急管理、防灾减灾、自救互救能力和提升全面安全意识、安全技能水平、2017年原市安监局新设立了安全生产宣教中心，负责全市应急管理和安全生产宣传教育工作，大力实施全民应急管理、防灾减灾、自救互救能力和安全文明素质提升工程，深入推进应急管理、防灾减灾、自救互救能力和安全生产法律法规知识“八进”活动，在每年的“5.12”防灾减灾日、安全生产月及重大节假日期间通过上街、广播、电视、公告栏等形式开展防汛抗旱、火灾防治、防灾减灾、自救互救能力的相关知识和安全生产法律法规、安全生产常识的宣传活动，强化全民应急管理、防灾减灾、自救互救能力、安全意识和法治意识，向当地群众免费发放相关宣传资料、宣传物品，制作安全生产宣传动漫、视频，并在电视台、广场电子屏幕进行播放。并将所有宣传资料送达各县（区），由各县（区）下发到相关企业、群众，扩大应急管理、防灾减灾、自救互救能力和安全生产法律法规知识、安全应急常识的普及率，提高全社会应急管理、防灾减灾、自救互救能力和提升安全意识、安全技能水平。', '（4）应急综合业务培训经费，预算经费59.85万元，主要用途是：为进一步加强对国务院巡查通报昌都市存在的对安全生产培训力度不够、需要加强的问题的整改力度，昌都市应急管理局将积极联系组织、人社等部门进一步加强安全生产培训、学习、考察工作，组织全市各县（区）分管安全生产工作的领导、应急管理局业务骨干、乡（镇）安监站站长、辖区内管理安全生产的安全员、市直相关单位以及重点企业主要负责人积极参加昌都市、自治区以及国家和相关援藏省市组织的关于安全生产工作的培训和学习活动，聘请区内外相关专家教授来昌开展应急综合业务知识培训，并组织专人去内地专业的培训机构培训，不断提升全市应急系统干部职工业务能力和专业水平。培训内容涉及到安全生产和应急管理专题培训、危化品专题培训、非煤矿山、自然灾害、防汛抗旱、火灾防治、地质灾害、灾害信息员师资力量以及安全生产执法等培训。', '（5）应急监管检查经费，预算经费54.92万元，主要用途是：组织开展全覆盖大检查，对全市及十一县（区）、经开区辖区内生产经营单位进行分级分类执法检查，特别是在重要节点对重点区域、重要行业实地检查，加大各类安全隐患检查整改力度。配合自治区应急厅做好执法监察；加强对非煤矿山和工贸、危险化学品专项整治、易制毒化学品和烟花爆竹专项检查。', '（6）聘请行业领域专家安全生产隐患排查和执法检查专项经费，预算经费24.18万元，主要用途是：加强安全生产隐患排查治理，聘请行业领域专家重点对玉龙铜矿股份有限公司、翔晨镁业、高争建材、海螺水泥、海通水泥、王牌石材矿山企业和雪花啤酒等工贸行业及川藏铁路水电工程进行隐患排查。近年来，我市矿山企业、工贸行业和川藏铁路及水电工程等重点项目企业安全生产形势严峻，需邀请区外专家采取执法+专家形式对相关企业进行安全生产隐患排查、风险评估。', '（7）突发事件应急经费，预算经费120万元，主要用途是：根据机构改革方案，市政府应急办工作、森林草原防灭火指挥部、防汛抗旱指挥部职责划入市应急管理局，组织拟订全市突发性公共事件总体应急预案并组织实施，组织全市突发性公共事件处置的组织协调、报告，指导全市突发公共事件应急体系建设、综合应急平台建设和管理，督促、检查、指导各县（区）、各相关部门对突发公共事件的宣传、教育、培训、演练、检测、监控、处置等工作。', '（8）应急值守演练经费，预算经费为71.4万元，主要用途是：根据新设立的应急指挥中心工作职责，应急值守演练经费主要用于开展应急救援演练和培训、加强应急救援队伍建设，完善相关保障机制，积极推进行业领域救援能力和队伍建设，充分发挥社会服务保障能力以及做好应急值守、政务值班等。', '（9）应急救灾物资采购经费，预算经费500万元，主要用途是：为提高自然灾害紧急救助能力，保障突发公共事件中灾民的基本生活，规范应急物资储备管理，做到储得进、管得好、调得动、用得上，有效发挥其作用，与同级粮储部门商本级救灾物资采购计划、品种、数量，2024年计划采购一批物资补充新建我市区域性救灾仓库，同时，做好“全灾种 大应急”格局构建中应急救灾物资储备工作，补充市级消耗物资。', '（10）救灾应急指挥综合平台链路经费，预算经费48.52万元，主要用途是：为保障救灾应急指挥中心综合信息管理平台的正常使用，需租用北斗卫星通讯传输链路和ka卫星通讯链路，保障应急救灾工作的通讯正常，工作正常开展。1.北斗卫星通讯传输链路。北斗卫星系统是我国自主建设运行的全球卫星系统，即全球定位与通讯系统，该系统具有高强度加密设计，安全可靠稳定，为用户全天候、全天时提供定位、导航、短报文、授时服务。2. ka卫星通讯链路。ka卫星由我国自主研发，工作于ka频段的多点波速、大容量卫星。其频率范围为26.5~40GHz，覆盖中国大陆和近海海域，拥有超过30Gbps容量的ka宽带卫星通信能力，为高速卫星通讯、千兆比特级带宽数据传输提供条件。', '（11）安全生产举报奖励金, 预算经费为30万元，主要用途是：对举报重大事故隐患、违法生产经营建设的，奖励金额按照行政处罚金额的15%计算，最低奖励3000元，最高不超过30万元。对举报瞒报、谎报事故的，按照最终确认的事故等级和查实举报的瞒报谎报死亡人数给予奖励。', '（12）防汛抗旱督导检查经费, 预算经费为10万元，主要用途是：市防汛抗旱指挥部办公室每年进行11县（区）汛前及汛期防汛抗旱工作督导检查，提前明确督导检查牵头单位、分组组成情况和重点内容。督导检查组原则上采取分组措施，分组检查各县（区）（含部门、乡镇和企业）防汛抗旱工作开展情况，建立督导检查工作台账，并及时进行整改闭环工作。督促各级各部门、各企业认真落实防汛抗旱各项要求和措施，确保全市各级各部门安全度汛。', '（13）森林草原防灭火专项经费, 预算经费为73.24万元，主要用途是：为切实把思想和行动统一到习近平总书记关于对森林草原防灭火工作的重要批示指示精神上来，坚持人民至上、生命至上，扎实开展森林草原防灭火各项工作。开展森林草原防灭火演练、防灭火督导巡查、防火宣传等，确保我市不发生重特大森林草原火灾。', '（14）应急减灾专项业务经费，预算经费为10万元，主要用途是：深入贯彻习近平总书记关于自然灾害防范提出的重要批示指示，充分发挥减灾办职能职责作用，贯彻落实党中央、国务院和自治区党委、政府，市委、市政府以及自治区减灾办，市减灾委员会关于防灾减灾救灾工作重大决策部署，负责研究制定全市防灾减灾救灾工作方针、政策和规划；统筹指导和综合协调较大以上防灾减灾救灾活动；督促指导各地各有关部门开展防灾减灾救灾工作；推进防灾减灾救灾交流合作。', '（15）“三大节日”慰问金，预算经费为3.67万元，主要用途是：为切实统筹做好应急管理系统2024年春节藏历新年慰问活动，凝聚起广大干部群众的思想共识和智慧力量，在“四个创建”“四个走在前列”中争一流显担当、走在前做表率。经局党委决定在春节藏历新年期间对昌都市消防救援支队、森林消防救援支队、强巴林寺消防救援中队、消防救援人员以及昌都市应急总指挥部、地震台等进行集中走访慰问。', '1.一般公共预算。指政府凭借国家政治权力，以社会管理者身份筹集以税收为主体的财政收入，用于保障和改善民生、维持国家行政职能正常行使、保障国家安全等方面的收支预算。', '2.工资福利支出（301）：反映单位开支的在职职工和编制外长期聘用人员的种类劳动报酬，以及为上述人员缴纳的各项社会保险费等。', '3.基本工资（30101）：反映按规定发放的基本工资，包括公务员的职务工资、级别工资；机关工人的岗位工资、技术等级工资；事业单位工作人员的岗位工资、薪级工资；种类学校毕业生试用期（见习期）工资、新参加工作工人学徒期、熟练期工资；军队（含武警）军官、文职干部的职务（专业技术等级）工资、军衔（级别）工资和军龄工资；军队士官的军衔等级工资和军龄工资等。', '4.津贴补贴（30102）：反映按规定发放的津贴、补贴，包括机关工作人员工作性津贴、生活性补贴、地区附加津贴，机关事业单位艰苦边远地区津贴，事业单位工作人员特殊岗位津贴补贴，以及提租补贴、购房补贴、采暖补贴、物业服务补贴等。', '6.伙食补助费（30106）：反映单位发给职工的伙食补助费，因公负伤等住院治疗、住疗养院期间的伙食补助费，军队（含武警）人员的伙食费等。', '7.机关事业单位基本养老保险缴费（30108）：反映单位为职工缴纳的基本养老保险费。由单位代扣的工作人员职业年金缴费，不在此科目反映。', '9.公务员医疗补助缴费（30111）：反映按规定可享受公务员医疗补助单位为职工缴纳的公务员医疗补助费。', '10.其他社会保障缴费（30112）：反映单位为职工缴纳的失业、工伤、生育、大病统筹等社会保险费，残疾人就业保障金，军队（含武警）为军人缴纳的退役养老、医疗等社会保险费。生育保险和职工基本医疗保险合并实施的地区，相关缴费不在此科目反映。', '12.医疗费（30114）：反映未参加医疗保险单位的医疗经费和单位按规定为职工支出的其他医疗费用。', '19.维修（护）费（30213）：反映单位日常开支的固定资产（不包括车船等交通工具）修理和维护费用，网络信息系统运行与维护费用，以及按规定提取的修购基金。', '22.公务用车运行维护费（30231）：反映单位按规定保留的公务用车燃料费、维修费、过桥过路费、保险费、安全奖励费用等支出。', '23.其他交通费用（30239）：反映单位除公务用车运行维护费以外的其他交通费用。如公务交通补贴，租车费用、出租车费用，飞机、船舶等的燃料费、维修费、保险费等。', '24.其他商品和服务支出（30299）：反映上述科目未包括的日常公用支出。如诉讼费、国内组织的会员费、来访费、广告宣传费以及离休人员特需费、离退休人员公用经费等。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>261</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>昌都市发展和改革委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103259/201910/3a2f0ee8edc64003960a5cbff3f3e9f8.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['（1）贯彻执行国家和自治区有关国民经济和社会发展、经济体制改革、价格、粮食管理等工作的方针政策和法律法规，拟订全市国民经济和社会发展战略、中长期规划和年度计划，并组织实施；统筹协调经济社会发展，研究分析国内外和本市经济形势，研究提出经济社会发展和优化调整经济结构的目标、政策建议；受市政府委托向市人大提交全市国民经济和社会发展计划（草案）的报告。', '（2）负责监测宏观经济和社会发展态势，承担预测预警和信息引导的责任；研究宏观经济运行、总量平衡、全市经济安全和总体产业安全等重要问题并提出宏观调控政策建议；负责协调解决经济运行中的重大问题，调节经济运行；负责组织重要物资的紧急调度和协调。', '（3）负责汇总分析全市财政、金融等方面的情况；参与研究提出财政政策和土地政策的建议；综合分析全市财政、金融、土地政策的执行效果。', '（4）承担指导推进和综合协调经济体制改革的责任；研究经济体制改革和对外开放的重大问题；组织拟订综合性经济体制改革方案，协调有关专项经济体制改革方案；会同有关部门搞好重要专项经济体制改革之间的衔接；指导经济体制改革试点工作。', '（5）承担规划重大建设项目和生产力布局的责任；拟订全社会固定资产投资总规模和投资结构的调控目标及政策、措施，衔接平衡申请国家及自治区建设资金投资和涉及重大建设项目的专项规划；审核、申报、审批重大建设项目；组织实施企业投资项目管理制度改革；组织开展重大建设项目稽察；指导工程咨询业发展；指导、协调、管理全市招投标工作；负责协调衔接铁路规划建设事宜。', '（6）负责推进全市经济结构战略性调整工作；负责协调第一、二、三产业发展问题并衔接平衡相关发展规划；协调农牧业和农牧区经济社会发展的问题；会同有关部门拟订服务业发展战略、规划和重大政策；拟订现代物流业发展战略、规划；协调解决重大技术装备推广应用等方面的问题。', '（7）组织相关部门实施区域协调发展及实施西部大开发战略的规划和政策措施；提出城镇化发展政策建议，引导和促进区域经济协调发展；承担市实施西部大开发战略领导小组的具体工作。', '（8）承担重要商品总量平衡和宏观调控责任；拟订全市战略物资储备规划；负责组织战略物资的收储、动用、轮换和管理；会同有关部门指导管理粮食、石油和药品等重要物资和商品的储备。', '（9）负责全市国民经济发展与社会发展的衔接平衡，组织拟订社会发展总体规划和年度计划；研究拟订人口发展战略、规划及人口政策建议；参与拟订科技、教育、文化、卫生、民政等发展政策建议；研究提出促进就业、调整收入分配、完善社会保障与经济协调发展的政策建议；负责协调社会事业发展和改革中的重大问题及政策工作。', '（10）推进可持续发展战略，负责全市节能减排的综合协调工作；组织拟订全市发展循环经济、全社会能源资源节约和综合利用规划及政策措施，并协调实施；参与编制生态建设、环境保护规划，协调生态建设、能源资源节约和综合利用重大问题工作；综合协调环保产业和清洁生产促进有关工作。', '（11）负责能源的行业管理；组织实施能源发展规划、产业政策，衔接能源生产建设和供需平衡；负责能源行业节能和资源综合利用；指导能源科技进步；负责能源预测预警；拟订能源储备政策措施；负责规范能源市场秩序。', '（12）组织实施国家和自治区应对气候变化重大战略、规划和政策；组织拟订全市应对气候变化战略、规划及政策建议；组织实施市国民经济动员有关工作，推进军民融合式发展。', '（13）提出利用外资、招商引资和经济技术合作的规划、总量平衡和结构优化的目标；承担招商引资工作的宏观管理职责。', '（14）研究提出全市价格总水平控制目标及价格宏观调控措施，建立和完善价格管理制度；负责全市价格工作宏观管理和综合平衡；组织实施全市物价监督检查，依法查处价格违法行为和价格垄断行为；建立全市价格监测和预警系统，定期发布各类市场价格信息；建立完善价格补贴与物价水平联动机制，并组织实施；组织开展价格鉴证、价格认定工作；协调处理相关价格矛盾和纠纷，提供价格服务。', '（15）拟订全市粮食宏观调控、总量平衡以及粮食流通发展规划、政策措施，并组织实施；承担粮食市场监测预警及应急管理责任；组织实施粮食库存监督检查制度；监管粮食质量安全和原粮卫生；监督实施粮食储存、运输的技术规范；指导粮食行业安全生产工作；研究提出地方储备粮的规模、总体布局和收购、销售、轮换计划，并组织实施；监督检查粮食流通统计制度；负责相关粮食补贴的申报和管理使用。', '昌都市发展和改革委员会内设正科级机构12个分别为：办公室(政工人事科)、发展规划与经济体制改革科、国民经济综合科（市国防经济动员办公室、市西部大开发办公室）、固定资产投资科、农村经济科（经济贸易科）、基础产业科（产业协调科）、社会发展科、市物价局、基本建设管理科（市重点项目建设协调办公室）、市能源局（能源资源科、应对气候变化科）、粮食局综合管理科（粮食监督检查科）储备粮管理科（粮食财务审计科）；内设事业机构10个,分别为:市建设项目评审中心（市工程咨询中心）、经济信息中心（市节能监察中心）、市价格检测中心（市价格认证中心）市铁路建设领导小组办公室、市项目协调管理中心（市重大建设项目稽查特派员办公室）、市对口援藏项目协调办公室、市受援办驻重庆联络处、市国家粮食储备库、市地方储备粮管理中心（粮食信息统计中心）、市粮食质检中心。', '1.因公出国(境)及外出学习考察方面。我委本着“厉行节约、反对浪费”的原则，严格控制因公出国(境)，不存在用公款出国(境)旅游、公款支付应由个人负担费用的情况，2018年未产生因公出国(境)费用。', '（一）2018年我委履行一般行政事业管理职能，维持机关运行，用一般公用预算安排的行政经费，合计', '1.基本支出，包括两部分；一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。', '2.一般行政管理项目支出，包括招待费、会议费、购置费（包括设备、计算机等）、专用材料费、干部培训费、信息网络运行维护费等用于一般行政管理事务方面的项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>西藏省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>261</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>昌都市</t>
+          <t>西藏省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>昌都市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>昌都市发展和改革委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2018-09-06</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.changdu.gov.cn/cdrmzf/c103259/201809/7fcd01389dcb4385b1771e84c8c47214.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['(1)贯彻执行国家和自治区有关国民经济和社会发展、经济体制改革、价格、粮食管理等工作的方针政策和法律法规，拟订全市国民经济和社会发展战略、中长期规划和年度计划，并组织实施；统筹协调经济社会发展，研究分析国内外和本市经济形势，研究提出经济社会发展和优化调整经济结构的目标、政策建议；受市政府委托向市人大提交全市国民经济和社会发展计划(草案)的报告。', '(2)负责监测宏观经济和社会发展态势，承担预测预警和信息引导的责任；研究宏观经济运行、总量平衡、全市经济安全和总体产业安全等重要问题并提出宏观调控政策建议；负责协调解决经济运行中的重大问题，调节经济运行；负责组织重要物资的紧急调度和协调。', '(3)负责汇总分析全市财政、金融等方面的情况；参与研究提出财政政策和土地政策的建议；综合分析全市财政、金融、土地政策的执行效果。', '(4)承担指导推进和综合协调经济体制改革的责任；研究经济体制改革和对外开放的重大问题；组织拟订综合性经济体制改革方案，协调有关专项经济体制改革方案；会同有关部门搞好重要专项经济体制改革之间的衔接；指导经济体制改革试点工作。', '(5)承担规划重大建设项目和生产力布局的责任；拟订全社会固定资产投资总规模和投资结构的调控目标及政策、措施，衔接平衡申请国家及自治区建设资金投资和涉及重大建设项目的专项规划；审核、申报、审批重大建设项目；组织实施企业投资项目管理制度改革；组织开展重大建设项目稽察；指导工程咨询业发展；指导、协调、管理全市招投标工作；负责协调衔接铁路规划建设事宜。', '(6)负责推进全市经济结构战略性调整工作；负责协调第一、二、三产业发展问题并衔接平衡相关发展规划；协调农牧业和农牧区经济社会发展的问题；会同有关部门拟订服务业发展战略、规划和重大政策；拟订现代物流业发展战略、规划；协调解决重大技术装备推广应用等方面的问题。', '(7)组织相关部门实施区域协调发展及实施西部大开发战略的规划和政策措施；提出城镇化发展政策建议，引导和促进区域经济协调发展；承担市实施西部大开发战略领导小组的具体工作。', '(8)承担重要商品总量平衡和宏观调控责任；拟订全市战略物资储备规划；负责组织战略物资的收储、动用、轮换和管理；会同有关部门指导管理粮食、石油和药品等重要物资和商品的储备。', '(9)负责全市国民经济发展与社会发展的衔接平衡，组织拟订社会发展总体规划和年度计划；研究拟订人口发展战略、规划及人口政策建议；参与拟订科技、教育、文化、卫生、民政等发展政策建议；研究提出促进就业、调整收入分配、完善社会保障与经济协调发展的政策建议；负责协调社会事业发展和改革中的重大问题及政策工作。', '(10)推进可持续发展战略，负责全市节能减排的综合协调工作；组织拟订全市发展循环经济、全社会能源资源节约和综合利用规划及政策措施，并协调实施；参与编制生态建设、环境保护规划，协调生态建设、能源资源节约和综合利用重大问题工作；综合协调环保产业和清洁生产促进有关工作。', '(11)负责能源的行业管理；组织实施能源发展规划、产业政策，衔接能源生产建设和供需平衡；负责能源行业节能和资源综合利用；指导能源科技进步；负责能源预测预警；拟订能源储备政策措施；负责规范能源市场秩序。', '(12)组织实施国家和自治区应对气候变化重大战略、规划和政策；组织拟订全市应对气候变化战略、规划及政策建议；组织实施市国民经济动员有关工作，推进军民融合式发展。', '(13)提出利用外资、招商引资和经济技术合作的规划、总量平衡和结构优化的目标；承担招商引资工作的宏观管理职责。', '(14)研究提出全市价格总水平控制目标及价格宏观调控措施，建立和完善价格管理制度；负责全市价格工作宏观管理和综合平衡；组织实施全市物价监督检查，依法查处价格违法行为和价格垄断行为；建立全市价格监测和预警系统，定期发布各类市场价格信息；建立完善价格补贴与物价水平联动机制，并组织实施；组织开展价格鉴证、价格认定工作；协调处理相关价格矛盾和纠纷，提供价格服务。', '(15)拟订全市粮食宏观调控、总量平衡以及粮食流通发展规划、政策措施，并组织实施；承担粮食市场监测预警及应急管理责任；组织实施粮食库存监督检查制度；监管粮食质量安全和原粮卫生；监督实施粮食储存、运输的技术规范；指导粮食行业安全生产工作；研究提出地方储备粮的规模、总体布局和收购、销售、轮换计划，并组织实施；监督检查粮食流通统计制度；负责相关粮食补贴的申报和管理使用。', '昌都市发展和改革委员会内设正科级机构12个分别为：办公室(政工人事科)、发展规划与经济体制改革科、国民经济综合科(市国防经济动员办公室、市西部大开发办公室)、固定资产投资科、农村经济科(经济贸易科)、基础产业科(产业协调科)、社会发展科、市物价局、基本建设管理科(市重点项目建设协调办公室)、市能源局(能源资源科、应对气候变化科)、粮食局综合管理科(粮食监督检查科)储备粮管理科(粮食财务审计科)；内设事业机构10个,分别为:市建设项目评审中心(市工程咨询中心)、经济信息中心(市节能监察中心)、市价格检测中心(市价格认证中心)市铁路建设领导小组办公室、市项目协调管理中心(市重大建设项目稽查特派员办公室)、市对口援藏项目协调办公室、市受援办驻重庆联络处、市国家粮食储备库、市地方储备粮管理中心(粮食信息统计中心)、市粮食质检中心。', '1.因公出国(境)及外出学习考察方面。我委本着“厉行节约、反对浪费”的原则，严格控制因公出国(境)，不存在用公款出国(境)旅游、公款支付应由个人负担费用的情况，2017年未产生因公出国(境)费用。', '1.基本支出，包括两部分；一部分是人员经费，具体包括工资、津贴及奖金、医疗费、住房补贴等；二是公用经费，具体包括办公及印刷费、水电费、邮电费、交通费、差旅费、会议费、福利费、物业管理费、日常维修费、一般购置费等。', '2.一般行政管理项目支出，包括招待费、会议费、购置费(包括设备、计算机等)、专用材料费、干部培训费、信息网络运行维护费等用于一般行政管理事务方面的项目支出。']</t>
         </is>
